--- a/2023/PhaiSinh.xlsx
+++ b/2023/PhaiSinh.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trung.nguyenhoang/Desktop/stocks/App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEC8A0E-71A9-9143-8918-C61EB0C40BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86BEDED-C301-2145-8073-8A96B2FD9587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="16860" xr2:uid="{C3A8CAD2-D0D3-0E42-AE62-C721C0509473}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="16860" activeTab="1" xr2:uid="{C3A8CAD2-D0D3-0E42-AE62-C721C0509473}"/>
   </bookViews>
   <sheets>
-    <sheet name="VN30F2401" sheetId="1" r:id="rId1"/>
-    <sheet name="MoneyFlow" sheetId="3" r:id="rId2"/>
+    <sheet name="MoneyFlow" sheetId="3" r:id="rId1"/>
+    <sheet name="VN30F2401" sheetId="1" r:id="rId2"/>
     <sheet name="VN30F2402" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t>25/12/2023</t>
+  </si>
+  <si>
+    <t>Luỹ kế</t>
   </si>
 </sst>
 </file>
@@ -482,82 +488,82 @@
               <c:strCache>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>25/12/2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>22/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>21/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>20/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>19/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>18/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>15/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>14/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>13/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>12/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>11/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>08/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>07/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>06/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>05/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>04/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>01/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>30/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>29/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>28/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>27/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>24/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>23/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>22/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>21/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>20/11/2023</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>17/11/2023</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -569,82 +575,82 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>28825</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>28031</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>25504</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>20494</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>10056</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5449</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2096</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2017</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>1663</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>1435</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>1005</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>1011</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>708</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>737</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>735</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>677</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>534</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>499</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>502</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>275</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>241</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>96</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>-15</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>-83</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>-92</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>-86</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -717,82 +723,82 @@
               <c:strCache>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>25/12/2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>22/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>21/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>20/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>19/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>18/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>15/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>14/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>13/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>12/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>11/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>08/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>07/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>06/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>05/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>04/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>01/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>30/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>29/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>28/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>27/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>24/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>23/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>22/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>21/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>20/11/2023</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>17/11/2023</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -804,82 +810,82 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>-12226</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-8234</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>-12024</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>-9150</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>-3778</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>-2054</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>-1232</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>-751</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>-612</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>-516</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>-332</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>-226</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>-364</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>-273</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>-217</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>-185</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>-108</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>-103</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>-86</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>-126</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>-115</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>-113</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>-102</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>-101</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>-100</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>-80</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -979,82 +985,82 @@
                     <c:strCache>
                       <c:ptCount val="26"/>
                       <c:pt idx="0">
+                        <c:v>25/12/2023</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
                         <c:v>22/12/2023</c:v>
                       </c:pt>
-                      <c:pt idx="1">
+                      <c:pt idx="2">
                         <c:v>21/12/2023</c:v>
                       </c:pt>
-                      <c:pt idx="2">
+                      <c:pt idx="3">
                         <c:v>20/12/2023</c:v>
                       </c:pt>
-                      <c:pt idx="3">
+                      <c:pt idx="4">
                         <c:v>19/12/2023</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="5">
                         <c:v>18/12/2023</c:v>
                       </c:pt>
-                      <c:pt idx="5">
+                      <c:pt idx="6">
                         <c:v>15/12/2023</c:v>
                       </c:pt>
-                      <c:pt idx="6">
+                      <c:pt idx="7">
                         <c:v>14/12/2023</c:v>
                       </c:pt>
-                      <c:pt idx="7">
+                      <c:pt idx="8">
                         <c:v>13/12/2023</c:v>
                       </c:pt>
-                      <c:pt idx="8">
+                      <c:pt idx="9">
                         <c:v>12/12/2023</c:v>
                       </c:pt>
-                      <c:pt idx="9">
+                      <c:pt idx="10">
                         <c:v>11/12/2023</c:v>
                       </c:pt>
-                      <c:pt idx="10">
+                      <c:pt idx="11">
                         <c:v>08/12/2023</c:v>
                       </c:pt>
-                      <c:pt idx="11">
+                      <c:pt idx="12">
                         <c:v>07/12/2023</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="13">
                         <c:v>06/12/2023</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="14">
                         <c:v>05/12/2023</c:v>
                       </c:pt>
-                      <c:pt idx="14">
+                      <c:pt idx="15">
                         <c:v>04/12/2023</c:v>
                       </c:pt>
-                      <c:pt idx="15">
+                      <c:pt idx="16">
                         <c:v>01/12/2023</c:v>
                       </c:pt>
-                      <c:pt idx="16">
+                      <c:pt idx="17">
                         <c:v>30/11/2023</c:v>
                       </c:pt>
-                      <c:pt idx="17">
+                      <c:pt idx="18">
                         <c:v>29/11/2023</c:v>
                       </c:pt>
-                      <c:pt idx="18">
+                      <c:pt idx="19">
                         <c:v>28/11/2023</c:v>
                       </c:pt>
-                      <c:pt idx="19">
+                      <c:pt idx="20">
                         <c:v>27/11/2023</c:v>
                       </c:pt>
-                      <c:pt idx="20">
+                      <c:pt idx="21">
                         <c:v>24/11/2023</c:v>
                       </c:pt>
-                      <c:pt idx="21">
+                      <c:pt idx="22">
                         <c:v>23/11/2023</c:v>
                       </c:pt>
-                      <c:pt idx="22">
+                      <c:pt idx="23">
                         <c:v>22/11/2023</c:v>
                       </c:pt>
-                      <c:pt idx="23">
+                      <c:pt idx="24">
                         <c:v>21/11/2023</c:v>
                       </c:pt>
-                      <c:pt idx="24">
+                      <c:pt idx="25">
                         <c:v>20/11/2023</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>17/11/2023</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1099,7 +1105,7 @@
                   <c:v>GDTD</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Biến động</c:v>
+                  <c:v>Luỹ kế</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1128,82 +1134,82 @@
               <c:strCache>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>25/12/2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>22/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>21/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>20/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>19/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>18/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>15/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>14/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>13/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>12/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>11/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>08/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>07/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>06/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>05/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>04/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>01/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>30/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>29/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>28/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>27/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>24/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>23/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>22/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>21/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>20/11/2023</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>17/11/2023</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1215,82 +1221,82 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>-5.9999999999999995E-4</c:v>
+                  <c:v>-1.54E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0000000000000001E-4</c:v>
+                  <c:v>-3.1200000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1999999999999998E-3</c:v>
+                  <c:v>-3.0600000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9999999999999993E-3</c:v>
+                  <c:v>-3.1100000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.1599999999999999E-2</c:v>
+                  <c:v>-3.8300000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-8.6E-3</c:v>
+                  <c:v>-4.53E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.3E-3</c:v>
+                  <c:v>-3.3700000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-9.3999999999999986E-3</c:v>
+                  <c:v>-2.5100000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>-2.2800000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.8E-3</c:v>
+                  <c:v>-1.3400000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-8.9999999999999998E-4</c:v>
+                  <c:v>-1.6400000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.9999999999999998E-4</c:v>
+                  <c:v>-2.0200000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1000000000000001E-2</c:v>
+                  <c:v>-1.9300000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-7.0999999999999995E-3</c:v>
+                  <c:v>-2.0200000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.78E-2</c:v>
+                  <c:v>-3.1200000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.7000000000000002E-3</c:v>
+                  <c:v>-2.4100000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.1899999999999999E-2</c:v>
+                  <c:v>-4.1900000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.5000000000000006E-3</c:v>
+                  <c:v>-4.9600000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.6E-3</c:v>
+                  <c:v>-3.7700000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-5.6000000000000008E-3</c:v>
+                  <c:v>-4.4200000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1E-3</c:v>
+                  <c:v>-5.28E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2.69E-2</c:v>
+                  <c:v>-4.7199999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.5E-3</c:v>
+                  <c:v>-4.82E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>-2.1299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1.8E-3</c:v>
+                  <c:v>-2.2800000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-2.5000000000000001E-2</c:v>
+                  <c:v>-2.6800000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1712,82 +1718,82 @@
               <c:strCache>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>25/12/2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>22/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>21/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>20/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>19/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>18/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>15/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>14/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>13/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>12/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>11/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>08/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>07/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>06/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>05/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>04/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>01/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>30/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>29/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>28/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>27/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>24/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>23/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>22/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>21/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>20/11/2023</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>17/11/2023</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1799,82 +1805,82 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>179539</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>170434</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>42157</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>24951</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>14830</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>8616</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2262</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1640</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>1197</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>1785</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>438</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>916</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>877</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>336</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>365</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>850</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>394</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>482</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>489</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>723</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>344</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>972</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>417</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>513</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>457</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>462</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>692</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1944,82 +1950,82 @@
               <c:strCache>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>25/12/2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>22/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>21/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>20/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>19/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>18/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>15/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>14/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>13/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>12/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>11/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>08/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>07/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>06/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>05/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>04/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>01/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>30/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>29/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>28/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>27/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>24/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>23/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>22/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>21/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>20/11/2023</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>17/11/2023</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2031,82 +2037,82 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>5908</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>8409</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>11200</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>13070</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>7565</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5113</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>765</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>636</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>420</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>808</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>206</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>413</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>155</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>118</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>122</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>301</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>247</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>149</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>135</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>74</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2176,82 +2182,82 @@
               <c:strCache>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>25/12/2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>22/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>21/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>20/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>19/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>18/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>15/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>14/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>13/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>12/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>11/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>08/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>07/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>06/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>05/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>04/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>01/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>30/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>29/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>28/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>27/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>24/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>23/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>22/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>21/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>20/11/2023</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>17/11/2023</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2263,82 +2269,82 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>4434</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6192</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5098</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>5762</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1724</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>822</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>481</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>139</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>96</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>184</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>106</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>248</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>91</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>78</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2408,82 +2414,82 @@
               <c:strCache>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>25/12/2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>22/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>21/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>20/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>19/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>18/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>15/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>14/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>13/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>12/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>11/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>08/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>07/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>06/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>05/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>04/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>01/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>30/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>29/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>28/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>27/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>24/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>23/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>22/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>21/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>20/11/2023</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>17/11/2023</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2495,82 +2501,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>57560</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>49231</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>34535</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>19399</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>10671</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5252</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>4177</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>3463</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>3110</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>2102</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>1990</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>1861</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>1707</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>1626</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>1514</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>1291</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>1255</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>1212</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>1167</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>937</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>850</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>501</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>479</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>282</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>206</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4247,2175 +4253,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DC1C2D-D028-544D-AE96-582E75E82A33}">
-  <dimension ref="A1:V38"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S4" sqref="S4:W4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
-    <col min="4" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="8" max="9" width="20.5" customWidth="1"/>
-    <col min="12" max="13" width="17.5" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" customWidth="1"/>
-    <col min="15" max="15" width="16.1640625" customWidth="1"/>
-    <col min="16" max="16" width="17.83203125" customWidth="1"/>
-    <col min="17" max="17" width="20.33203125" customWidth="1"/>
-    <col min="18" max="18" width="13.1640625" customWidth="1"/>
-    <col min="20" max="20" width="15.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1">
-        <v>45247</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1">
-        <v>45309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>14</v>
-      </c>
-      <c r="R4" t="s">
-        <v>11</v>
-      </c>
-      <c r="S4" t="s">
-        <v>10</v>
-      </c>
-      <c r="T4" t="s">
-        <v>15</v>
-      </c>
-      <c r="U4" t="s">
-        <v>16</v>
-      </c>
-      <c r="V4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="3">
-        <v>5468</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2941</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2527</v>
-      </c>
-      <c r="E5" s="3">
-        <f t="shared" ref="E5:E28" si="0">D5+E6</f>
-        <v>28031</v>
-      </c>
-      <c r="F5" s="3">
-        <v>599486290000</v>
-      </c>
-      <c r="G5" s="3">
-        <v>322553750000</v>
-      </c>
-      <c r="H5" s="3">
-        <v>276932540000</v>
-      </c>
-      <c r="I5" s="3">
-        <f t="shared" ref="I5:I28" si="1">H5+I6</f>
-        <v>3064075270000</v>
-      </c>
-      <c r="J5" s="3">
-        <v>4991</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1201</v>
-      </c>
-      <c r="L5" s="3">
-        <v>3790</v>
-      </c>
-      <c r="M5" s="3">
-        <f t="shared" ref="M5:M28" si="2">L5+M6</f>
-        <v>-8234</v>
-      </c>
-      <c r="N5" s="3">
-        <v>547083740000</v>
-      </c>
-      <c r="O5" s="3">
-        <v>131791340000</v>
-      </c>
-      <c r="P5" s="3">
-        <v>415292400000</v>
-      </c>
-      <c r="Q5" s="3">
-        <f t="shared" ref="Q5:Q28" si="3">P5+Q6</f>
-        <v>-899165640000</v>
-      </c>
-      <c r="R5" s="3">
-        <v>49231</v>
-      </c>
-      <c r="S5" s="3">
-        <v>170434</v>
-      </c>
-      <c r="T5" s="7">
-        <v>4.9338746963634016E-2</v>
-      </c>
-      <c r="U5" s="7">
-        <v>3.6330779069903896E-2</v>
-      </c>
-      <c r="V5" s="7">
-        <v>-5.9999999999999995E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="3">
-        <v>8105</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3095</v>
-      </c>
-      <c r="D6" s="3">
-        <v>5010</v>
-      </c>
-      <c r="E6" s="3">
-        <f t="shared" si="0"/>
-        <v>25504</v>
-      </c>
-      <c r="F6" s="3">
-        <v>887785460000</v>
-      </c>
-      <c r="G6" s="3">
-        <v>339308700000</v>
-      </c>
-      <c r="H6" s="3">
-        <v>548476760000</v>
-      </c>
-      <c r="I6" s="3">
-        <f t="shared" si="1"/>
-        <v>2787142730000</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1112</v>
-      </c>
-      <c r="K6" s="3">
-        <v>3986</v>
-      </c>
-      <c r="L6" s="3">
-        <v>-2874</v>
-      </c>
-      <c r="M6" s="3">
-        <f t="shared" si="2"/>
-        <v>-12024</v>
-      </c>
-      <c r="N6" s="3">
-        <v>121825220000</v>
-      </c>
-      <c r="O6" s="3">
-        <v>436966820000</v>
-      </c>
-      <c r="P6" s="3">
-        <v>-315141600000</v>
-      </c>
-      <c r="Q6" s="3">
-        <f t="shared" si="3"/>
-        <v>-1314458040000</v>
-      </c>
-      <c r="R6" s="3">
-        <v>34535</v>
-      </c>
-      <c r="S6" s="3">
-        <v>42157</v>
-      </c>
-      <c r="T6" s="7">
-        <v>0.26567355362098821</v>
-      </c>
-      <c r="U6" s="7">
-        <v>0.12092890860355339</v>
-      </c>
-      <c r="V6" s="7">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="3">
-        <v>11754</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1316</v>
-      </c>
-      <c r="D7" s="3">
-        <v>10438</v>
-      </c>
-      <c r="E7" s="3">
-        <f t="shared" si="0"/>
-        <v>20494</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1285944240000</v>
-      </c>
-      <c r="G7" s="3">
-        <v>143929260000</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1142014980000</v>
-      </c>
-      <c r="I7" s="3">
-        <f t="shared" si="1"/>
-        <v>2238665970000</v>
-      </c>
-      <c r="J7" s="3">
-        <v>195</v>
-      </c>
-      <c r="K7" s="3">
-        <v>5567</v>
-      </c>
-      <c r="L7" s="3">
-        <v>-5372</v>
-      </c>
-      <c r="M7" s="3">
-        <f t="shared" si="2"/>
-        <v>-9150</v>
-      </c>
-      <c r="N7" s="3">
-        <v>21386240000</v>
-      </c>
-      <c r="O7" s="3">
-        <v>609219120000</v>
-      </c>
-      <c r="P7" s="3">
-        <v>-587832880000</v>
-      </c>
-      <c r="Q7" s="3">
-        <f t="shared" si="3"/>
-        <v>-999316440000</v>
-      </c>
-      <c r="R7" s="3">
-        <v>19399</v>
-      </c>
-      <c r="S7" s="3">
-        <v>24951</v>
-      </c>
-      <c r="T7" s="7">
-        <v>0.523826700332652</v>
-      </c>
-      <c r="U7" s="7">
-        <v>0.23093262795078354</v>
-      </c>
-      <c r="V7" s="7">
-        <v>7.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="3">
-        <v>6086</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1479</v>
-      </c>
-      <c r="D8" s="3">
-        <v>4607</v>
-      </c>
-      <c r="E8" s="3">
-        <f t="shared" si="0"/>
-        <v>10056</v>
-      </c>
-      <c r="F8" s="3">
-        <v>658941430000</v>
-      </c>
-      <c r="G8" s="3">
-        <v>159982430000</v>
-      </c>
-      <c r="H8" s="3">
-        <v>498959000000</v>
-      </c>
-      <c r="I8" s="3">
-        <f t="shared" si="1"/>
-        <v>1096650990000</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1724</v>
-      </c>
-      <c r="L8" s="3">
-        <v>-1724</v>
-      </c>
-      <c r="M8" s="3">
-        <f t="shared" si="2"/>
-        <v>-3778</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>186507170000</v>
-      </c>
-      <c r="P8" s="3">
-        <v>-186507170000</v>
-      </c>
-      <c r="Q8" s="3">
-        <f t="shared" si="3"/>
-        <v>-411483560000</v>
-      </c>
-      <c r="R8" s="3">
-        <v>10671</v>
-      </c>
-      <c r="S8" s="3">
-        <v>14830</v>
-      </c>
-      <c r="T8" s="7">
-        <v>0.51011463250168576</v>
-      </c>
-      <c r="U8" s="7">
-        <v>0.1162508428860418</v>
-      </c>
-      <c r="V8" s="7">
-        <v>6.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="3">
-        <v>4233</v>
-      </c>
-      <c r="C9" s="3">
-        <v>880</v>
-      </c>
-      <c r="D9" s="3">
-        <v>3353</v>
-      </c>
-      <c r="E9" s="3">
-        <f t="shared" si="0"/>
-        <v>5449</v>
-      </c>
-      <c r="F9" s="3">
-        <v>461832960000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>95970070000</v>
-      </c>
-      <c r="H9" s="3">
-        <v>365862890000</v>
-      </c>
-      <c r="I9" s="3">
-        <f t="shared" si="1"/>
-        <v>597691990000</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>822</v>
-      </c>
-      <c r="L9" s="3">
-        <v>-822</v>
-      </c>
-      <c r="M9" s="3">
-        <f t="shared" si="2"/>
-        <v>-2054</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>89695100000</v>
-      </c>
-      <c r="P9" s="3">
-        <v>-89695100000</v>
-      </c>
-      <c r="Q9" s="3">
-        <f t="shared" si="3"/>
-        <v>-224976390000</v>
-      </c>
-      <c r="R9" s="3">
-        <v>5252</v>
-      </c>
-      <c r="S9" s="3">
-        <v>8616</v>
-      </c>
-      <c r="T9" s="7">
-        <v>0.59343082636954503</v>
-      </c>
-      <c r="U9" s="7">
-        <v>9.5403899721448471E-2</v>
-      </c>
-      <c r="V9" s="7">
-        <v>-1.1599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="3">
-        <v>422</v>
-      </c>
-      <c r="C10" s="3">
-        <v>343</v>
-      </c>
-      <c r="D10" s="3">
-        <v>79</v>
-      </c>
-      <c r="E10" s="3">
-        <f t="shared" si="0"/>
-        <v>2096</v>
-      </c>
-      <c r="F10" s="3">
-        <v>46586980000</v>
-      </c>
-      <c r="G10" s="3">
-        <v>37835800000</v>
-      </c>
-      <c r="H10" s="3">
-        <v>8751180000</v>
-      </c>
-      <c r="I10" s="3">
-        <f t="shared" si="1"/>
-        <v>231829100000</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>481</v>
-      </c>
-      <c r="L10" s="3">
-        <v>-481</v>
-      </c>
-      <c r="M10" s="3">
-        <f t="shared" si="2"/>
-        <v>-1232</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>53080940000</v>
-      </c>
-      <c r="P10" s="3">
-        <v>-53080940000</v>
-      </c>
-      <c r="Q10" s="3">
-        <f t="shared" si="3"/>
-        <v>-135281290000</v>
-      </c>
-      <c r="R10" s="3">
-        <v>4177</v>
-      </c>
-      <c r="S10" s="3">
-        <v>2262</v>
-      </c>
-      <c r="T10" s="7">
-        <v>0.33819628647214856</v>
-      </c>
-      <c r="U10" s="7">
-        <v>0.21264367816091953</v>
-      </c>
-      <c r="V10" s="7">
-        <v>-8.6E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="3">
-        <v>495</v>
-      </c>
-      <c r="C11" s="3">
-        <v>141</v>
-      </c>
-      <c r="D11" s="3">
-        <v>354</v>
-      </c>
-      <c r="E11" s="3">
-        <f t="shared" si="0"/>
-        <v>2017</v>
-      </c>
-      <c r="F11" s="3">
-        <v>54931980000</v>
-      </c>
-      <c r="G11" s="3">
-        <v>15616830000</v>
-      </c>
-      <c r="H11" s="3">
-        <v>39315150000</v>
-      </c>
-      <c r="I11" s="3">
-        <f t="shared" si="1"/>
-        <v>223077920000</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0</v>
-      </c>
-      <c r="K11" s="3">
-        <v>139</v>
-      </c>
-      <c r="L11" s="3">
-        <v>-139</v>
-      </c>
-      <c r="M11" s="3">
-        <f t="shared" si="2"/>
-        <v>-751</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3">
-        <v>15398240000</v>
-      </c>
-      <c r="P11" s="3">
-        <v>-15398240000</v>
-      </c>
-      <c r="Q11" s="3">
-        <f t="shared" si="3"/>
-        <v>-82200350000</v>
-      </c>
-      <c r="R11" s="3">
-        <v>3463</v>
-      </c>
-      <c r="S11" s="3">
-        <v>1640</v>
-      </c>
-      <c r="T11" s="7">
-        <v>0.3878048780487805</v>
-      </c>
-      <c r="U11" s="7">
-        <v>8.4756097560975616E-2</v>
-      </c>
-      <c r="V11" s="7">
-        <v>-2.3E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="3">
-        <v>324</v>
-      </c>
-      <c r="C12" s="3">
-        <v>96</v>
-      </c>
-      <c r="D12" s="3">
-        <v>228</v>
-      </c>
-      <c r="E12" s="3">
-        <f t="shared" si="0"/>
-        <v>1663</v>
-      </c>
-      <c r="F12" s="3">
-        <v>36196550000</v>
-      </c>
-      <c r="G12" s="3">
-        <v>10668040000</v>
-      </c>
-      <c r="H12" s="3">
-        <v>25528510000</v>
-      </c>
-      <c r="I12" s="3">
-        <f t="shared" si="1"/>
-        <v>183762770000</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <v>96</v>
-      </c>
-      <c r="L12" s="3">
-        <v>-96</v>
-      </c>
-      <c r="M12" s="3">
-        <f t="shared" si="2"/>
-        <v>-612</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
-        <v>10668510000</v>
-      </c>
-      <c r="P12" s="3">
-        <v>-10668510000</v>
-      </c>
-      <c r="Q12" s="3">
-        <f t="shared" si="3"/>
-        <v>-66802110000</v>
-      </c>
-      <c r="R12" s="3">
-        <v>3110</v>
-      </c>
-      <c r="S12" s="3">
-        <v>1197</v>
-      </c>
-      <c r="T12" s="7">
-        <v>0.35087719298245612</v>
-      </c>
-      <c r="U12" s="7">
-        <v>8.0200501253132828E-2</v>
-      </c>
-      <c r="V12" s="7">
-        <v>-9.3999999999999986E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="3">
-        <v>619</v>
-      </c>
-      <c r="C13" s="3">
-        <v>189</v>
-      </c>
-      <c r="D13" s="3">
-        <v>430</v>
-      </c>
-      <c r="E13" s="3">
-        <f t="shared" si="0"/>
-        <v>1435</v>
-      </c>
-      <c r="F13" s="3">
-        <v>69056310000</v>
-      </c>
-      <c r="G13" s="3">
-        <v>21079500000</v>
-      </c>
-      <c r="H13" s="3">
-        <v>47976810000</v>
-      </c>
-      <c r="I13" s="3">
-        <f t="shared" si="1"/>
-        <v>158234260000</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
-        <v>184</v>
-      </c>
-      <c r="L13" s="3">
-        <v>-184</v>
-      </c>
-      <c r="M13" s="3">
-        <f t="shared" si="2"/>
-        <v>-516</v>
-      </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3">
-        <v>20521370000</v>
-      </c>
-      <c r="P13" s="3">
-        <v>-20521370000</v>
-      </c>
-      <c r="Q13" s="3">
-        <f t="shared" si="3"/>
-        <v>-56133600000</v>
-      </c>
-      <c r="R13" s="3">
-        <v>2102</v>
-      </c>
-      <c r="S13" s="3">
-        <v>1785</v>
-      </c>
-      <c r="T13" s="7">
-        <v>0.45266106442577031</v>
-      </c>
-      <c r="U13" s="7">
-        <v>0.10308123249299719</v>
-      </c>
-      <c r="V13" s="7">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="3">
-        <v>100</v>
-      </c>
-      <c r="C14" s="3">
-        <v>106</v>
-      </c>
-      <c r="D14" s="3">
-        <v>-6</v>
-      </c>
-      <c r="E14" s="3">
-        <f t="shared" si="0"/>
-        <v>1005</v>
-      </c>
-      <c r="F14" s="3">
-        <v>11146280000</v>
-      </c>
-      <c r="G14" s="3">
-        <v>11808900000</v>
-      </c>
-      <c r="H14" s="3">
-        <v>-662620000</v>
-      </c>
-      <c r="I14" s="3">
-        <f t="shared" si="1"/>
-        <v>110257450000</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>106</v>
-      </c>
-      <c r="L14" s="3">
-        <v>-106</v>
-      </c>
-      <c r="M14" s="3">
-        <f t="shared" si="2"/>
-        <v>-332</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>11808760000</v>
-      </c>
-      <c r="P14" s="3">
-        <v>-11808760000</v>
-      </c>
-      <c r="Q14" s="3">
-        <f t="shared" si="3"/>
-        <v>-35612230000</v>
-      </c>
-      <c r="R14" s="3">
-        <v>1990</v>
-      </c>
-      <c r="S14" s="3">
-        <v>438</v>
-      </c>
-      <c r="T14" s="7">
-        <v>0.47031963470319632</v>
-      </c>
-      <c r="U14" s="7">
-        <v>0.24200913242009131</v>
-      </c>
-      <c r="V14" s="7">
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="3">
-        <v>358</v>
-      </c>
-      <c r="C15" s="3">
-        <v>55</v>
-      </c>
-      <c r="D15" s="3">
-        <v>303</v>
-      </c>
-      <c r="E15" s="3">
-        <f t="shared" si="0"/>
-        <v>1011</v>
-      </c>
-      <c r="F15" s="3">
-        <v>39902100000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>6118980000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>33783120000</v>
-      </c>
-      <c r="I15" s="3">
-        <f t="shared" si="1"/>
-        <v>110920070000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>193</v>
-      </c>
-      <c r="K15" s="3">
-        <v>55</v>
-      </c>
-      <c r="L15" s="3">
-        <v>138</v>
-      </c>
-      <c r="M15" s="3">
-        <f t="shared" si="2"/>
-        <v>-226</v>
-      </c>
-      <c r="N15" s="3">
-        <v>21492040000</v>
-      </c>
-      <c r="O15" s="3">
-        <v>6118680000</v>
-      </c>
-      <c r="P15" s="3">
-        <v>15373360000</v>
-      </c>
-      <c r="Q15" s="3">
-        <f t="shared" si="3"/>
-        <v>-23803470000</v>
-      </c>
-      <c r="R15" s="3">
-        <v>1861</v>
-      </c>
-      <c r="S15" s="3">
-        <v>916</v>
-      </c>
-      <c r="T15" s="7">
-        <v>0.45087336244541487</v>
-      </c>
-      <c r="U15" s="7">
-        <v>0.27074235807860264</v>
-      </c>
-      <c r="V15" s="7">
-        <v>-8.9999999999999998E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="3">
-        <v>63</v>
-      </c>
-      <c r="C16" s="3">
-        <v>92</v>
-      </c>
-      <c r="D16" s="3">
-        <v>-29</v>
-      </c>
-      <c r="E16" s="3">
-        <f t="shared" si="0"/>
-        <v>708</v>
-      </c>
-      <c r="F16" s="3">
-        <v>6974410000</v>
-      </c>
-      <c r="G16" s="3">
-        <v>10139670000</v>
-      </c>
-      <c r="H16" s="3">
-        <v>-3165260000</v>
-      </c>
-      <c r="I16" s="3">
-        <f t="shared" si="1"/>
-        <v>77136950000</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3">
-        <v>91</v>
-      </c>
-      <c r="L16" s="3">
-        <v>-91</v>
-      </c>
-      <c r="M16" s="3">
-        <f t="shared" si="2"/>
-        <v>-364</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0</v>
-      </c>
-      <c r="O16" s="3">
-        <v>10027630000</v>
-      </c>
-      <c r="P16" s="3">
-        <v>-10027630000</v>
-      </c>
-      <c r="Q16" s="3">
-        <f t="shared" si="3"/>
-        <v>-39176830000</v>
-      </c>
-      <c r="R16" s="3">
-        <v>1707</v>
-      </c>
-      <c r="S16" s="3">
-        <v>877</v>
-      </c>
-      <c r="T16" s="7">
-        <v>0.17673888255416192</v>
-      </c>
-      <c r="U16" s="7">
-        <v>0.10376282782212087</v>
-      </c>
-      <c r="V16" s="7">
-        <v>8.9999999999999998E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="3">
-        <v>60</v>
-      </c>
-      <c r="C17" s="3">
-        <v>58</v>
-      </c>
-      <c r="D17" s="3">
-        <v>2</v>
-      </c>
-      <c r="E17" s="3">
-        <f t="shared" si="0"/>
-        <v>737</v>
-      </c>
-      <c r="F17" s="3">
-        <v>6616670000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>6397840000</v>
-      </c>
-      <c r="H17" s="3">
-        <v>218830000</v>
-      </c>
-      <c r="I17" s="3">
-        <f t="shared" si="1"/>
-        <v>80302210000</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>56</v>
-      </c>
-      <c r="L17" s="3">
-        <v>-56</v>
-      </c>
-      <c r="M17" s="3">
-        <f t="shared" si="2"/>
-        <v>-273</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>6175690000</v>
-      </c>
-      <c r="P17" s="3">
-        <v>-6175690000</v>
-      </c>
-      <c r="Q17" s="3">
-        <f t="shared" si="3"/>
-        <v>-29149200000</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1626</v>
-      </c>
-      <c r="S17" s="3">
-        <v>336</v>
-      </c>
-      <c r="T17" s="7">
-        <v>0.35119047619047616</v>
-      </c>
-      <c r="U17" s="7">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="V17" s="7">
-        <v>1.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="3">
-        <v>90</v>
-      </c>
-      <c r="C18" s="3">
-        <v>32</v>
-      </c>
-      <c r="D18" s="3">
-        <v>58</v>
-      </c>
-      <c r="E18" s="3">
-        <f t="shared" si="0"/>
-        <v>735</v>
-      </c>
-      <c r="F18" s="3">
-        <v>9894120000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>3520430000</v>
-      </c>
-      <c r="H18" s="3">
-        <v>6373690000</v>
-      </c>
-      <c r="I18" s="3">
-        <f t="shared" si="1"/>
-        <v>80083380000</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>32</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-32</v>
-      </c>
-      <c r="M18" s="3">
-        <f t="shared" si="2"/>
-        <v>-217</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>3520560000</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-3520560000</v>
-      </c>
-      <c r="Q18" s="3">
-        <f t="shared" si="3"/>
-        <v>-22973510000</v>
-      </c>
-      <c r="R18" s="3">
-        <v>1514</v>
-      </c>
-      <c r="S18" s="3">
-        <v>365</v>
-      </c>
-      <c r="T18" s="7">
-        <v>0.33424657534246577</v>
-      </c>
-      <c r="U18" s="7">
-        <v>8.7671232876712329E-2</v>
-      </c>
-      <c r="V18" s="7">
-        <v>-7.0999999999999995E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="3">
-        <v>222</v>
-      </c>
-      <c r="C19" s="3">
-        <v>79</v>
-      </c>
-      <c r="D19" s="3">
-        <v>143</v>
-      </c>
-      <c r="E19" s="3">
-        <f t="shared" si="0"/>
-        <v>677</v>
-      </c>
-      <c r="F19" s="3">
-        <v>24546690000</v>
-      </c>
-      <c r="G19" s="3">
-        <v>8713920000</v>
-      </c>
-      <c r="H19" s="3">
-        <v>15832770000</v>
-      </c>
-      <c r="I19" s="3">
-        <f t="shared" si="1"/>
-        <v>73709690000</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3">
-        <v>77</v>
-      </c>
-      <c r="L19" s="3">
-        <v>-77</v>
-      </c>
-      <c r="M19" s="3">
-        <f t="shared" si="2"/>
-        <v>-185</v>
-      </c>
-      <c r="N19" s="3">
-        <v>0</v>
-      </c>
-      <c r="O19" s="3">
-        <v>8492600000</v>
-      </c>
-      <c r="P19" s="3">
-        <v>-8492600000</v>
-      </c>
-      <c r="Q19" s="3">
-        <f t="shared" si="3"/>
-        <v>-19452950000</v>
-      </c>
-      <c r="R19" s="3">
-        <v>1291</v>
-      </c>
-      <c r="S19" s="3">
-        <v>850</v>
-      </c>
-      <c r="T19" s="7">
-        <v>0.35411764705882354</v>
-      </c>
-      <c r="U19" s="7">
-        <v>9.058823529411765E-2</v>
-      </c>
-      <c r="V19" s="7">
-        <v>1.78E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="3">
-        <v>40</v>
-      </c>
-      <c r="C20" s="3">
-        <v>5</v>
-      </c>
-      <c r="D20" s="3">
-        <v>35</v>
-      </c>
-      <c r="E20" s="3">
-        <f t="shared" si="0"/>
-        <v>534</v>
-      </c>
-      <c r="F20" s="3">
-        <v>4332000000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>540450000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>3791550000</v>
-      </c>
-      <c r="I20" s="3">
-        <f t="shared" si="1"/>
-        <v>57876920000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-5</v>
-      </c>
-      <c r="M20" s="3">
-        <f t="shared" si="2"/>
-        <v>-108</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>540450000</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-540450000</v>
-      </c>
-      <c r="Q20" s="3">
-        <f t="shared" si="3"/>
-        <v>-10960350000</v>
-      </c>
-      <c r="R20" s="3">
-        <v>1255</v>
-      </c>
-      <c r="S20" s="3">
-        <v>394</v>
-      </c>
-      <c r="T20" s="7">
-        <v>0.11421319796954314</v>
-      </c>
-      <c r="U20" s="7">
-        <v>1.2690355329949238E-2</v>
-      </c>
-      <c r="V20" s="7">
-        <v>7.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="3">
-        <v>16</v>
-      </c>
-      <c r="C21" s="3">
-        <v>19</v>
-      </c>
-      <c r="D21" s="3">
-        <v>-3</v>
-      </c>
-      <c r="E21" s="3">
-        <f t="shared" si="0"/>
-        <v>499</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1746820000</v>
-      </c>
-      <c r="G21" s="3">
-        <v>2074540000</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-327720000</v>
-      </c>
-      <c r="I21" s="3">
-        <f t="shared" si="1"/>
-        <v>54085370000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>17</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-17</v>
-      </c>
-      <c r="M21" s="3">
-        <f t="shared" si="2"/>
-        <v>-103</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
-        <v>1856390000</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-1856390000</v>
-      </c>
-      <c r="Q21" s="3">
-        <f t="shared" si="3"/>
-        <v>-10419900000</v>
-      </c>
-      <c r="R21" s="3">
-        <v>1212</v>
-      </c>
-      <c r="S21" s="3">
-        <v>482</v>
-      </c>
-      <c r="T21" s="7">
-        <v>7.2614107883817433E-2</v>
-      </c>
-      <c r="U21" s="7">
-        <v>3.5269709543568464E-2</v>
-      </c>
-      <c r="V21" s="7">
-        <v>-1.1899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="3">
-        <v>237</v>
-      </c>
-      <c r="C22" s="3">
-        <v>10</v>
-      </c>
-      <c r="D22" s="3">
-        <v>227</v>
-      </c>
-      <c r="E22" s="3">
-        <f t="shared" si="0"/>
-        <v>502</v>
-      </c>
-      <c r="F22" s="3">
-        <v>25881060000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1091310000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>24789750000</v>
-      </c>
-      <c r="I22" s="3">
-        <f t="shared" si="1"/>
-        <v>54413090000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>59</v>
-      </c>
-      <c r="K22" s="3">
-        <v>19</v>
-      </c>
-      <c r="L22" s="3">
-        <v>40</v>
-      </c>
-      <c r="M22" s="3">
-        <f t="shared" si="2"/>
-        <v>-86</v>
-      </c>
-      <c r="N22" s="3">
-        <v>6425730000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>1091290000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>5334440000</v>
-      </c>
-      <c r="Q22" s="3">
-        <f t="shared" si="3"/>
-        <v>-8563510000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>1167</v>
-      </c>
-      <c r="S22" s="3">
-        <v>489</v>
-      </c>
-      <c r="T22" s="7">
-        <v>0.50511247443762786</v>
-      </c>
-      <c r="U22" s="7">
-        <v>0.15950920245398773</v>
-      </c>
-      <c r="V22" s="7">
-        <v>6.5000000000000006E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="3">
-        <v>46</v>
-      </c>
-      <c r="C23" s="3">
-        <v>12</v>
-      </c>
-      <c r="D23" s="3">
-        <v>34</v>
-      </c>
-      <c r="E23" s="3">
-        <f t="shared" si="0"/>
-        <v>275</v>
-      </c>
-      <c r="F23" s="3">
-        <v>4930750000</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1291220000</v>
-      </c>
-      <c r="H23" s="3">
-        <v>3639530000</v>
-      </c>
-      <c r="I23" s="3">
-        <f t="shared" si="1"/>
-        <v>29623340000</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>11</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-11</v>
-      </c>
-      <c r="M23" s="3">
-        <f t="shared" si="2"/>
-        <v>-126</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>1184070000</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-1184070000</v>
-      </c>
-      <c r="Q23" s="3">
-        <f t="shared" si="3"/>
-        <v>-13897950000</v>
-      </c>
-      <c r="R23" s="3">
-        <v>937</v>
-      </c>
-      <c r="S23" s="3">
-        <v>723</v>
-      </c>
-      <c r="T23" s="7">
-        <v>8.0221300138312593E-2</v>
-      </c>
-      <c r="U23" s="7">
-        <v>1.5214384508990318E-2</v>
-      </c>
-      <c r="V23" s="7">
-        <v>8.6E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3">
-        <v>147</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2</v>
-      </c>
-      <c r="D24" s="3">
-        <v>145</v>
-      </c>
-      <c r="E24" s="3">
-        <f t="shared" si="0"/>
-        <v>241</v>
-      </c>
-      <c r="F24" s="3">
-        <v>15868470000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>215680000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>15652790000</v>
-      </c>
-      <c r="I24" s="3">
-        <f t="shared" si="1"/>
-        <v>25983810000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>2</v>
-      </c>
-      <c r="L24" s="3">
-        <v>-2</v>
-      </c>
-      <c r="M24" s="3">
-        <f t="shared" si="2"/>
-        <v>-115</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>215680000</v>
-      </c>
-      <c r="P24" s="3">
-        <v>-215680000</v>
-      </c>
-      <c r="Q24" s="3">
-        <f t="shared" si="3"/>
-        <v>-12713880000</v>
-      </c>
-      <c r="R24" s="3">
-        <v>850</v>
-      </c>
-      <c r="S24" s="3">
-        <v>344</v>
-      </c>
-      <c r="T24" s="7">
-        <v>0.43313953488372092</v>
-      </c>
-      <c r="U24" s="7">
-        <v>5.8139534883720929E-3</v>
-      </c>
-      <c r="V24" s="7">
-        <v>-5.6000000000000008E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="3">
-        <v>123</v>
-      </c>
-      <c r="C25" s="3">
-        <v>12</v>
-      </c>
-      <c r="D25" s="3">
-        <v>111</v>
-      </c>
-      <c r="E25" s="3">
-        <f t="shared" si="0"/>
-        <v>96</v>
-      </c>
-      <c r="F25" s="3">
-        <v>13288440000</v>
-      </c>
-      <c r="G25" s="3">
-        <v>1290090000</v>
-      </c>
-      <c r="H25" s="3">
-        <v>11998350000</v>
-      </c>
-      <c r="I25" s="3">
-        <f t="shared" si="1"/>
-        <v>10331020000</v>
-      </c>
-      <c r="J25" s="3">
-        <v>0</v>
-      </c>
-      <c r="K25" s="3">
-        <v>11</v>
-      </c>
-      <c r="L25" s="3">
-        <v>-11</v>
-      </c>
-      <c r="M25" s="3">
-        <f t="shared" si="2"/>
-        <v>-113</v>
-      </c>
-      <c r="N25" s="3">
-        <v>0</v>
-      </c>
-      <c r="O25" s="3">
-        <v>1182120000</v>
-      </c>
-      <c r="P25" s="3">
-        <v>-1182120000</v>
-      </c>
-      <c r="Q25" s="3">
-        <f t="shared" si="3"/>
-        <v>-12498200000</v>
-      </c>
-      <c r="R25" s="3">
-        <v>501</v>
-      </c>
-      <c r="S25" s="3">
-        <v>972</v>
-      </c>
-      <c r="T25" s="7">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="U25" s="7">
-        <v>1.131687242798354E-2</v>
-      </c>
-      <c r="V25" s="7">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="3">
-        <v>71</v>
-      </c>
-      <c r="C26" s="3">
-        <v>3</v>
-      </c>
-      <c r="D26" s="3">
-        <v>68</v>
-      </c>
-      <c r="E26" s="3">
-        <f t="shared" si="0"/>
-        <v>-15</v>
-      </c>
-      <c r="F26" s="3">
-        <v>7885450000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>331270000</v>
-      </c>
-      <c r="H26" s="3">
-        <v>7554180000</v>
-      </c>
-      <c r="I26" s="3">
-        <f t="shared" si="1"/>
-        <v>-1667330000</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>1</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M26" s="3">
-        <f t="shared" si="2"/>
-        <v>-102</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>109450000</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-109450000</v>
-      </c>
-      <c r="Q26" s="3">
-        <f t="shared" si="3"/>
-        <v>-11316080000</v>
-      </c>
-      <c r="R26" s="3">
-        <v>479</v>
-      </c>
-      <c r="S26" s="3">
-        <v>417</v>
-      </c>
-      <c r="T26" s="7">
-        <v>0.17745803357314149</v>
-      </c>
-      <c r="U26" s="7">
-        <v>2.3980815347721821E-3</v>
-      </c>
-      <c r="V26" s="7">
-        <v>-2.69E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="3">
-        <v>10</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3">
-        <v>9</v>
-      </c>
-      <c r="E27" s="3">
-        <f t="shared" si="0"/>
-        <v>-83</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1109000000</v>
-      </c>
-      <c r="G27" s="3">
-        <v>110300000</v>
-      </c>
-      <c r="H27" s="3">
-        <v>998700000</v>
-      </c>
-      <c r="I27" s="3">
-        <f t="shared" si="1"/>
-        <v>-9221510000</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>1</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M27" s="3">
-        <f t="shared" si="2"/>
-        <v>-101</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>110300000</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-110300000</v>
-      </c>
-      <c r="Q27" s="3">
-        <f t="shared" si="3"/>
-        <v>-11206630000</v>
-      </c>
-      <c r="R27" s="3">
-        <v>282</v>
-      </c>
-      <c r="S27" s="3">
-        <v>513</v>
-      </c>
-      <c r="T27" s="7">
-        <v>2.1442495126705652E-2</v>
-      </c>
-      <c r="U27" s="7">
-        <v>1.9493177387914229E-3</v>
-      </c>
-      <c r="V27" s="7">
-        <v>1.5E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3">
-        <v>21</v>
-      </c>
-      <c r="C28" s="3">
-        <v>27</v>
-      </c>
-      <c r="D28" s="3">
-        <v>-6</v>
-      </c>
-      <c r="E28" s="3">
-        <f t="shared" si="0"/>
-        <v>-92</v>
-      </c>
-      <c r="F28" s="3">
-        <v>2312590000</v>
-      </c>
-      <c r="G28" s="3">
-        <v>2988560000</v>
-      </c>
-      <c r="H28" s="3">
-        <v>-675970000</v>
-      </c>
-      <c r="I28" s="3">
-        <f t="shared" si="1"/>
-        <v>-10220210000</v>
-      </c>
-      <c r="J28" s="3">
-        <v>0</v>
-      </c>
-      <c r="K28" s="3">
-        <v>20</v>
-      </c>
-      <c r="L28" s="3">
-        <v>-20</v>
-      </c>
-      <c r="M28" s="3">
-        <f t="shared" si="2"/>
-        <v>-100</v>
-      </c>
-      <c r="N28" s="3">
-        <v>0</v>
-      </c>
-      <c r="O28" s="3">
-        <v>2212780000</v>
-      </c>
-      <c r="P28" s="3">
-        <v>-2212780000</v>
-      </c>
-      <c r="Q28" s="3">
-        <f t="shared" si="3"/>
-        <v>-11096330000</v>
-      </c>
-      <c r="R28" s="3">
-        <v>206</v>
-      </c>
-      <c r="S28" s="3">
-        <v>457</v>
-      </c>
-      <c r="T28" s="7">
-        <v>0.10503282275711159</v>
-      </c>
-      <c r="U28" s="7">
-        <v>4.3763676148796497E-2</v>
-      </c>
-      <c r="V28" s="7">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="3">
-        <v>0</v>
-      </c>
-      <c r="C29" s="3">
-        <v>54</v>
-      </c>
-      <c r="D29" s="3">
-        <v>-54</v>
-      </c>
-      <c r="E29" s="3">
-        <f>D29+E30</f>
-        <v>-86</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>5939180000</v>
-      </c>
-      <c r="H29" s="3">
-        <v>-5939180000</v>
-      </c>
-      <c r="I29" s="3">
-        <f>H29+I30</f>
-        <v>-9544240000</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <v>50</v>
-      </c>
-      <c r="L29" s="3">
-        <v>-50</v>
-      </c>
-      <c r="M29" s="3">
-        <f>L29+M30</f>
-        <v>-80</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>5506080000</v>
-      </c>
-      <c r="P29" s="3">
-        <v>-5506080000</v>
-      </c>
-      <c r="Q29" s="3">
-        <f>P29+Q30</f>
-        <v>-8883550000</v>
-      </c>
-      <c r="R29" s="3">
-        <v>145</v>
-      </c>
-      <c r="S29" s="3">
-        <v>462</v>
-      </c>
-      <c r="T29" s="7">
-        <v>0.11688311688311688</v>
-      </c>
-      <c r="U29" s="7">
-        <v>0.10822510822510822</v>
-      </c>
-      <c r="V29" s="7">
-        <v>-1.8E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="3">
-        <v>5</v>
-      </c>
-      <c r="C30" s="3">
-        <v>37</v>
-      </c>
-      <c r="D30" s="3">
-        <v>-32</v>
-      </c>
-      <c r="E30" s="3">
-        <f>D30</f>
-        <v>-32</v>
-      </c>
-      <c r="F30" s="3">
-        <v>552750000</v>
-      </c>
-      <c r="G30" s="3">
-        <v>4157810000</v>
-      </c>
-      <c r="H30" s="3">
-        <v>-3605060000</v>
-      </c>
-      <c r="I30" s="3">
-        <f>H30</f>
-        <v>-3605060000</v>
-      </c>
-      <c r="J30" s="3">
-        <v>0</v>
-      </c>
-      <c r="K30" s="3">
-        <v>30</v>
-      </c>
-      <c r="L30" s="3">
-        <v>-30</v>
-      </c>
-      <c r="M30" s="3">
-        <f>L30</f>
-        <v>-30</v>
-      </c>
-      <c r="N30" s="3">
-        <v>0</v>
-      </c>
-      <c r="O30" s="3">
-        <v>3377470000</v>
-      </c>
-      <c r="P30" s="3">
-        <v>-3377470000</v>
-      </c>
-      <c r="Q30" s="3">
-        <f>P30</f>
-        <v>-3377470000</v>
-      </c>
-      <c r="R30" s="3">
-        <v>0</v>
-      </c>
-      <c r="S30" s="3">
-        <v>692</v>
-      </c>
-      <c r="T30" s="7">
-        <v>6.0693641618497107E-2</v>
-      </c>
-      <c r="U30" s="7">
-        <v>4.3352601156069363E-2</v>
-      </c>
-      <c r="V30" s="7">
-        <v>-2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="J3:Q3"/>
-    <mergeCell ref="B3:I3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8C1C6C-B89F-2B48-BB15-96C96E30481A}">
   <dimension ref="A88:T152"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView topLeftCell="A36" zoomScale="75" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6478,8 +4320,8 @@
         <v>Open Interest</v>
       </c>
       <c r="G90" t="str" cm="1">
-        <f t="array" aca="1" ref="G90:G152" ca="1">INDIRECT("'" &amp; B88 &amp; "'!$V$4:$V$66")</f>
-        <v>Biến động</v>
+        <f t="array" aca="1" ref="G90:G152" ca="1">INDIRECT("'" &amp; B88 &amp; "'!$W$4:$W$66")</f>
+        <v>Luỹ kế</v>
       </c>
       <c r="I90" t="str" cm="1">
         <f t="array" aca="1" ref="I90:I152" ca="1">INDIRECT("'" &amp; B88 &amp; "'!$A$4:$A$66")</f>
@@ -6523,265 +4365,265 @@
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
         <f ca="1"/>
-        <v>22/12/2023</v>
+        <v>25/12/2023</v>
       </c>
       <c r="B91" s="3">
         <f ca="1"/>
-        <v>28031</v>
+        <v>28825</v>
       </c>
       <c r="C91" s="3">
         <f ca="1"/>
-        <v>-8234</v>
+        <v>-12226</v>
       </c>
       <c r="E91" s="10" t="str">
         <f ca="1"/>
-        <v>22/12/2023</v>
+        <v>25/12/2023</v>
       </c>
       <c r="F91" s="3">
         <f ca="1"/>
-        <v>49231</v>
+        <v>57560</v>
       </c>
       <c r="G91" s="9">
         <f ca="1"/>
-        <v>-5.9999999999999995E-4</v>
+        <v>-1.54E-2</v>
       </c>
       <c r="I91" t="str">
         <f ca="1"/>
-        <v>22/12/2023</v>
+        <v>25/12/2023</v>
       </c>
       <c r="J91" s="11">
         <f ca="1"/>
-        <v>5468</v>
+        <v>3351</v>
       </c>
       <c r="K91" s="11">
         <f ca="1"/>
-        <v>2941</v>
+        <v>2557</v>
       </c>
       <c r="L91" s="11">
         <f ca="1"/>
-        <v>4991</v>
+        <v>221</v>
       </c>
       <c r="M91" s="11">
         <f ca="1"/>
-        <v>1201</v>
+        <v>4213</v>
       </c>
       <c r="N91" t="str">
         <f ca="1"/>
-        <v>22/12/2023</v>
+        <v>25/12/2023</v>
       </c>
       <c r="O91" s="11">
         <f ca="1"/>
-        <v>170434</v>
+        <v>179539</v>
       </c>
       <c r="P91" s="11">
         <f ca="1">J91+K91</f>
-        <v>8409</v>
+        <v>5908</v>
       </c>
       <c r="Q91" s="3">
         <f ca="1">L91+M91</f>
-        <v>6192</v>
+        <v>4434</v>
       </c>
       <c r="R91">
         <f ca="1"/>
-        <v>49231</v>
+        <v>57560</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
         <f ca="1"/>
-        <v>21/12/2023</v>
+        <v>22/12/2023</v>
       </c>
       <c r="B92" s="3">
         <f ca="1"/>
-        <v>25504</v>
+        <v>28031</v>
       </c>
       <c r="C92" s="3">
         <f ca="1"/>
-        <v>-12024</v>
+        <v>-8234</v>
       </c>
       <c r="E92" s="10" t="str">
         <f ca="1"/>
-        <v>21/12/2023</v>
+        <v>22/12/2023</v>
       </c>
       <c r="F92" s="3">
         <f ca="1"/>
-        <v>34535</v>
+        <v>49231</v>
       </c>
       <c r="G92" s="9">
         <f ca="1"/>
-        <v>5.0000000000000001E-4</v>
+        <v>-3.1200000000000002E-2</v>
       </c>
       <c r="I92" t="str">
         <f ca="1"/>
-        <v>21/12/2023</v>
+        <v>22/12/2023</v>
       </c>
       <c r="J92" s="11">
         <f ca="1"/>
-        <v>8105</v>
+        <v>5468</v>
       </c>
       <c r="K92" s="11">
         <f ca="1"/>
-        <v>3095</v>
+        <v>2941</v>
       </c>
       <c r="L92" s="11">
         <f ca="1"/>
-        <v>1112</v>
+        <v>4991</v>
       </c>
       <c r="M92" s="11">
         <f ca="1"/>
-        <v>3986</v>
+        <v>1201</v>
       </c>
       <c r="N92" s="11" t="str">
         <f ca="1"/>
-        <v>21/12/2023</v>
+        <v>22/12/2023</v>
       </c>
       <c r="O92" s="11">
         <f ca="1"/>
-        <v>42157</v>
+        <v>170434</v>
       </c>
       <c r="P92" s="11">
         <f t="shared" ref="P92:P116" ca="1" si="0">J92+K92</f>
-        <v>11200</v>
+        <v>8409</v>
       </c>
       <c r="Q92" s="3">
         <f t="shared" ref="Q92:Q116" ca="1" si="1">L92+M92</f>
-        <v>5098</v>
+        <v>6192</v>
       </c>
       <c r="R92">
         <f ca="1"/>
-        <v>34535</v>
+        <v>49231</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
         <f ca="1"/>
-        <v>20/12/2023</v>
+        <v>21/12/2023</v>
       </c>
       <c r="B93" s="3">
         <f ca="1"/>
-        <v>20494</v>
+        <v>25504</v>
       </c>
       <c r="C93" s="3">
         <f ca="1"/>
-        <v>-9150</v>
+        <v>-12024</v>
       </c>
       <c r="E93" s="10" t="str">
         <f ca="1"/>
-        <v>20/12/2023</v>
+        <v>21/12/2023</v>
       </c>
       <c r="F93" s="3">
         <f ca="1"/>
-        <v>19399</v>
+        <v>34535</v>
       </c>
       <c r="G93" s="9">
         <f ca="1"/>
-        <v>7.1999999999999998E-3</v>
+        <v>-3.0600000000000002E-2</v>
       </c>
       <c r="I93" t="str">
         <f ca="1"/>
-        <v>20/12/2023</v>
+        <v>21/12/2023</v>
       </c>
       <c r="J93" s="11">
         <f ca="1"/>
-        <v>11754</v>
+        <v>8105</v>
       </c>
       <c r="K93" s="11">
         <f ca="1"/>
-        <v>1316</v>
+        <v>3095</v>
       </c>
       <c r="L93" s="11">
         <f ca="1"/>
-        <v>195</v>
+        <v>1112</v>
       </c>
       <c r="M93" s="11">
         <f ca="1"/>
-        <v>5567</v>
+        <v>3986</v>
       </c>
       <c r="N93" s="11" t="str">
         <f ca="1"/>
-        <v>20/12/2023</v>
+        <v>21/12/2023</v>
       </c>
       <c r="O93" s="11">
         <f ca="1"/>
-        <v>24951</v>
+        <v>42157</v>
       </c>
       <c r="P93" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>13070</v>
+        <v>11200</v>
       </c>
       <c r="Q93" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5762</v>
+        <v>5098</v>
       </c>
       <c r="R93">
         <f ca="1"/>
-        <v>19399</v>
+        <v>34535</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
         <f ca="1"/>
-        <v>19/12/2023</v>
+        <v>20/12/2023</v>
       </c>
       <c r="B94" s="3">
         <f ca="1"/>
-        <v>10056</v>
+        <v>20494</v>
       </c>
       <c r="C94" s="3">
         <f ca="1"/>
-        <v>-3778</v>
+        <v>-9150</v>
       </c>
       <c r="E94" s="10" t="str">
         <f ca="1"/>
-        <v>19/12/2023</v>
+        <v>20/12/2023</v>
       </c>
       <c r="F94" s="3">
         <f ca="1"/>
-        <v>10671</v>
+        <v>19399</v>
       </c>
       <c r="G94" s="9">
         <f ca="1"/>
-        <v>6.9999999999999993E-3</v>
+        <v>-3.1100000000000003E-2</v>
       </c>
       <c r="I94" t="str">
         <f ca="1"/>
-        <v>19/12/2023</v>
+        <v>20/12/2023</v>
       </c>
       <c r="J94" s="11">
         <f ca="1"/>
-        <v>6086</v>
+        <v>11754</v>
       </c>
       <c r="K94" s="11">
         <f ca="1"/>
-        <v>1479</v>
+        <v>1316</v>
       </c>
       <c r="L94" s="11">
         <f ca="1"/>
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="M94" s="11">
         <f ca="1"/>
-        <v>1724</v>
+        <v>5567</v>
       </c>
       <c r="N94" s="11" t="str">
         <f ca="1"/>
-        <v>19/12/2023</v>
+        <v>20/12/2023</v>
       </c>
       <c r="O94" s="11">
         <f ca="1"/>
-        <v>14830</v>
+        <v>24951</v>
       </c>
       <c r="P94" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>7565</v>
+        <v>13070</v>
       </c>
       <c r="Q94" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1724</v>
+        <v>5762</v>
       </c>
       <c r="R94">
         <f ca="1"/>
-        <v>10671</v>
+        <v>19399</v>
       </c>
       <c r="T94" t="s">
         <v>47</v>
@@ -6790,39 +4632,39 @@
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
         <f ca="1"/>
-        <v>18/12/2023</v>
+        <v>19/12/2023</v>
       </c>
       <c r="B95" s="3">
         <f ca="1"/>
-        <v>5449</v>
+        <v>10056</v>
       </c>
       <c r="C95" s="3">
         <f ca="1"/>
-        <v>-2054</v>
+        <v>-3778</v>
       </c>
       <c r="E95" s="10" t="str">
         <f ca="1"/>
-        <v>18/12/2023</v>
+        <v>19/12/2023</v>
       </c>
       <c r="F95" s="3">
         <f ca="1"/>
-        <v>5252</v>
+        <v>10671</v>
       </c>
       <c r="G95" s="9">
         <f ca="1"/>
-        <v>-1.1599999999999999E-2</v>
+        <v>-3.8300000000000001E-2</v>
       </c>
       <c r="I95" t="str">
         <f ca="1"/>
-        <v>18/12/2023</v>
+        <v>19/12/2023</v>
       </c>
       <c r="J95" s="11">
         <f ca="1"/>
-        <v>4233</v>
+        <v>6086</v>
       </c>
       <c r="K95" s="11">
         <f ca="1"/>
-        <v>880</v>
+        <v>1479</v>
       </c>
       <c r="L95" s="11">
         <f ca="1"/>
@@ -6830,65 +4672,65 @@
       </c>
       <c r="M95" s="11">
         <f ca="1"/>
-        <v>822</v>
+        <v>1724</v>
       </c>
       <c r="N95" s="11" t="str">
         <f ca="1"/>
-        <v>18/12/2023</v>
+        <v>19/12/2023</v>
       </c>
       <c r="O95" s="11">
         <f ca="1"/>
-        <v>8616</v>
+        <v>14830</v>
       </c>
       <c r="P95" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>5113</v>
+        <v>7565</v>
       </c>
       <c r="Q95" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>822</v>
+        <v>1724</v>
       </c>
       <c r="R95">
         <f ca="1"/>
-        <v>5252</v>
+        <v>10671</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" t="str">
         <f ca="1"/>
-        <v>15/12/2023</v>
+        <v>18/12/2023</v>
       </c>
       <c r="B96" s="3">
         <f ca="1"/>
-        <v>2096</v>
+        <v>5449</v>
       </c>
       <c r="C96" s="3">
         <f ca="1"/>
-        <v>-1232</v>
+        <v>-2054</v>
       </c>
       <c r="E96" s="10" t="str">
         <f ca="1"/>
-        <v>15/12/2023</v>
+        <v>18/12/2023</v>
       </c>
       <c r="F96" s="3">
         <f ca="1"/>
-        <v>4177</v>
+        <v>5252</v>
       </c>
       <c r="G96" s="9">
         <f ca="1"/>
-        <v>-8.6E-3</v>
+        <v>-4.53E-2</v>
       </c>
       <c r="I96" t="str">
         <f ca="1"/>
-        <v>15/12/2023</v>
+        <v>18/12/2023</v>
       </c>
       <c r="J96" s="11">
         <f ca="1"/>
-        <v>422</v>
+        <v>4233</v>
       </c>
       <c r="K96" s="11">
         <f ca="1"/>
-        <v>343</v>
+        <v>880</v>
       </c>
       <c r="L96" s="11">
         <f ca="1"/>
@@ -6896,65 +4738,65 @@
       </c>
       <c r="M96" s="11">
         <f ca="1"/>
-        <v>481</v>
+        <v>822</v>
       </c>
       <c r="N96" s="11" t="str">
         <f ca="1"/>
-        <v>15/12/2023</v>
+        <v>18/12/2023</v>
       </c>
       <c r="O96" s="11">
         <f ca="1"/>
-        <v>2262</v>
+        <v>8616</v>
       </c>
       <c r="P96" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>765</v>
+        <v>5113</v>
       </c>
       <c r="Q96" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>481</v>
+        <v>822</v>
       </c>
       <c r="R96">
         <f ca="1"/>
-        <v>4177</v>
+        <v>5252</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" t="str">
         <f ca="1"/>
-        <v>14/12/2023</v>
+        <v>15/12/2023</v>
       </c>
       <c r="B97" s="3">
         <f ca="1"/>
-        <v>2017</v>
+        <v>2096</v>
       </c>
       <c r="C97" s="3">
         <f ca="1"/>
-        <v>-751</v>
+        <v>-1232</v>
       </c>
       <c r="E97" s="10" t="str">
         <f ca="1"/>
-        <v>14/12/2023</v>
+        <v>15/12/2023</v>
       </c>
       <c r="F97" s="3">
         <f ca="1"/>
-        <v>3463</v>
+        <v>4177</v>
       </c>
       <c r="G97" s="9">
         <f ca="1"/>
-        <v>-2.3E-3</v>
+        <v>-3.3700000000000001E-2</v>
       </c>
       <c r="I97" t="str">
         <f ca="1"/>
-        <v>14/12/2023</v>
+        <v>15/12/2023</v>
       </c>
       <c r="J97" s="11">
         <f ca="1"/>
-        <v>495</v>
+        <v>422</v>
       </c>
       <c r="K97" s="11">
         <f ca="1"/>
-        <v>141</v>
+        <v>343</v>
       </c>
       <c r="L97" s="11">
         <f ca="1"/>
@@ -6962,65 +4804,65 @@
       </c>
       <c r="M97" s="11">
         <f ca="1"/>
-        <v>139</v>
+        <v>481</v>
       </c>
       <c r="N97" s="11" t="str">
         <f ca="1"/>
-        <v>14/12/2023</v>
+        <v>15/12/2023</v>
       </c>
       <c r="O97" s="11">
         <f ca="1"/>
-        <v>1640</v>
+        <v>2262</v>
       </c>
       <c r="P97" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>636</v>
+        <v>765</v>
       </c>
       <c r="Q97" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>139</v>
+        <v>481</v>
       </c>
       <c r="R97">
         <f ca="1"/>
-        <v>3463</v>
+        <v>4177</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" t="str">
         <f ca="1"/>
-        <v>13/12/2023</v>
+        <v>14/12/2023</v>
       </c>
       <c r="B98" s="3">
         <f ca="1"/>
-        <v>1663</v>
+        <v>2017</v>
       </c>
       <c r="C98" s="3">
         <f ca="1"/>
-        <v>-612</v>
+        <v>-751</v>
       </c>
       <c r="E98" s="10" t="str">
         <f ca="1"/>
-        <v>13/12/2023</v>
+        <v>14/12/2023</v>
       </c>
       <c r="F98" s="3">
         <f ca="1"/>
-        <v>3110</v>
+        <v>3463</v>
       </c>
       <c r="G98" s="9">
         <f ca="1"/>
-        <v>-9.3999999999999986E-3</v>
+        <v>-2.5100000000000001E-2</v>
       </c>
       <c r="I98" t="str">
         <f ca="1"/>
-        <v>13/12/2023</v>
+        <v>14/12/2023</v>
       </c>
       <c r="J98" s="11">
         <f ca="1"/>
-        <v>324</v>
+        <v>495</v>
       </c>
       <c r="K98" s="11">
         <f ca="1"/>
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="L98" s="11">
         <f ca="1"/>
@@ -7028,65 +4870,65 @@
       </c>
       <c r="M98" s="11">
         <f ca="1"/>
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="N98" s="11" t="str">
         <f ca="1"/>
-        <v>13/12/2023</v>
+        <v>14/12/2023</v>
       </c>
       <c r="O98" s="11">
         <f ca="1"/>
-        <v>1197</v>
+        <v>1640</v>
       </c>
       <c r="P98" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>420</v>
+        <v>636</v>
       </c>
       <c r="Q98" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="R98">
         <f ca="1"/>
-        <v>3110</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" t="str">
         <f ca="1"/>
-        <v>12/12/2023</v>
+        <v>13/12/2023</v>
       </c>
       <c r="B99" s="3">
         <f ca="1"/>
-        <v>1435</v>
+        <v>1663</v>
       </c>
       <c r="C99" s="3">
         <f ca="1"/>
-        <v>-516</v>
+        <v>-612</v>
       </c>
       <c r="E99" s="10" t="str">
         <f ca="1"/>
-        <v>12/12/2023</v>
+        <v>13/12/2023</v>
       </c>
       <c r="F99" s="3">
         <f ca="1"/>
-        <v>2102</v>
+        <v>3110</v>
       </c>
       <c r="G99" s="9">
         <f ca="1"/>
-        <v>3.0000000000000001E-3</v>
+        <v>-2.2800000000000001E-2</v>
       </c>
       <c r="I99" t="str">
         <f ca="1"/>
-        <v>12/12/2023</v>
+        <v>13/12/2023</v>
       </c>
       <c r="J99" s="11">
         <f ca="1"/>
-        <v>619</v>
+        <v>324</v>
       </c>
       <c r="K99" s="11">
         <f ca="1"/>
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="L99" s="11">
         <f ca="1"/>
@@ -7094,65 +4936,65 @@
       </c>
       <c r="M99" s="11">
         <f ca="1"/>
-        <v>184</v>
+        <v>96</v>
       </c>
       <c r="N99" s="11" t="str">
         <f ca="1"/>
-        <v>12/12/2023</v>
+        <v>13/12/2023</v>
       </c>
       <c r="O99" s="11">
         <f ca="1"/>
-        <v>1785</v>
+        <v>1197</v>
       </c>
       <c r="P99" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>808</v>
+        <v>420</v>
       </c>
       <c r="Q99" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>184</v>
+        <v>96</v>
       </c>
       <c r="R99">
         <f ca="1"/>
-        <v>2102</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" t="str">
         <f ca="1"/>
-        <v>11/12/2023</v>
+        <v>12/12/2023</v>
       </c>
       <c r="B100" s="3">
         <f ca="1"/>
-        <v>1005</v>
+        <v>1435</v>
       </c>
       <c r="C100" s="3">
         <f ca="1"/>
-        <v>-332</v>
+        <v>-516</v>
       </c>
       <c r="E100" s="10" t="str">
         <f ca="1"/>
-        <v>11/12/2023</v>
+        <v>12/12/2023</v>
       </c>
       <c r="F100" s="3">
         <f ca="1"/>
-        <v>1990</v>
+        <v>2102</v>
       </c>
       <c r="G100" s="9">
         <f ca="1"/>
-        <v>3.8E-3</v>
+        <v>-1.3400000000000002E-2</v>
       </c>
       <c r="I100" t="str">
         <f ca="1"/>
-        <v>11/12/2023</v>
+        <v>12/12/2023</v>
       </c>
       <c r="J100" s="11">
         <f ca="1"/>
-        <v>100</v>
+        <v>619</v>
       </c>
       <c r="K100" s="11">
         <f ca="1"/>
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="L100" s="11">
         <f ca="1"/>
@@ -7160,197 +5002,197 @@
       </c>
       <c r="M100" s="11">
         <f ca="1"/>
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="N100" s="11" t="str">
         <f ca="1"/>
-        <v>11/12/2023</v>
+        <v>12/12/2023</v>
       </c>
       <c r="O100" s="11">
         <f ca="1"/>
-        <v>438</v>
+        <v>1785</v>
       </c>
       <c r="P100" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>206</v>
+        <v>808</v>
       </c>
       <c r="Q100" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="R100">
         <f ca="1"/>
-        <v>1990</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" t="str">
         <f ca="1"/>
-        <v>08/12/2023</v>
+        <v>11/12/2023</v>
       </c>
       <c r="B101" s="3">
         <f ca="1"/>
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="C101" s="3">
         <f ca="1"/>
-        <v>-226</v>
+        <v>-332</v>
       </c>
       <c r="E101" s="10" t="str">
         <f ca="1"/>
-        <v>08/12/2023</v>
+        <v>11/12/2023</v>
       </c>
       <c r="F101" s="3">
         <f ca="1"/>
-        <v>1861</v>
+        <v>1990</v>
       </c>
       <c r="G101" s="9">
         <f ca="1"/>
-        <v>-8.9999999999999998E-4</v>
+        <v>-1.6400000000000001E-2</v>
       </c>
       <c r="I101" t="str">
         <f ca="1"/>
-        <v>08/12/2023</v>
+        <v>11/12/2023</v>
       </c>
       <c r="J101" s="11">
         <f ca="1"/>
-        <v>358</v>
+        <v>100</v>
       </c>
       <c r="K101" s="11">
         <f ca="1"/>
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="L101" s="11">
         <f ca="1"/>
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="M101" s="11">
         <f ca="1"/>
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="N101" s="11" t="str">
         <f ca="1"/>
-        <v>08/12/2023</v>
+        <v>11/12/2023</v>
       </c>
       <c r="O101" s="11">
         <f ca="1"/>
-        <v>916</v>
+        <v>438</v>
       </c>
       <c r="P101" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>413</v>
+        <v>206</v>
       </c>
       <c r="Q101" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>248</v>
+        <v>106</v>
       </c>
       <c r="R101">
         <f ca="1"/>
-        <v>1861</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" t="str">
         <f ca="1"/>
-        <v>07/12/2023</v>
+        <v>08/12/2023</v>
       </c>
       <c r="B102" s="3">
         <f ca="1"/>
-        <v>708</v>
+        <v>1011</v>
       </c>
       <c r="C102" s="3">
         <f ca="1"/>
-        <v>-364</v>
+        <v>-226</v>
       </c>
       <c r="E102" s="10" t="str">
         <f ca="1"/>
-        <v>07/12/2023</v>
+        <v>08/12/2023</v>
       </c>
       <c r="F102" s="3">
         <f ca="1"/>
-        <v>1707</v>
+        <v>1861</v>
       </c>
       <c r="G102" s="9">
         <f ca="1"/>
-        <v>8.9999999999999998E-4</v>
+        <v>-2.0200000000000003E-2</v>
       </c>
       <c r="I102" t="str">
         <f ca="1"/>
-        <v>07/12/2023</v>
+        <v>08/12/2023</v>
       </c>
       <c r="J102" s="11">
         <f ca="1"/>
-        <v>63</v>
+        <v>358</v>
       </c>
       <c r="K102" s="11">
         <f ca="1"/>
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="L102" s="11">
         <f ca="1"/>
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="M102" s="11">
         <f ca="1"/>
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="N102" s="11" t="str">
         <f ca="1"/>
-        <v>07/12/2023</v>
+        <v>08/12/2023</v>
       </c>
       <c r="O102" s="11">
         <f ca="1"/>
-        <v>877</v>
+        <v>916</v>
       </c>
       <c r="P102" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>155</v>
+        <v>413</v>
       </c>
       <c r="Q102" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>248</v>
       </c>
       <c r="R102">
         <f ca="1"/>
-        <v>1707</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" t="str">
         <f ca="1"/>
-        <v>06/12/2023</v>
+        <v>07/12/2023</v>
       </c>
       <c r="B103" s="3">
         <f ca="1"/>
-        <v>737</v>
+        <v>708</v>
       </c>
       <c r="C103" s="3">
         <f ca="1"/>
-        <v>-273</v>
+        <v>-364</v>
       </c>
       <c r="E103" s="10" t="str">
         <f ca="1"/>
-        <v>06/12/2023</v>
+        <v>07/12/2023</v>
       </c>
       <c r="F103" s="3">
         <f ca="1"/>
-        <v>1626</v>
+        <v>1707</v>
       </c>
       <c r="G103" s="9">
         <f ca="1"/>
-        <v>1.1000000000000001E-2</v>
+        <v>-1.9300000000000001E-2</v>
       </c>
       <c r="I103" t="str">
         <f ca="1"/>
-        <v>06/12/2023</v>
+        <v>07/12/2023</v>
       </c>
       <c r="J103" s="11">
         <f ca="1"/>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K103" s="11">
         <f ca="1"/>
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="L103" s="11">
         <f ca="1"/>
@@ -7358,65 +5200,65 @@
       </c>
       <c r="M103" s="11">
         <f ca="1"/>
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="N103" s="11" t="str">
         <f ca="1"/>
-        <v>06/12/2023</v>
+        <v>07/12/2023</v>
       </c>
       <c r="O103" s="11">
         <f ca="1"/>
-        <v>336</v>
+        <v>877</v>
       </c>
       <c r="P103" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="Q103" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="R103">
         <f ca="1"/>
-        <v>1626</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" t="str">
         <f ca="1"/>
-        <v>05/12/2023</v>
+        <v>06/12/2023</v>
       </c>
       <c r="B104" s="3">
         <f ca="1"/>
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C104" s="3">
         <f ca="1"/>
-        <v>-217</v>
+        <v>-273</v>
       </c>
       <c r="E104" s="10" t="str">
         <f ca="1"/>
-        <v>05/12/2023</v>
+        <v>06/12/2023</v>
       </c>
       <c r="F104" s="3">
         <f ca="1"/>
-        <v>1514</v>
+        <v>1626</v>
       </c>
       <c r="G104" s="9">
         <f ca="1"/>
-        <v>-7.0999999999999995E-3</v>
+        <v>-2.0200000000000003E-2</v>
       </c>
       <c r="I104" t="str">
         <f ca="1"/>
-        <v>05/12/2023</v>
+        <v>06/12/2023</v>
       </c>
       <c r="J104" s="11">
         <f ca="1"/>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K104" s="11">
         <f ca="1"/>
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="L104" s="11">
         <f ca="1"/>
@@ -7424,65 +5266,65 @@
       </c>
       <c r="M104" s="11">
         <f ca="1"/>
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="N104" s="11" t="str">
         <f ca="1"/>
-        <v>05/12/2023</v>
+        <v>06/12/2023</v>
       </c>
       <c r="O104" s="11">
         <f ca="1"/>
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="P104" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q104" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="R104">
         <f ca="1"/>
-        <v>1514</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" t="str">
         <f ca="1"/>
-        <v>04/12/2023</v>
+        <v>05/12/2023</v>
       </c>
       <c r="B105" s="3">
         <f ca="1"/>
-        <v>677</v>
+        <v>735</v>
       </c>
       <c r="C105" s="3">
         <f ca="1"/>
-        <v>-185</v>
+        <v>-217</v>
       </c>
       <c r="E105" s="10" t="str">
         <f ca="1"/>
-        <v>04/12/2023</v>
+        <v>05/12/2023</v>
       </c>
       <c r="F105" s="3">
         <f ca="1"/>
-        <v>1291</v>
+        <v>1514</v>
       </c>
       <c r="G105" s="9">
         <f ca="1"/>
-        <v>1.78E-2</v>
+        <v>-3.1200000000000006E-2</v>
       </c>
       <c r="I105" t="str">
         <f ca="1"/>
-        <v>04/12/2023</v>
+        <v>05/12/2023</v>
       </c>
       <c r="J105" s="11">
         <f ca="1"/>
-        <v>222</v>
+        <v>90</v>
       </c>
       <c r="K105" s="11">
         <f ca="1"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="L105" s="11">
         <f ca="1"/>
@@ -7490,65 +5332,65 @@
       </c>
       <c r="M105" s="11">
         <f ca="1"/>
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="N105" s="11" t="str">
         <f ca="1"/>
-        <v>04/12/2023</v>
+        <v>05/12/2023</v>
       </c>
       <c r="O105" s="11">
         <f ca="1"/>
-        <v>850</v>
+        <v>365</v>
       </c>
       <c r="P105" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>301</v>
+        <v>122</v>
       </c>
       <c r="Q105" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="R105">
         <f ca="1"/>
-        <v>1291</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" t="str">
         <f ca="1"/>
-        <v>01/12/2023</v>
+        <v>04/12/2023</v>
       </c>
       <c r="B106" s="3">
         <f ca="1"/>
-        <v>534</v>
+        <v>677</v>
       </c>
       <c r="C106" s="3">
         <f ca="1"/>
-        <v>-108</v>
+        <v>-185</v>
       </c>
       <c r="E106" s="10" t="str">
         <f ca="1"/>
-        <v>01/12/2023</v>
+        <v>04/12/2023</v>
       </c>
       <c r="F106" s="3">
         <f ca="1"/>
-        <v>1255</v>
+        <v>1291</v>
       </c>
       <c r="G106" s="9">
         <f ca="1"/>
-        <v>7.7000000000000002E-3</v>
+        <v>-2.4100000000000007E-2</v>
       </c>
       <c r="I106" t="str">
         <f ca="1"/>
-        <v>01/12/2023</v>
+        <v>04/12/2023</v>
       </c>
       <c r="J106" s="11">
         <f ca="1"/>
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="K106" s="11">
         <f ca="1"/>
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="L106" s="11">
         <f ca="1"/>
@@ -7556,65 +5398,65 @@
       </c>
       <c r="M106" s="11">
         <f ca="1"/>
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="N106" s="11" t="str">
         <f ca="1"/>
-        <v>01/12/2023</v>
+        <v>04/12/2023</v>
       </c>
       <c r="O106" s="11">
         <f ca="1"/>
-        <v>394</v>
+        <v>850</v>
       </c>
       <c r="P106" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>301</v>
       </c>
       <c r="Q106" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="R106">
         <f ca="1"/>
-        <v>1255</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" t="str">
         <f ca="1"/>
-        <v>30/11/2023</v>
+        <v>01/12/2023</v>
       </c>
       <c r="B107" s="3">
         <f ca="1"/>
-        <v>499</v>
+        <v>534</v>
       </c>
       <c r="C107" s="3">
         <f ca="1"/>
-        <v>-103</v>
+        <v>-108</v>
       </c>
       <c r="E107" s="10" t="str">
         <f ca="1"/>
-        <v>30/11/2023</v>
+        <v>01/12/2023</v>
       </c>
       <c r="F107" s="3">
         <f ca="1"/>
-        <v>1212</v>
+        <v>1255</v>
       </c>
       <c r="G107" s="9">
         <f ca="1"/>
-        <v>-1.1899999999999999E-2</v>
+        <v>-4.1900000000000007E-2</v>
       </c>
       <c r="I107" t="str">
         <f ca="1"/>
-        <v>30/11/2023</v>
+        <v>01/12/2023</v>
       </c>
       <c r="J107" s="11">
         <f ca="1"/>
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="K107" s="11">
         <f ca="1"/>
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="L107" s="11">
         <f ca="1"/>
@@ -7622,197 +5464,197 @@
       </c>
       <c r="M107" s="11">
         <f ca="1"/>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="N107" s="11" t="str">
         <f ca="1"/>
-        <v>30/11/2023</v>
+        <v>01/12/2023</v>
       </c>
       <c r="O107" s="11">
         <f ca="1"/>
-        <v>482</v>
+        <v>394</v>
       </c>
       <c r="P107" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Q107" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="R107">
         <f ca="1"/>
-        <v>1212</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" t="str">
         <f ca="1"/>
-        <v>29/11/2023</v>
+        <v>30/11/2023</v>
       </c>
       <c r="B108" s="3">
         <f ca="1"/>
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C108" s="3">
         <f ca="1"/>
-        <v>-86</v>
+        <v>-103</v>
       </c>
       <c r="E108" s="10" t="str">
         <f ca="1"/>
-        <v>29/11/2023</v>
+        <v>30/11/2023</v>
       </c>
       <c r="F108" s="3">
         <f ca="1"/>
-        <v>1167</v>
+        <v>1212</v>
       </c>
       <c r="G108" s="9">
         <f ca="1"/>
-        <v>6.5000000000000006E-3</v>
+        <v>-4.9600000000000005E-2</v>
       </c>
       <c r="I108" t="str">
         <f ca="1"/>
-        <v>29/11/2023</v>
+        <v>30/11/2023</v>
       </c>
       <c r="J108" s="11">
         <f ca="1"/>
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="K108" s="11">
         <f ca="1"/>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L108" s="11">
         <f ca="1"/>
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="M108" s="11">
         <f ca="1"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N108" s="11" t="str">
         <f ca="1"/>
-        <v>29/11/2023</v>
+        <v>30/11/2023</v>
       </c>
       <c r="O108" s="11">
         <f ca="1"/>
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="P108" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>247</v>
+        <v>35</v>
       </c>
       <c r="Q108" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="R108">
         <f ca="1"/>
-        <v>1167</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" t="str">
         <f ca="1"/>
-        <v>28/11/2023</v>
+        <v>29/11/2023</v>
       </c>
       <c r="B109" s="3">
         <f ca="1"/>
-        <v>275</v>
+        <v>502</v>
       </c>
       <c r="C109" s="3">
         <f ca="1"/>
-        <v>-126</v>
+        <v>-86</v>
       </c>
       <c r="E109" s="10" t="str">
         <f ca="1"/>
-        <v>28/11/2023</v>
+        <v>29/11/2023</v>
       </c>
       <c r="F109" s="3">
         <f ca="1"/>
-        <v>937</v>
+        <v>1167</v>
       </c>
       <c r="G109" s="9">
         <f ca="1"/>
-        <v>8.6E-3</v>
+        <v>-3.7700000000000004E-2</v>
       </c>
       <c r="I109" t="str">
         <f ca="1"/>
-        <v>28/11/2023</v>
+        <v>29/11/2023</v>
       </c>
       <c r="J109" s="11">
         <f ca="1"/>
-        <v>46</v>
+        <v>237</v>
       </c>
       <c r="K109" s="11">
         <f ca="1"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L109" s="11">
         <f ca="1"/>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="M109" s="11">
         <f ca="1"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N109" s="11" t="str">
         <f ca="1"/>
-        <v>28/11/2023</v>
+        <v>29/11/2023</v>
       </c>
       <c r="O109" s="11">
         <f ca="1"/>
-        <v>723</v>
+        <v>489</v>
       </c>
       <c r="P109" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>247</v>
       </c>
       <c r="Q109" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="R109">
         <f ca="1"/>
-        <v>937</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" t="str">
         <f ca="1"/>
-        <v>27/11/2023</v>
+        <v>28/11/2023</v>
       </c>
       <c r="B110" s="3">
         <f ca="1"/>
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="C110" s="3">
         <f ca="1"/>
-        <v>-115</v>
+        <v>-126</v>
       </c>
       <c r="E110" s="10" t="str">
         <f ca="1"/>
-        <v>27/11/2023</v>
+        <v>28/11/2023</v>
       </c>
       <c r="F110" s="3">
         <f ca="1"/>
-        <v>850</v>
+        <v>937</v>
       </c>
       <c r="G110" s="9">
         <f ca="1"/>
-        <v>-5.6000000000000008E-3</v>
+        <v>-4.4200000000000003E-2</v>
       </c>
       <c r="I110" t="str">
         <f ca="1"/>
-        <v>27/11/2023</v>
+        <v>28/11/2023</v>
       </c>
       <c r="J110" s="11">
         <f ca="1"/>
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="K110" s="11">
         <f ca="1"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L110" s="11">
         <f ca="1"/>
@@ -7820,65 +5662,65 @@
       </c>
       <c r="M110" s="11">
         <f ca="1"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N110" s="11" t="str">
         <f ca="1"/>
-        <v>27/11/2023</v>
+        <v>28/11/2023</v>
       </c>
       <c r="O110" s="11">
         <f ca="1"/>
-        <v>344</v>
+        <v>723</v>
       </c>
       <c r="P110" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>149</v>
+        <v>58</v>
       </c>
       <c r="Q110" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="R110">
         <f ca="1"/>
-        <v>850</v>
+        <v>937</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" t="str">
         <f ca="1"/>
-        <v>24/11/2023</v>
+        <v>27/11/2023</v>
       </c>
       <c r="B111" s="3">
         <f ca="1"/>
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="C111" s="3">
         <f ca="1"/>
-        <v>-113</v>
+        <v>-115</v>
       </c>
       <c r="E111" s="10" t="str">
         <f ca="1"/>
-        <v>24/11/2023</v>
+        <v>27/11/2023</v>
       </c>
       <c r="F111" s="3">
         <f ca="1"/>
-        <v>501</v>
+        <v>850</v>
       </c>
       <c r="G111" s="9">
         <f ca="1"/>
-        <v>1E-3</v>
+        <v>-5.28E-2</v>
       </c>
       <c r="I111" t="str">
         <f ca="1"/>
-        <v>24/11/2023</v>
+        <v>27/11/2023</v>
       </c>
       <c r="J111" s="11">
         <f ca="1"/>
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="K111" s="11">
         <f ca="1"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L111" s="11">
         <f ca="1"/>
@@ -7886,65 +5728,65 @@
       </c>
       <c r="M111" s="11">
         <f ca="1"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="N111" s="11" t="str">
         <f ca="1"/>
-        <v>24/11/2023</v>
+        <v>27/11/2023</v>
       </c>
       <c r="O111" s="11">
         <f ca="1"/>
-        <v>972</v>
+        <v>344</v>
       </c>
       <c r="P111" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="Q111" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="R111">
         <f ca="1"/>
-        <v>501</v>
+        <v>850</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" t="str">
         <f ca="1"/>
-        <v>23/11/2023</v>
+        <v>24/11/2023</v>
       </c>
       <c r="B112" s="3">
         <f ca="1"/>
-        <v>-15</v>
+        <v>96</v>
       </c>
       <c r="C112" s="3">
         <f ca="1"/>
-        <v>-102</v>
+        <v>-113</v>
       </c>
       <c r="E112" s="10" t="str">
         <f ca="1"/>
-        <v>23/11/2023</v>
+        <v>24/11/2023</v>
       </c>
       <c r="F112" s="3">
         <f ca="1"/>
-        <v>479</v>
+        <v>501</v>
       </c>
       <c r="G112" s="9">
         <f ca="1"/>
-        <v>-2.69E-2</v>
+        <v>-4.7199999999999999E-2</v>
       </c>
       <c r="I112" t="str">
         <f ca="1"/>
-        <v>23/11/2023</v>
+        <v>24/11/2023</v>
       </c>
       <c r="J112" s="11">
         <f ca="1"/>
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="K112" s="11">
         <f ca="1"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L112" s="11">
         <f ca="1"/>
@@ -7952,85 +5794,85 @@
       </c>
       <c r="M112" s="11">
         <f ca="1"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N112" s="11" t="str">
         <f ca="1"/>
-        <v>23/11/2023</v>
+        <v>24/11/2023</v>
       </c>
       <c r="O112" s="11">
         <f ca="1"/>
-        <v>417</v>
+        <v>972</v>
       </c>
       <c r="P112" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="Q112" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R112">
         <f ca="1"/>
-        <v>479</v>
+        <v>501</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" t="str">
         <f ca="1"/>
-        <v>22/11/2023</v>
+        <v>23/11/2023</v>
       </c>
       <c r="B113" s="3">
         <f ca="1"/>
-        <v>-83</v>
+        <v>-15</v>
       </c>
       <c r="C113" s="3">
         <f ca="1"/>
-        <v>-101</v>
+        <v>-102</v>
       </c>
       <c r="E113" s="10" t="str">
         <f ca="1"/>
-        <v>22/11/2023</v>
+        <v>23/11/2023</v>
       </c>
       <c r="F113" s="3">
         <f ca="1"/>
-        <v>282</v>
+        <v>479</v>
       </c>
       <c r="G113" s="9">
         <f ca="1"/>
-        <v>1.5E-3</v>
+        <v>-4.82E-2</v>
       </c>
       <c r="I113" t="str">
         <f ca="1"/>
-        <v>22/11/2023</v>
+        <v>23/11/2023</v>
       </c>
       <c r="J113" s="11">
         <f ca="1"/>
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="K113" s="11">
         <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="L113" s="11">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M113" s="11">
+        <f ca="1"/>
         <v>1</v>
       </c>
-      <c r="L113" s="11">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="M113" s="11">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
       <c r="N113" s="11" t="str">
         <f ca="1"/>
-        <v>22/11/2023</v>
+        <v>23/11/2023</v>
       </c>
       <c r="O113" s="11">
         <f ca="1"/>
-        <v>513</v>
+        <v>417</v>
       </c>
       <c r="P113" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="Q113" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -8038,45 +5880,45 @@
       </c>
       <c r="R113">
         <f ca="1"/>
-        <v>282</v>
+        <v>479</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" t="str">
         <f ca="1"/>
-        <v>21/11/2023</v>
+        <v>22/11/2023</v>
       </c>
       <c r="B114" s="3">
         <f ca="1"/>
-        <v>-92</v>
+        <v>-83</v>
       </c>
       <c r="C114" s="3">
         <f ca="1"/>
-        <v>-100</v>
+        <v>-101</v>
       </c>
       <c r="E114" s="10" t="str">
         <f ca="1"/>
-        <v>21/11/2023</v>
+        <v>22/11/2023</v>
       </c>
       <c r="F114" s="3">
         <f ca="1"/>
-        <v>206</v>
+        <v>282</v>
       </c>
       <c r="G114" s="9">
         <f ca="1"/>
-        <v>4.0000000000000001E-3</v>
+        <v>-2.1299999999999999E-2</v>
       </c>
       <c r="I114" t="str">
         <f ca="1"/>
-        <v>21/11/2023</v>
+        <v>22/11/2023</v>
       </c>
       <c r="J114" s="11">
         <f ca="1"/>
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="K114" s="11">
         <f ca="1"/>
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="L114" s="11">
         <f ca="1"/>
@@ -8084,65 +5926,65 @@
       </c>
       <c r="M114" s="11">
         <f ca="1"/>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N114" s="11" t="str">
         <f ca="1"/>
-        <v>21/11/2023</v>
+        <v>22/11/2023</v>
       </c>
       <c r="O114" s="11">
         <f ca="1"/>
-        <v>457</v>
+        <v>513</v>
       </c>
       <c r="P114" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="Q114" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="R114">
         <f ca="1"/>
-        <v>206</v>
+        <v>282</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" t="str">
         <f ca="1"/>
-        <v>20/11/2023</v>
+        <v>21/11/2023</v>
       </c>
       <c r="B115" s="3">
         <f ca="1"/>
-        <v>-86</v>
+        <v>-92</v>
       </c>
       <c r="C115" s="3">
         <f ca="1"/>
-        <v>-80</v>
+        <v>-100</v>
       </c>
       <c r="E115" s="10" t="str">
         <f ca="1"/>
-        <v>20/11/2023</v>
+        <v>21/11/2023</v>
       </c>
       <c r="F115" s="3">
         <f ca="1"/>
-        <v>145</v>
+        <v>206</v>
       </c>
       <c r="G115" s="9">
         <f ca="1"/>
-        <v>-1.8E-3</v>
+        <v>-2.2800000000000001E-2</v>
       </c>
       <c r="I115" t="str">
         <f ca="1"/>
-        <v>20/11/2023</v>
+        <v>21/11/2023</v>
       </c>
       <c r="J115" s="11">
         <f ca="1"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K115" s="11">
         <f ca="1"/>
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="L115" s="11">
         <f ca="1"/>
@@ -8150,65 +5992,65 @@
       </c>
       <c r="M115" s="11">
         <f ca="1"/>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N115" s="11" t="str">
         <f ca="1"/>
-        <v>20/11/2023</v>
+        <v>21/11/2023</v>
       </c>
       <c r="O115" s="11">
         <f ca="1"/>
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="P115" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q115" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="R115">
         <f ca="1"/>
-        <v>145</v>
+        <v>206</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" t="str">
         <f ca="1"/>
-        <v>17/11/2023</v>
+        <v>20/11/2023</v>
       </c>
       <c r="B116" s="3">
         <f ca="1"/>
-        <v>-32</v>
+        <v>-86</v>
       </c>
       <c r="C116" s="3">
         <f ca="1"/>
-        <v>-30</v>
+        <v>-80</v>
       </c>
       <c r="E116" s="10" t="str">
         <f ca="1"/>
-        <v>17/11/2023</v>
+        <v>20/11/2023</v>
       </c>
       <c r="F116" s="3">
         <f ca="1"/>
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="G116" s="9">
         <f ca="1"/>
-        <v>-2.5000000000000001E-2</v>
+        <v>-2.6800000000000001E-2</v>
       </c>
       <c r="I116" t="str">
         <f ca="1"/>
-        <v>17/11/2023</v>
+        <v>20/11/2023</v>
       </c>
       <c r="J116" s="11">
         <f ca="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K116" s="11">
         <f ca="1"/>
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="L116" s="11">
         <f ca="1"/>
@@ -8216,81 +6058,81 @@
       </c>
       <c r="M116" s="11">
         <f ca="1"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N116" s="11" t="str">
         <f ca="1"/>
-        <v>17/11/2023</v>
+        <v>20/11/2023</v>
       </c>
       <c r="O116" s="11">
         <f ca="1"/>
-        <v>692</v>
+        <v>462</v>
       </c>
       <c r="P116" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="Q116" s="3">
         <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="R116">
+        <f ca="1"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A117" t="str">
+        <f ca="1"/>
+        <v>17/11/2023</v>
+      </c>
+      <c r="B117" s="3">
+        <f ca="1"/>
+        <v>-32</v>
+      </c>
+      <c r="C117" s="3">
+        <f ca="1"/>
+        <v>-30</v>
+      </c>
+      <c r="E117" s="10" t="str">
+        <f ca="1"/>
+        <v>17/11/2023</v>
+      </c>
+      <c r="F117" s="3">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="G117" s="9">
+        <f ca="1"/>
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="I117" t="str">
+        <f ca="1"/>
+        <v>17/11/2023</v>
+      </c>
+      <c r="J117" s="11">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="K117" s="11">
+        <f ca="1"/>
+        <v>37</v>
+      </c>
+      <c r="L117" s="11">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M117" s="11">
+        <f ca="1"/>
         <v>30</v>
       </c>
-      <c r="R116">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="B117" s="3">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="C117" s="3">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="E117" s="10">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="F117" s="3">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="G117" s="9">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="I117">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="J117" s="11">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="K117" s="11">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L117" s="11">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="M117" s="11">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="N117" s="11">
-        <f ca="1"/>
-        <v>0</v>
+      <c r="N117" s="11" t="str">
+        <f ca="1"/>
+        <v>17/11/2023</v>
       </c>
       <c r="O117" s="11">
         <f ca="1"/>
-        <v>0</v>
+        <v>692</v>
       </c>
       <c r="P117" s="11"/>
       <c r="R117">
@@ -10372,9 +8214,2356 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DC1C2D-D028-544D-AE96-582E75E82A33}">
+  <dimension ref="A1:W39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="4" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="9" width="20.5" customWidth="1"/>
+    <col min="12" max="13" width="17.5" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" customWidth="1"/>
+    <col min="15" max="15" width="16.1640625" customWidth="1"/>
+    <col min="16" max="16" width="17.83203125" customWidth="1"/>
+    <col min="17" max="17" width="20.33203125" customWidth="1"/>
+    <col min="18" max="18" width="13.1640625" customWidth="1"/>
+    <col min="20" max="20" width="15.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1">
+        <v>45247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V4" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3351</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2557</v>
+      </c>
+      <c r="D5" s="3">
+        <v>794</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" ref="E5:E29" si="0">D5+E6</f>
+        <v>28825</v>
+      </c>
+      <c r="F5" s="3">
+        <v>371048360000</v>
+      </c>
+      <c r="G5" s="3">
+        <v>284754290000</v>
+      </c>
+      <c r="H5" s="3">
+        <v>86294070000</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" ref="I5:I29" si="1">H5+I6</f>
+        <v>3150369340000</v>
+      </c>
+      <c r="J5" s="3">
+        <v>221</v>
+      </c>
+      <c r="K5" s="3">
+        <v>4213</v>
+      </c>
+      <c r="L5" s="3">
+        <v>-3992</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" ref="M5:M29" si="2">L5+M6</f>
+        <v>-12226</v>
+      </c>
+      <c r="N5" s="3">
+        <v>24599900000</v>
+      </c>
+      <c r="O5" s="3">
+        <v>468473460000</v>
+      </c>
+      <c r="P5" s="3">
+        <v>-443873560000</v>
+      </c>
+      <c r="Q5" s="3">
+        <f t="shared" ref="Q5:Q29" si="3">P5+Q6</f>
+        <v>-1343039200000</v>
+      </c>
+      <c r="R5" s="3">
+        <v>57560</v>
+      </c>
+      <c r="S5" s="3">
+        <v>179539</v>
+      </c>
+      <c r="T5" s="7">
+        <v>3.2906499423523583E-2</v>
+      </c>
+      <c r="U5" s="7">
+        <v>2.4696584029096743E-2</v>
+      </c>
+      <c r="V5" s="7">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="W5" s="7">
+        <f t="shared" ref="W5:W29" si="4">V5+W6</f>
+        <v>-1.54E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5468</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2941</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2527</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>28031</v>
+      </c>
+      <c r="F6" s="3">
+        <v>599486290000</v>
+      </c>
+      <c r="G6" s="3">
+        <v>322553750000</v>
+      </c>
+      <c r="H6" s="3">
+        <v>276932540000</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="1"/>
+        <v>3064075270000</v>
+      </c>
+      <c r="J6" s="3">
+        <v>4991</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1201</v>
+      </c>
+      <c r="L6" s="3">
+        <v>3790</v>
+      </c>
+      <c r="M6" s="3">
+        <f t="shared" si="2"/>
+        <v>-8234</v>
+      </c>
+      <c r="N6" s="3">
+        <v>547083740000</v>
+      </c>
+      <c r="O6" s="3">
+        <v>131791340000</v>
+      </c>
+      <c r="P6" s="3">
+        <v>415292400000</v>
+      </c>
+      <c r="Q6" s="3">
+        <f t="shared" si="3"/>
+        <v>-899165640000</v>
+      </c>
+      <c r="R6" s="3">
+        <v>49231</v>
+      </c>
+      <c r="S6" s="3">
+        <v>170434</v>
+      </c>
+      <c r="T6" s="7">
+        <v>4.9338746963634016E-2</v>
+      </c>
+      <c r="U6" s="7">
+        <v>3.6330779069903896E-2</v>
+      </c>
+      <c r="V6" s="7">
+        <v>-5.9999999999999995E-4</v>
+      </c>
+      <c r="W6" s="7">
+        <f t="shared" si="4"/>
+        <v>-3.1200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="3">
+        <v>8105</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3095</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5010</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>25504</v>
+      </c>
+      <c r="F7" s="3">
+        <v>887785460000</v>
+      </c>
+      <c r="G7" s="3">
+        <v>339308700000</v>
+      </c>
+      <c r="H7" s="3">
+        <v>548476760000</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="1"/>
+        <v>2787142730000</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1112</v>
+      </c>
+      <c r="K7" s="3">
+        <v>3986</v>
+      </c>
+      <c r="L7" s="3">
+        <v>-2874</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" si="2"/>
+        <v>-12024</v>
+      </c>
+      <c r="N7" s="3">
+        <v>121825220000</v>
+      </c>
+      <c r="O7" s="3">
+        <v>436966820000</v>
+      </c>
+      <c r="P7" s="3">
+        <v>-315141600000</v>
+      </c>
+      <c r="Q7" s="3">
+        <f t="shared" si="3"/>
+        <v>-1314458040000</v>
+      </c>
+      <c r="R7" s="3">
+        <v>34535</v>
+      </c>
+      <c r="S7" s="3">
+        <v>42157</v>
+      </c>
+      <c r="T7" s="7">
+        <v>0.26567355362098821</v>
+      </c>
+      <c r="U7" s="7">
+        <v>0.12092890860355339</v>
+      </c>
+      <c r="V7" s="7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="W7" s="7">
+        <f t="shared" si="4"/>
+        <v>-3.0600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="3">
+        <v>11754</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1316</v>
+      </c>
+      <c r="D8" s="3">
+        <v>10438</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>20494</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1285944240000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>143929260000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1142014980000</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="1"/>
+        <v>2238665970000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>195</v>
+      </c>
+      <c r="K8" s="3">
+        <v>5567</v>
+      </c>
+      <c r="L8" s="3">
+        <v>-5372</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" si="2"/>
+        <v>-9150</v>
+      </c>
+      <c r="N8" s="3">
+        <v>21386240000</v>
+      </c>
+      <c r="O8" s="3">
+        <v>609219120000</v>
+      </c>
+      <c r="P8" s="3">
+        <v>-587832880000</v>
+      </c>
+      <c r="Q8" s="3">
+        <f t="shared" si="3"/>
+        <v>-999316440000</v>
+      </c>
+      <c r="R8" s="3">
+        <v>19399</v>
+      </c>
+      <c r="S8" s="3">
+        <v>24951</v>
+      </c>
+      <c r="T8" s="7">
+        <v>0.523826700332652</v>
+      </c>
+      <c r="U8" s="7">
+        <v>0.23093262795078354</v>
+      </c>
+      <c r="V8" s="7">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="W8" s="7">
+        <f t="shared" si="4"/>
+        <v>-3.1100000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="3">
+        <v>6086</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1479</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4607</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>10056</v>
+      </c>
+      <c r="F9" s="3">
+        <v>658941430000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>159982430000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>498959000000</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="1"/>
+        <v>1096650990000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1724</v>
+      </c>
+      <c r="L9" s="3">
+        <v>-1724</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" si="2"/>
+        <v>-3778</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>186507170000</v>
+      </c>
+      <c r="P9" s="3">
+        <v>-186507170000</v>
+      </c>
+      <c r="Q9" s="3">
+        <f t="shared" si="3"/>
+        <v>-411483560000</v>
+      </c>
+      <c r="R9" s="3">
+        <v>10671</v>
+      </c>
+      <c r="S9" s="3">
+        <v>14830</v>
+      </c>
+      <c r="T9" s="7">
+        <v>0.51011463250168576</v>
+      </c>
+      <c r="U9" s="7">
+        <v>0.1162508428860418</v>
+      </c>
+      <c r="V9" s="7">
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="W9" s="7">
+        <f t="shared" si="4"/>
+        <v>-3.8300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="3">
+        <v>4233</v>
+      </c>
+      <c r="C10" s="3">
+        <v>880</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3353</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>5449</v>
+      </c>
+      <c r="F10" s="3">
+        <v>461832960000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>95970070000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>365862890000</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="1"/>
+        <v>597691990000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>822</v>
+      </c>
+      <c r="L10" s="3">
+        <v>-822</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" si="2"/>
+        <v>-2054</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>89695100000</v>
+      </c>
+      <c r="P10" s="3">
+        <v>-89695100000</v>
+      </c>
+      <c r="Q10" s="3">
+        <f t="shared" si="3"/>
+        <v>-224976390000</v>
+      </c>
+      <c r="R10" s="3">
+        <v>5252</v>
+      </c>
+      <c r="S10" s="3">
+        <v>8616</v>
+      </c>
+      <c r="T10" s="7">
+        <v>0.59343082636954503</v>
+      </c>
+      <c r="U10" s="7">
+        <v>9.5403899721448471E-2</v>
+      </c>
+      <c r="V10" s="7">
+        <v>-1.1599999999999999E-2</v>
+      </c>
+      <c r="W10" s="7">
+        <f t="shared" si="4"/>
+        <v>-4.53E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="3">
+        <v>422</v>
+      </c>
+      <c r="C11" s="3">
+        <v>343</v>
+      </c>
+      <c r="D11" s="3">
+        <v>79</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>2096</v>
+      </c>
+      <c r="F11" s="3">
+        <v>46586980000</v>
+      </c>
+      <c r="G11" s="3">
+        <v>37835800000</v>
+      </c>
+      <c r="H11" s="3">
+        <v>8751180000</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="1"/>
+        <v>231829100000</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>481</v>
+      </c>
+      <c r="L11" s="3">
+        <v>-481</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="2"/>
+        <v>-1232</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>53080940000</v>
+      </c>
+      <c r="P11" s="3">
+        <v>-53080940000</v>
+      </c>
+      <c r="Q11" s="3">
+        <f t="shared" si="3"/>
+        <v>-135281290000</v>
+      </c>
+      <c r="R11" s="3">
+        <v>4177</v>
+      </c>
+      <c r="S11" s="3">
+        <v>2262</v>
+      </c>
+      <c r="T11" s="7">
+        <v>0.33819628647214856</v>
+      </c>
+      <c r="U11" s="7">
+        <v>0.21264367816091953</v>
+      </c>
+      <c r="V11" s="7">
+        <v>-8.6E-3</v>
+      </c>
+      <c r="W11" s="7">
+        <f t="shared" si="4"/>
+        <v>-3.3700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="3">
+        <v>495</v>
+      </c>
+      <c r="C12" s="3">
+        <v>141</v>
+      </c>
+      <c r="D12" s="3">
+        <v>354</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+      <c r="F12" s="3">
+        <v>54931980000</v>
+      </c>
+      <c r="G12" s="3">
+        <v>15616830000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>39315150000</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="1"/>
+        <v>223077920000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>139</v>
+      </c>
+      <c r="L12" s="3">
+        <v>-139</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" si="2"/>
+        <v>-751</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>15398240000</v>
+      </c>
+      <c r="P12" s="3">
+        <v>-15398240000</v>
+      </c>
+      <c r="Q12" s="3">
+        <f t="shared" si="3"/>
+        <v>-82200350000</v>
+      </c>
+      <c r="R12" s="3">
+        <v>3463</v>
+      </c>
+      <c r="S12" s="3">
+        <v>1640</v>
+      </c>
+      <c r="T12" s="7">
+        <v>0.3878048780487805</v>
+      </c>
+      <c r="U12" s="7">
+        <v>8.4756097560975616E-2</v>
+      </c>
+      <c r="V12" s="7">
+        <v>-2.3E-3</v>
+      </c>
+      <c r="W12" s="7">
+        <f t="shared" si="4"/>
+        <v>-2.5100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3">
+        <v>324</v>
+      </c>
+      <c r="C13" s="3">
+        <v>96</v>
+      </c>
+      <c r="D13" s="3">
+        <v>228</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>1663</v>
+      </c>
+      <c r="F13" s="3">
+        <v>36196550000</v>
+      </c>
+      <c r="G13" s="3">
+        <v>10668040000</v>
+      </c>
+      <c r="H13" s="3">
+        <v>25528510000</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="1"/>
+        <v>183762770000</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>96</v>
+      </c>
+      <c r="L13" s="3">
+        <v>-96</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="2"/>
+        <v>-612</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>10668510000</v>
+      </c>
+      <c r="P13" s="3">
+        <v>-10668510000</v>
+      </c>
+      <c r="Q13" s="3">
+        <f t="shared" si="3"/>
+        <v>-66802110000</v>
+      </c>
+      <c r="R13" s="3">
+        <v>3110</v>
+      </c>
+      <c r="S13" s="3">
+        <v>1197</v>
+      </c>
+      <c r="T13" s="7">
+        <v>0.35087719298245612</v>
+      </c>
+      <c r="U13" s="7">
+        <v>8.0200501253132828E-2</v>
+      </c>
+      <c r="V13" s="7">
+        <v>-9.3999999999999986E-3</v>
+      </c>
+      <c r="W13" s="7">
+        <f t="shared" si="4"/>
+        <v>-2.2800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="3">
+        <v>619</v>
+      </c>
+      <c r="C14" s="3">
+        <v>189</v>
+      </c>
+      <c r="D14" s="3">
+        <v>430</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>1435</v>
+      </c>
+      <c r="F14" s="3">
+        <v>69056310000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>21079500000</v>
+      </c>
+      <c r="H14" s="3">
+        <v>47976810000</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="1"/>
+        <v>158234260000</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>184</v>
+      </c>
+      <c r="L14" s="3">
+        <v>-184</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" si="2"/>
+        <v>-516</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>20521370000</v>
+      </c>
+      <c r="P14" s="3">
+        <v>-20521370000</v>
+      </c>
+      <c r="Q14" s="3">
+        <f t="shared" si="3"/>
+        <v>-56133600000</v>
+      </c>
+      <c r="R14" s="3">
+        <v>2102</v>
+      </c>
+      <c r="S14" s="3">
+        <v>1785</v>
+      </c>
+      <c r="T14" s="7">
+        <v>0.45266106442577031</v>
+      </c>
+      <c r="U14" s="7">
+        <v>0.10308123249299719</v>
+      </c>
+      <c r="V14" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="W14" s="7">
+        <f t="shared" si="4"/>
+        <v>-1.3400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="3">
+        <v>100</v>
+      </c>
+      <c r="C15" s="3">
+        <v>106</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-6</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>1005</v>
+      </c>
+      <c r="F15" s="3">
+        <v>11146280000</v>
+      </c>
+      <c r="G15" s="3">
+        <v>11808900000</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-662620000</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="1"/>
+        <v>110257450000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>106</v>
+      </c>
+      <c r="L15" s="3">
+        <v>-106</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" si="2"/>
+        <v>-332</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>11808760000</v>
+      </c>
+      <c r="P15" s="3">
+        <v>-11808760000</v>
+      </c>
+      <c r="Q15" s="3">
+        <f t="shared" si="3"/>
+        <v>-35612230000</v>
+      </c>
+      <c r="R15" s="3">
+        <v>1990</v>
+      </c>
+      <c r="S15" s="3">
+        <v>438</v>
+      </c>
+      <c r="T15" s="7">
+        <v>0.47031963470319632</v>
+      </c>
+      <c r="U15" s="7">
+        <v>0.24200913242009131</v>
+      </c>
+      <c r="V15" s="7">
+        <v>3.8E-3</v>
+      </c>
+      <c r="W15" s="7">
+        <f t="shared" si="4"/>
+        <v>-1.6400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="3">
+        <v>358</v>
+      </c>
+      <c r="C16" s="3">
+        <v>55</v>
+      </c>
+      <c r="D16" s="3">
+        <v>303</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="0"/>
+        <v>1011</v>
+      </c>
+      <c r="F16" s="3">
+        <v>39902100000</v>
+      </c>
+      <c r="G16" s="3">
+        <v>6118980000</v>
+      </c>
+      <c r="H16" s="3">
+        <v>33783120000</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="1"/>
+        <v>110920070000</v>
+      </c>
+      <c r="J16" s="3">
+        <v>193</v>
+      </c>
+      <c r="K16" s="3">
+        <v>55</v>
+      </c>
+      <c r="L16" s="3">
+        <v>138</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="2"/>
+        <v>-226</v>
+      </c>
+      <c r="N16" s="3">
+        <v>21492040000</v>
+      </c>
+      <c r="O16" s="3">
+        <v>6118680000</v>
+      </c>
+      <c r="P16" s="3">
+        <v>15373360000</v>
+      </c>
+      <c r="Q16" s="3">
+        <f t="shared" si="3"/>
+        <v>-23803470000</v>
+      </c>
+      <c r="R16" s="3">
+        <v>1861</v>
+      </c>
+      <c r="S16" s="3">
+        <v>916</v>
+      </c>
+      <c r="T16" s="7">
+        <v>0.45087336244541487</v>
+      </c>
+      <c r="U16" s="7">
+        <v>0.27074235807860264</v>
+      </c>
+      <c r="V16" s="7">
+        <v>-8.9999999999999998E-4</v>
+      </c>
+      <c r="W16" s="7">
+        <f t="shared" si="4"/>
+        <v>-2.0200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3">
+        <v>63</v>
+      </c>
+      <c r="C17" s="3">
+        <v>92</v>
+      </c>
+      <c r="D17" s="3">
+        <v>-29</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="0"/>
+        <v>708</v>
+      </c>
+      <c r="F17" s="3">
+        <v>6974410000</v>
+      </c>
+      <c r="G17" s="3">
+        <v>10139670000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>-3165260000</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="1"/>
+        <v>77136950000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>91</v>
+      </c>
+      <c r="L17" s="3">
+        <v>-91</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="2"/>
+        <v>-364</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>10027630000</v>
+      </c>
+      <c r="P17" s="3">
+        <v>-10027630000</v>
+      </c>
+      <c r="Q17" s="3">
+        <f t="shared" si="3"/>
+        <v>-39176830000</v>
+      </c>
+      <c r="R17" s="3">
+        <v>1707</v>
+      </c>
+      <c r="S17" s="3">
+        <v>877</v>
+      </c>
+      <c r="T17" s="7">
+        <v>0.17673888255416192</v>
+      </c>
+      <c r="U17" s="7">
+        <v>0.10376282782212087</v>
+      </c>
+      <c r="V17" s="7">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="W17" s="7">
+        <f t="shared" si="4"/>
+        <v>-1.9300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="3">
+        <v>60</v>
+      </c>
+      <c r="C18" s="3">
+        <v>58</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="0"/>
+        <v>737</v>
+      </c>
+      <c r="F18" s="3">
+        <v>6616670000</v>
+      </c>
+      <c r="G18" s="3">
+        <v>6397840000</v>
+      </c>
+      <c r="H18" s="3">
+        <v>218830000</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="1"/>
+        <v>80302210000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>56</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-56</v>
+      </c>
+      <c r="M18" s="3">
+        <f t="shared" si="2"/>
+        <v>-273</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>6175690000</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-6175690000</v>
+      </c>
+      <c r="Q18" s="3">
+        <f t="shared" si="3"/>
+        <v>-29149200000</v>
+      </c>
+      <c r="R18" s="3">
+        <v>1626</v>
+      </c>
+      <c r="S18" s="3">
+        <v>336</v>
+      </c>
+      <c r="T18" s="7">
+        <v>0.35119047619047616</v>
+      </c>
+      <c r="U18" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="V18" s="7">
+        <v>1.1000000000000001E-2</v>
+      </c>
+      <c r="W18" s="7">
+        <f t="shared" si="4"/>
+        <v>-2.0200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="3">
+        <v>90</v>
+      </c>
+      <c r="C19" s="3">
+        <v>32</v>
+      </c>
+      <c r="D19" s="3">
+        <v>58</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="0"/>
+        <v>735</v>
+      </c>
+      <c r="F19" s="3">
+        <v>9894120000</v>
+      </c>
+      <c r="G19" s="3">
+        <v>3520430000</v>
+      </c>
+      <c r="H19" s="3">
+        <v>6373690000</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="1"/>
+        <v>80083380000</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>32</v>
+      </c>
+      <c r="L19" s="3">
+        <v>-32</v>
+      </c>
+      <c r="M19" s="3">
+        <f t="shared" si="2"/>
+        <v>-217</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>3520560000</v>
+      </c>
+      <c r="P19" s="3">
+        <v>-3520560000</v>
+      </c>
+      <c r="Q19" s="3">
+        <f t="shared" si="3"/>
+        <v>-22973510000</v>
+      </c>
+      <c r="R19" s="3">
+        <v>1514</v>
+      </c>
+      <c r="S19" s="3">
+        <v>365</v>
+      </c>
+      <c r="T19" s="7">
+        <v>0.33424657534246577</v>
+      </c>
+      <c r="U19" s="7">
+        <v>8.7671232876712329E-2</v>
+      </c>
+      <c r="V19" s="7">
+        <v>-7.0999999999999995E-3</v>
+      </c>
+      <c r="W19" s="7">
+        <f t="shared" si="4"/>
+        <v>-3.1200000000000006E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="3">
+        <v>222</v>
+      </c>
+      <c r="C20" s="3">
+        <v>79</v>
+      </c>
+      <c r="D20" s="3">
+        <v>143</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="0"/>
+        <v>677</v>
+      </c>
+      <c r="F20" s="3">
+        <v>24546690000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>8713920000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>15832770000</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="1"/>
+        <v>73709690000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>77</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-77</v>
+      </c>
+      <c r="M20" s="3">
+        <f t="shared" si="2"/>
+        <v>-185</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>8492600000</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-8492600000</v>
+      </c>
+      <c r="Q20" s="3">
+        <f t="shared" si="3"/>
+        <v>-19452950000</v>
+      </c>
+      <c r="R20" s="3">
+        <v>1291</v>
+      </c>
+      <c r="S20" s="3">
+        <v>850</v>
+      </c>
+      <c r="T20" s="7">
+        <v>0.35411764705882354</v>
+      </c>
+      <c r="U20" s="7">
+        <v>9.058823529411765E-2</v>
+      </c>
+      <c r="V20" s="7">
+        <v>1.78E-2</v>
+      </c>
+      <c r="W20" s="7">
+        <f t="shared" si="4"/>
+        <v>-2.4100000000000007E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="3">
+        <v>40</v>
+      </c>
+      <c r="C21" s="3">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>35</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="0"/>
+        <v>534</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4332000000</v>
+      </c>
+      <c r="G21" s="3">
+        <v>540450000</v>
+      </c>
+      <c r="H21" s="3">
+        <v>3791550000</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="1"/>
+        <v>57876920000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-5</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" si="2"/>
+        <v>-108</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>540450000</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-540450000</v>
+      </c>
+      <c r="Q21" s="3">
+        <f t="shared" si="3"/>
+        <v>-10960350000</v>
+      </c>
+      <c r="R21" s="3">
+        <v>1255</v>
+      </c>
+      <c r="S21" s="3">
+        <v>394</v>
+      </c>
+      <c r="T21" s="7">
+        <v>0.11421319796954314</v>
+      </c>
+      <c r="U21" s="7">
+        <v>1.2690355329949238E-2</v>
+      </c>
+      <c r="V21" s="7">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="W21" s="7">
+        <f t="shared" si="4"/>
+        <v>-4.1900000000000007E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="3">
+        <v>16</v>
+      </c>
+      <c r="C22" s="3">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3">
+        <v>-3</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="0"/>
+        <v>499</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1746820000</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2074540000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>-327720000</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" si="1"/>
+        <v>54085370000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>17</v>
+      </c>
+      <c r="L22" s="3">
+        <v>-17</v>
+      </c>
+      <c r="M22" s="3">
+        <f t="shared" si="2"/>
+        <v>-103</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>1856390000</v>
+      </c>
+      <c r="P22" s="3">
+        <v>-1856390000</v>
+      </c>
+      <c r="Q22" s="3">
+        <f t="shared" si="3"/>
+        <v>-10419900000</v>
+      </c>
+      <c r="R22" s="3">
+        <v>1212</v>
+      </c>
+      <c r="S22" s="3">
+        <v>482</v>
+      </c>
+      <c r="T22" s="7">
+        <v>7.2614107883817433E-2</v>
+      </c>
+      <c r="U22" s="7">
+        <v>3.5269709543568464E-2</v>
+      </c>
+      <c r="V22" s="7">
+        <v>-1.1899999999999999E-2</v>
+      </c>
+      <c r="W22" s="7">
+        <f t="shared" si="4"/>
+        <v>-4.9600000000000005E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="3">
+        <v>237</v>
+      </c>
+      <c r="C23" s="3">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3">
+        <v>227</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="0"/>
+        <v>502</v>
+      </c>
+      <c r="F23" s="3">
+        <v>25881060000</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1091310000</v>
+      </c>
+      <c r="H23" s="3">
+        <v>24789750000</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="1"/>
+        <v>54413090000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>59</v>
+      </c>
+      <c r="K23" s="3">
+        <v>19</v>
+      </c>
+      <c r="L23" s="3">
+        <v>40</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" si="2"/>
+        <v>-86</v>
+      </c>
+      <c r="N23" s="3">
+        <v>6425730000</v>
+      </c>
+      <c r="O23" s="3">
+        <v>1091290000</v>
+      </c>
+      <c r="P23" s="3">
+        <v>5334440000</v>
+      </c>
+      <c r="Q23" s="3">
+        <f t="shared" si="3"/>
+        <v>-8563510000</v>
+      </c>
+      <c r="R23" s="3">
+        <v>1167</v>
+      </c>
+      <c r="S23" s="3">
+        <v>489</v>
+      </c>
+      <c r="T23" s="7">
+        <v>0.50511247443762786</v>
+      </c>
+      <c r="U23" s="7">
+        <v>0.15950920245398773</v>
+      </c>
+      <c r="V23" s="7">
+        <v>6.5000000000000006E-3</v>
+      </c>
+      <c r="W23" s="7">
+        <f t="shared" si="4"/>
+        <v>-3.7700000000000004E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3">
+        <v>46</v>
+      </c>
+      <c r="C24" s="3">
+        <v>12</v>
+      </c>
+      <c r="D24" s="3">
+        <v>34</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="0"/>
+        <v>275</v>
+      </c>
+      <c r="F24" s="3">
+        <v>4930750000</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1291220000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3639530000</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" si="1"/>
+        <v>29623340000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>11</v>
+      </c>
+      <c r="L24" s="3">
+        <v>-11</v>
+      </c>
+      <c r="M24" s="3">
+        <f t="shared" si="2"/>
+        <v>-126</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>1184070000</v>
+      </c>
+      <c r="P24" s="3">
+        <v>-1184070000</v>
+      </c>
+      <c r="Q24" s="3">
+        <f t="shared" si="3"/>
+        <v>-13897950000</v>
+      </c>
+      <c r="R24" s="3">
+        <v>937</v>
+      </c>
+      <c r="S24" s="3">
+        <v>723</v>
+      </c>
+      <c r="T24" s="7">
+        <v>8.0221300138312593E-2</v>
+      </c>
+      <c r="U24" s="7">
+        <v>1.5214384508990318E-2</v>
+      </c>
+      <c r="V24" s="7">
+        <v>8.6E-3</v>
+      </c>
+      <c r="W24" s="7">
+        <f t="shared" si="4"/>
+        <v>-4.4200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>147</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>145</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="0"/>
+        <v>241</v>
+      </c>
+      <c r="F25" s="3">
+        <v>15868470000</v>
+      </c>
+      <c r="G25" s="3">
+        <v>215680000</v>
+      </c>
+      <c r="H25" s="3">
+        <v>15652790000</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="1"/>
+        <v>25983810000</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <v>2</v>
+      </c>
+      <c r="L25" s="3">
+        <v>-2</v>
+      </c>
+      <c r="M25" s="3">
+        <f t="shared" si="2"/>
+        <v>-115</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>215680000</v>
+      </c>
+      <c r="P25" s="3">
+        <v>-215680000</v>
+      </c>
+      <c r="Q25" s="3">
+        <f t="shared" si="3"/>
+        <v>-12713880000</v>
+      </c>
+      <c r="R25" s="3">
+        <v>850</v>
+      </c>
+      <c r="S25" s="3">
+        <v>344</v>
+      </c>
+      <c r="T25" s="7">
+        <v>0.43313953488372092</v>
+      </c>
+      <c r="U25" s="7">
+        <v>5.8139534883720929E-3</v>
+      </c>
+      <c r="V25" s="7">
+        <v>-5.6000000000000008E-3</v>
+      </c>
+      <c r="W25" s="7">
+        <f t="shared" si="4"/>
+        <v>-5.28E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="3">
+        <v>123</v>
+      </c>
+      <c r="C26" s="3">
+        <v>12</v>
+      </c>
+      <c r="D26" s="3">
+        <v>111</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="F26" s="3">
+        <v>13288440000</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1290090000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>11998350000</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="1"/>
+        <v>10331020000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>11</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-11</v>
+      </c>
+      <c r="M26" s="3">
+        <f t="shared" si="2"/>
+        <v>-113</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>1182120000</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-1182120000</v>
+      </c>
+      <c r="Q26" s="3">
+        <f t="shared" si="3"/>
+        <v>-12498200000</v>
+      </c>
+      <c r="R26" s="3">
+        <v>501</v>
+      </c>
+      <c r="S26" s="3">
+        <v>972</v>
+      </c>
+      <c r="T26" s="7">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="U26" s="7">
+        <v>1.131687242798354E-2</v>
+      </c>
+      <c r="V26" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="W26" s="7">
+        <f t="shared" si="4"/>
+        <v>-4.7199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="3">
+        <v>71</v>
+      </c>
+      <c r="C27" s="3">
+        <v>3</v>
+      </c>
+      <c r="D27" s="3">
+        <v>68</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+      <c r="F27" s="3">
+        <v>7885450000</v>
+      </c>
+      <c r="G27" s="3">
+        <v>331270000</v>
+      </c>
+      <c r="H27" s="3">
+        <v>7554180000</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="1"/>
+        <v>-1667330000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M27" s="3">
+        <f t="shared" si="2"/>
+        <v>-102</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>109450000</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-109450000</v>
+      </c>
+      <c r="Q27" s="3">
+        <f t="shared" si="3"/>
+        <v>-11316080000</v>
+      </c>
+      <c r="R27" s="3">
+        <v>479</v>
+      </c>
+      <c r="S27" s="3">
+        <v>417</v>
+      </c>
+      <c r="T27" s="7">
+        <v>0.17745803357314149</v>
+      </c>
+      <c r="U27" s="7">
+        <v>2.3980815347721821E-3</v>
+      </c>
+      <c r="V27" s="7">
+        <v>-2.69E-2</v>
+      </c>
+      <c r="W27" s="7">
+        <f t="shared" si="4"/>
+        <v>-4.82E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="3">
+        <v>10</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3">
+        <v>9</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="0"/>
+        <v>-83</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1109000000</v>
+      </c>
+      <c r="G28" s="3">
+        <v>110300000</v>
+      </c>
+      <c r="H28" s="3">
+        <v>998700000</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="1"/>
+        <v>-9221510000</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
+      </c>
+      <c r="L28" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M28" s="3">
+        <f t="shared" si="2"/>
+        <v>-101</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>110300000</v>
+      </c>
+      <c r="P28" s="3">
+        <v>-110300000</v>
+      </c>
+      <c r="Q28" s="3">
+        <f t="shared" si="3"/>
+        <v>-11206630000</v>
+      </c>
+      <c r="R28" s="3">
+        <v>282</v>
+      </c>
+      <c r="S28" s="3">
+        <v>513</v>
+      </c>
+      <c r="T28" s="7">
+        <v>2.1442495126705652E-2</v>
+      </c>
+      <c r="U28" s="7">
+        <v>1.9493177387914229E-3</v>
+      </c>
+      <c r="V28" s="7">
+        <v>1.5E-3</v>
+      </c>
+      <c r="W28" s="7">
+        <f t="shared" si="4"/>
+        <v>-2.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="3">
+        <v>21</v>
+      </c>
+      <c r="C29" s="3">
+        <v>27</v>
+      </c>
+      <c r="D29" s="3">
+        <v>-6</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="0"/>
+        <v>-92</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2312590000</v>
+      </c>
+      <c r="G29" s="3">
+        <v>2988560000</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-675970000</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="1"/>
+        <v>-10220210000</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>20</v>
+      </c>
+      <c r="L29" s="3">
+        <v>-20</v>
+      </c>
+      <c r="M29" s="3">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>2212780000</v>
+      </c>
+      <c r="P29" s="3">
+        <v>-2212780000</v>
+      </c>
+      <c r="Q29" s="3">
+        <f t="shared" si="3"/>
+        <v>-11096330000</v>
+      </c>
+      <c r="R29" s="3">
+        <v>206</v>
+      </c>
+      <c r="S29" s="3">
+        <v>457</v>
+      </c>
+      <c r="T29" s="7">
+        <v>0.10503282275711159</v>
+      </c>
+      <c r="U29" s="7">
+        <v>4.3763676148796497E-2</v>
+      </c>
+      <c r="V29" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="W29" s="7">
+        <f t="shared" si="4"/>
+        <v>-2.2800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>54</v>
+      </c>
+      <c r="D30" s="3">
+        <v>-54</v>
+      </c>
+      <c r="E30" s="3">
+        <f>D30+E31</f>
+        <v>-86</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>5939180000</v>
+      </c>
+      <c r="H30" s="3">
+        <v>-5939180000</v>
+      </c>
+      <c r="I30" s="3">
+        <f>H30+I31</f>
+        <v>-9544240000</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>50</v>
+      </c>
+      <c r="L30" s="3">
+        <v>-50</v>
+      </c>
+      <c r="M30" s="3">
+        <f>L30+M31</f>
+        <v>-80</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>5506080000</v>
+      </c>
+      <c r="P30" s="3">
+        <v>-5506080000</v>
+      </c>
+      <c r="Q30" s="3">
+        <f>P30+Q31</f>
+        <v>-8883550000</v>
+      </c>
+      <c r="R30" s="3">
+        <v>145</v>
+      </c>
+      <c r="S30" s="3">
+        <v>462</v>
+      </c>
+      <c r="T30" s="7">
+        <v>0.11688311688311688</v>
+      </c>
+      <c r="U30" s="7">
+        <v>0.10822510822510822</v>
+      </c>
+      <c r="V30" s="7">
+        <v>-1.8E-3</v>
+      </c>
+      <c r="W30" s="7">
+        <f>V30+W31</f>
+        <v>-2.6800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="3">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3">
+        <v>37</v>
+      </c>
+      <c r="D31" s="3">
+        <v>-32</v>
+      </c>
+      <c r="E31" s="3">
+        <f>D31</f>
+        <v>-32</v>
+      </c>
+      <c r="F31" s="3">
+        <v>552750000</v>
+      </c>
+      <c r="G31" s="3">
+        <v>4157810000</v>
+      </c>
+      <c r="H31" s="3">
+        <v>-3605060000</v>
+      </c>
+      <c r="I31" s="3">
+        <f>H31</f>
+        <v>-3605060000</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="3">
+        <v>30</v>
+      </c>
+      <c r="L31" s="3">
+        <v>-30</v>
+      </c>
+      <c r="M31" s="3">
+        <f>L31</f>
+        <v>-30</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>3377470000</v>
+      </c>
+      <c r="P31" s="3">
+        <v>-3377470000</v>
+      </c>
+      <c r="Q31" s="3">
+        <f>P31</f>
+        <v>-3377470000</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>692</v>
+      </c>
+      <c r="T31" s="7">
+        <v>6.0693641618497107E-2</v>
+      </c>
+      <c r="U31" s="7">
+        <v>4.3352601156069363E-2</v>
+      </c>
+      <c r="V31" s="7">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="W31" s="7">
+        <f>V31</f>
+        <v>-2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J3:Q3"/>
+    <mergeCell ref="B3:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B82BDC2-5D76-6E46-9971-DCB614823F8C}">
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
@@ -10384,8 +10573,10 @@
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
     <col min="12" max="12" width="13.83203125" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
     <col min="16" max="16" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10497,83 +10688,115 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-11</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1226300000</v>
+      </c>
+      <c r="H5" s="3">
+        <v>-1226300000</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>11</v>
+      </c>
+      <c r="L5" s="3">
+        <v>-11</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1226270000</v>
+      </c>
+      <c r="P5" s="3">
+        <v>-1226270000</v>
+      </c>
+      <c r="R5" s="3">
+        <v>60</v>
+      </c>
+      <c r="S5" s="3">
+        <v>160</v>
+      </c>
+      <c r="T5" s="7">
+        <v>6.8750000000000006E-2</v>
+      </c>
+      <c r="U5" s="7">
+        <v>6.8750000000000006E-2</v>
+      </c>
+      <c r="V5" s="7">
+        <v>1.5300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D6" s="3">
         <v>-1</v>
       </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
         <v>110030000</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H6" s="3">
         <v>-110030000</v>
       </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
         <v>1</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L6" s="3">
         <v>-1</v>
       </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
         <v>110030000</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P6" s="3">
         <v>-110030000</v>
       </c>
-      <c r="R5" s="3">
-        <v>0</v>
-      </c>
-      <c r="S5" s="3">
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
         <v>158</v>
       </c>
-      <c r="T5" s="7">
+      <c r="T6" s="7">
         <v>6.3291139240506328E-3</v>
       </c>
-      <c r="U5" s="7">
+      <c r="U6" s="7">
         <v>6.3291139240506328E-3</v>
       </c>
-      <c r="V5" s="7">
+      <c r="V6" s="7">
         <v>-5.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
@@ -11175,6 +11398,30 @@
       <c r="U31" s="7"/>
       <c r="V31" s="7"/>
     </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:I3"/>

--- a/2023/PhaiSinh.xlsx
+++ b/2023/PhaiSinh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trung.nguyenhoang/Desktop/stocks/App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86BEDED-C301-2145-8073-8A96B2FD9587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573921BF-60AA-5C47-94EE-6E47983CEBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="16860" activeTab="1" xr2:uid="{C3A8CAD2-D0D3-0E42-AE62-C721C0509473}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -211,6 +211,12 @@
   <si>
     <t>Luỹ kế</t>
   </si>
+  <si>
+    <t>26/12/2023</t>
+  </si>
+  <si>
+    <t>27/12/2023</t>
+  </si>
 </sst>
 </file>
 
@@ -311,13 +317,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -488,82 +494,82 @@
               <c:strCache>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>27/12/2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26/12/2023</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>25/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>22/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>21/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>20/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>19/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>18/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>15/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>14/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>13/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>12/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>11/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>08/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>07/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>06/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>05/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>04/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>01/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>30/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>29/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>28/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>27/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>24/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>23/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>22/11/2023</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>21/11/2023</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>20/11/2023</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -575,82 +581,82 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>28202</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29212</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>28825</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>28031</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>25504</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>20494</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>10056</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>5449</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>2096</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>2017</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>1663</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>1435</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>1005</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>1011</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>708</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>737</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>735</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>677</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>534</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>499</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>502</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>275</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>241</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>96</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>-15</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>-83</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-92</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -723,82 +729,82 @@
               <c:strCache>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>27/12/2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26/12/2023</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>25/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>22/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>21/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>20/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>19/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>18/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>15/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>14/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>13/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>12/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>11/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>08/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>07/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>06/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>05/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>04/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>01/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>30/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>29/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>28/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>27/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>24/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>23/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>22/11/2023</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>21/11/2023</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>20/11/2023</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -810,82 +816,82 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>-14309</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-11721</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>-12226</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>-8234</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>-12024</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>-9150</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>-3778</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>-2054</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>-1232</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>-751</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>-612</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>-516</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>-332</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>-226</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>-364</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>-273</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>-217</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>-185</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>-108</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>-103</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>-86</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>-126</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>-115</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>-113</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>-102</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>-101</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-100</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -985,82 +991,82 @@
                     <c:strCache>
                       <c:ptCount val="26"/>
                       <c:pt idx="0">
+                        <c:v>27/12/2023</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>26/12/2023</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
                         <c:v>25/12/2023</c:v>
                       </c:pt>
-                      <c:pt idx="1">
+                      <c:pt idx="3">
                         <c:v>22/12/2023</c:v>
                       </c:pt>
-                      <c:pt idx="2">
+                      <c:pt idx="4">
                         <c:v>21/12/2023</c:v>
                       </c:pt>
-                      <c:pt idx="3">
+                      <c:pt idx="5">
                         <c:v>20/12/2023</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="6">
                         <c:v>19/12/2023</c:v>
                       </c:pt>
-                      <c:pt idx="5">
+                      <c:pt idx="7">
                         <c:v>18/12/2023</c:v>
                       </c:pt>
-                      <c:pt idx="6">
+                      <c:pt idx="8">
                         <c:v>15/12/2023</c:v>
                       </c:pt>
-                      <c:pt idx="7">
+                      <c:pt idx="9">
                         <c:v>14/12/2023</c:v>
                       </c:pt>
-                      <c:pt idx="8">
+                      <c:pt idx="10">
                         <c:v>13/12/2023</c:v>
                       </c:pt>
-                      <c:pt idx="9">
+                      <c:pt idx="11">
                         <c:v>12/12/2023</c:v>
                       </c:pt>
-                      <c:pt idx="10">
+                      <c:pt idx="12">
                         <c:v>11/12/2023</c:v>
                       </c:pt>
-                      <c:pt idx="11">
+                      <c:pt idx="13">
                         <c:v>08/12/2023</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="14">
                         <c:v>07/12/2023</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="15">
                         <c:v>06/12/2023</c:v>
                       </c:pt>
-                      <c:pt idx="14">
+                      <c:pt idx="16">
                         <c:v>05/12/2023</c:v>
                       </c:pt>
-                      <c:pt idx="15">
+                      <c:pt idx="17">
                         <c:v>04/12/2023</c:v>
                       </c:pt>
-                      <c:pt idx="16">
+                      <c:pt idx="18">
                         <c:v>01/12/2023</c:v>
                       </c:pt>
-                      <c:pt idx="17">
+                      <c:pt idx="19">
                         <c:v>30/11/2023</c:v>
                       </c:pt>
-                      <c:pt idx="18">
+                      <c:pt idx="20">
                         <c:v>29/11/2023</c:v>
                       </c:pt>
-                      <c:pt idx="19">
+                      <c:pt idx="21">
                         <c:v>28/11/2023</c:v>
                       </c:pt>
-                      <c:pt idx="20">
+                      <c:pt idx="22">
                         <c:v>27/11/2023</c:v>
                       </c:pt>
-                      <c:pt idx="21">
+                      <c:pt idx="23">
                         <c:v>24/11/2023</c:v>
                       </c:pt>
-                      <c:pt idx="22">
+                      <c:pt idx="24">
                         <c:v>23/11/2023</c:v>
                       </c:pt>
-                      <c:pt idx="23">
+                      <c:pt idx="25">
                         <c:v>22/11/2023</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>21/11/2023</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>20/11/2023</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1134,82 +1140,82 @@
               <c:strCache>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>27/12/2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26/12/2023</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>25/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>22/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>21/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>20/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>19/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>18/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>15/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>14/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>13/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>12/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>11/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>08/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>07/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>06/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>05/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>04/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>01/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>30/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>29/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>28/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>27/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>24/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>23/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>22/11/2023</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>21/11/2023</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>20/11/2023</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1221,82 +1227,82 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9.6000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>-1.54E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>-3.1200000000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>-3.0600000000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>-3.1100000000000003E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>-3.8300000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>-4.53E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>-3.3700000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>-2.5100000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>-2.2800000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>-1.3400000000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>-1.6400000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-2.0200000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-1.9300000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>-2.0200000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>-1.9300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.0200000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>-3.1200000000000006E-2</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>-2.4100000000000007E-2</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>-4.1900000000000007E-2</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>-4.9600000000000005E-2</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>-3.7700000000000004E-2</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>-4.4200000000000003E-2</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>-5.28E-2</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>-4.7199999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>-4.82E-2</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>-2.1299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-2.2800000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-2.6800000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1718,82 +1724,82 @@
               <c:strCache>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>27/12/2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26/12/2023</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>25/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>22/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>21/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>20/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>19/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>18/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>15/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>14/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>13/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>12/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>11/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>08/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>07/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>06/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>05/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>04/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>01/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>30/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>29/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>28/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>27/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>24/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>23/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>22/11/2023</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>21/11/2023</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>20/11/2023</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1805,82 +1811,82 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>135934</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>132261</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>179539</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>170434</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>42157</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>24951</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>14830</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>8616</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>2262</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>1640</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>1197</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>1785</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>438</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>916</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>877</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>336</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>365</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>850</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>394</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>482</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>489</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>723</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>344</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>972</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>417</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>513</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>457</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>462</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1950,82 +1956,82 @@
               <c:strCache>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>27/12/2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26/12/2023</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>25/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>22/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>21/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>20/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>19/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>18/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>15/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>14/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>13/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>12/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>11/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>08/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>07/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>06/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>05/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>04/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>01/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>30/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>29/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>28/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>27/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>24/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>23/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>22/11/2023</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>21/11/2023</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>20/11/2023</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2037,82 +2043,82 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>4278</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4131</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>5908</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>8409</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>11200</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>13070</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>7565</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>5113</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>765</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>636</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>420</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>808</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>206</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>413</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>155</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>118</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>122</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>301</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>247</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>149</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>135</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>74</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2182,82 +2188,82 @@
               <c:strCache>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>27/12/2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26/12/2023</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>25/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>22/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>21/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>20/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>19/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>18/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>15/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>14/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>13/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>12/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>11/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>08/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>07/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>06/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>05/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>04/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>01/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>30/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>29/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>28/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>27/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>24/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>23/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>22/11/2023</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>21/11/2023</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>20/11/2023</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2269,82 +2275,82 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>3018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5941</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>4434</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>6192</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>5098</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>5762</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>1724</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>822</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>481</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>139</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>96</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>184</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>106</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>248</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>91</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2414,82 +2420,82 @@
               <c:strCache>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>27/12/2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26/12/2023</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>25/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>22/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>21/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>20/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>19/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>18/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>15/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>14/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>13/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>12/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>11/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>08/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>07/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>06/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>05/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>04/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>01/12/2023</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>30/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>29/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>28/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>27/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>24/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>23/11/2023</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>22/11/2023</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>21/11/2023</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>20/11/2023</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2501,82 +2507,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>57545</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58086</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>57560</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>49231</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>34535</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>19399</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>10671</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>5252</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>4177</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>3463</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>3110</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>2102</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>1990</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>1861</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>1707</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>1626</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>1514</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>1291</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>1255</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>1212</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>1167</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>937</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>850</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>501</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>479</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>282</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4256,7 +4262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8C1C6C-B89F-2B48-BB15-96C96E30481A}">
   <dimension ref="A88:T152"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
@@ -4289,14 +4295,14 @@
       <c r="C89" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J89" s="14"/>
-      <c r="K89" s="14"/>
-      <c r="L89" s="14"/>
-      <c r="M89" s="14"/>
-      <c r="N89" s="14"/>
-      <c r="O89" s="14"/>
-      <c r="P89" s="14"/>
-      <c r="Q89" s="14"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="12"/>
+      <c r="O89" s="12"/>
+      <c r="P89" s="12"/>
+      <c r="Q89" s="12"/>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" t="str" cm="1">
@@ -4365,265 +4371,265 @@
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
         <f ca="1"/>
-        <v>25/12/2023</v>
+        <v>27/12/2023</v>
       </c>
       <c r="B91" s="3">
         <f ca="1"/>
-        <v>28825</v>
+        <v>28202</v>
       </c>
       <c r="C91" s="3">
         <f ca="1"/>
-        <v>-12226</v>
+        <v>-14309</v>
       </c>
       <c r="E91" s="10" t="str">
         <f ca="1"/>
-        <v>25/12/2023</v>
+        <v>27/12/2023</v>
       </c>
       <c r="F91" s="3">
         <f ca="1"/>
-        <v>57560</v>
+        <v>57545</v>
       </c>
       <c r="G91" s="9">
         <f ca="1"/>
-        <v>-1.54E-2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="str">
         <f ca="1"/>
-        <v>25/12/2023</v>
+        <v>27/12/2023</v>
       </c>
       <c r="J91" s="11">
         <f ca="1"/>
-        <v>3351</v>
+        <v>1634</v>
       </c>
       <c r="K91" s="11">
         <f ca="1"/>
-        <v>2557</v>
+        <v>2644</v>
       </c>
       <c r="L91" s="11">
         <f ca="1"/>
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="M91" s="11">
         <f ca="1"/>
-        <v>4213</v>
+        <v>2803</v>
       </c>
       <c r="N91" t="str">
         <f ca="1"/>
-        <v>25/12/2023</v>
+        <v>27/12/2023</v>
       </c>
       <c r="O91" s="11">
         <f ca="1"/>
-        <v>179539</v>
+        <v>135934</v>
       </c>
       <c r="P91" s="11">
         <f ca="1">J91+K91</f>
-        <v>5908</v>
+        <v>4278</v>
       </c>
       <c r="Q91" s="3">
         <f ca="1">L91+M91</f>
-        <v>4434</v>
+        <v>3018</v>
       </c>
       <c r="R91">
         <f ca="1"/>
-        <v>57560</v>
+        <v>57545</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
         <f ca="1"/>
-        <v>22/12/2023</v>
+        <v>26/12/2023</v>
       </c>
       <c r="B92" s="3">
         <f ca="1"/>
-        <v>28031</v>
+        <v>29212</v>
       </c>
       <c r="C92" s="3">
         <f ca="1"/>
-        <v>-8234</v>
+        <v>-11721</v>
       </c>
       <c r="E92" s="10" t="str">
         <f ca="1"/>
-        <v>22/12/2023</v>
+        <v>26/12/2023</v>
       </c>
       <c r="F92" s="3">
         <f ca="1"/>
-        <v>49231</v>
+        <v>58086</v>
       </c>
       <c r="G92" s="9">
         <f ca="1"/>
-        <v>-3.1200000000000002E-2</v>
+        <v>-9.6000000000000009E-3</v>
       </c>
       <c r="I92" t="str">
         <f ca="1"/>
-        <v>22/12/2023</v>
+        <v>26/12/2023</v>
       </c>
       <c r="J92" s="11">
         <f ca="1"/>
-        <v>5468</v>
+        <v>2259</v>
       </c>
       <c r="K92" s="11">
         <f ca="1"/>
-        <v>2941</v>
+        <v>1872</v>
       </c>
       <c r="L92" s="11">
         <f ca="1"/>
-        <v>4991</v>
+        <v>3223</v>
       </c>
       <c r="M92" s="11">
         <f ca="1"/>
-        <v>1201</v>
+        <v>2718</v>
       </c>
       <c r="N92" s="11" t="str">
         <f ca="1"/>
-        <v>22/12/2023</v>
+        <v>26/12/2023</v>
       </c>
       <c r="O92" s="11">
         <f ca="1"/>
-        <v>170434</v>
+        <v>132261</v>
       </c>
       <c r="P92" s="11">
         <f t="shared" ref="P92:P116" ca="1" si="0">J92+K92</f>
-        <v>8409</v>
+        <v>4131</v>
       </c>
       <c r="Q92" s="3">
         <f t="shared" ref="Q92:Q116" ca="1" si="1">L92+M92</f>
-        <v>6192</v>
+        <v>5941</v>
       </c>
       <c r="R92">
         <f ca="1"/>
-        <v>49231</v>
+        <v>58086</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
         <f ca="1"/>
-        <v>21/12/2023</v>
+        <v>25/12/2023</v>
       </c>
       <c r="B93" s="3">
         <f ca="1"/>
-        <v>25504</v>
+        <v>28825</v>
       </c>
       <c r="C93" s="3">
         <f ca="1"/>
-        <v>-12024</v>
+        <v>-12226</v>
       </c>
       <c r="E93" s="10" t="str">
         <f ca="1"/>
-        <v>21/12/2023</v>
+        <v>25/12/2023</v>
       </c>
       <c r="F93" s="3">
         <f ca="1"/>
-        <v>34535</v>
+        <v>57560</v>
       </c>
       <c r="G93" s="9">
         <f ca="1"/>
-        <v>-3.0600000000000002E-2</v>
+        <v>-1.54E-2</v>
       </c>
       <c r="I93" t="str">
         <f ca="1"/>
-        <v>21/12/2023</v>
+        <v>25/12/2023</v>
       </c>
       <c r="J93" s="11">
         <f ca="1"/>
-        <v>8105</v>
+        <v>3351</v>
       </c>
       <c r="K93" s="11">
         <f ca="1"/>
-        <v>3095</v>
+        <v>2557</v>
       </c>
       <c r="L93" s="11">
         <f ca="1"/>
-        <v>1112</v>
+        <v>221</v>
       </c>
       <c r="M93" s="11">
         <f ca="1"/>
-        <v>3986</v>
+        <v>4213</v>
       </c>
       <c r="N93" s="11" t="str">
         <f ca="1"/>
-        <v>21/12/2023</v>
+        <v>25/12/2023</v>
       </c>
       <c r="O93" s="11">
         <f ca="1"/>
-        <v>42157</v>
+        <v>179539</v>
       </c>
       <c r="P93" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>11200</v>
+        <v>5908</v>
       </c>
       <c r="Q93" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5098</v>
+        <v>4434</v>
       </c>
       <c r="R93">
         <f ca="1"/>
-        <v>34535</v>
+        <v>57560</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
         <f ca="1"/>
-        <v>20/12/2023</v>
+        <v>22/12/2023</v>
       </c>
       <c r="B94" s="3">
         <f ca="1"/>
-        <v>20494</v>
+        <v>28031</v>
       </c>
       <c r="C94" s="3">
         <f ca="1"/>
-        <v>-9150</v>
+        <v>-8234</v>
       </c>
       <c r="E94" s="10" t="str">
         <f ca="1"/>
-        <v>20/12/2023</v>
+        <v>22/12/2023</v>
       </c>
       <c r="F94" s="3">
         <f ca="1"/>
-        <v>19399</v>
+        <v>49231</v>
       </c>
       <c r="G94" s="9">
         <f ca="1"/>
-        <v>-3.1100000000000003E-2</v>
+        <v>-3.1200000000000002E-2</v>
       </c>
       <c r="I94" t="str">
         <f ca="1"/>
-        <v>20/12/2023</v>
+        <v>22/12/2023</v>
       </c>
       <c r="J94" s="11">
         <f ca="1"/>
-        <v>11754</v>
+        <v>5468</v>
       </c>
       <c r="K94" s="11">
         <f ca="1"/>
-        <v>1316</v>
+        <v>2941</v>
       </c>
       <c r="L94" s="11">
         <f ca="1"/>
-        <v>195</v>
+        <v>4991</v>
       </c>
       <c r="M94" s="11">
         <f ca="1"/>
-        <v>5567</v>
+        <v>1201</v>
       </c>
       <c r="N94" s="11" t="str">
         <f ca="1"/>
-        <v>20/12/2023</v>
+        <v>22/12/2023</v>
       </c>
       <c r="O94" s="11">
         <f ca="1"/>
-        <v>24951</v>
+        <v>170434</v>
       </c>
       <c r="P94" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>13070</v>
+        <v>8409</v>
       </c>
       <c r="Q94" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5762</v>
+        <v>6192</v>
       </c>
       <c r="R94">
         <f ca="1"/>
-        <v>19399</v>
+        <v>49231</v>
       </c>
       <c r="T94" t="s">
         <v>47</v>
@@ -4632,171 +4638,171 @@
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
         <f ca="1"/>
-        <v>19/12/2023</v>
+        <v>21/12/2023</v>
       </c>
       <c r="B95" s="3">
         <f ca="1"/>
-        <v>10056</v>
+        <v>25504</v>
       </c>
       <c r="C95" s="3">
         <f ca="1"/>
-        <v>-3778</v>
+        <v>-12024</v>
       </c>
       <c r="E95" s="10" t="str">
         <f ca="1"/>
-        <v>19/12/2023</v>
+        <v>21/12/2023</v>
       </c>
       <c r="F95" s="3">
         <f ca="1"/>
-        <v>10671</v>
+        <v>34535</v>
       </c>
       <c r="G95" s="9">
         <f ca="1"/>
-        <v>-3.8300000000000001E-2</v>
+        <v>-3.0600000000000002E-2</v>
       </c>
       <c r="I95" t="str">
         <f ca="1"/>
-        <v>19/12/2023</v>
+        <v>21/12/2023</v>
       </c>
       <c r="J95" s="11">
         <f ca="1"/>
-        <v>6086</v>
+        <v>8105</v>
       </c>
       <c r="K95" s="11">
         <f ca="1"/>
-        <v>1479</v>
+        <v>3095</v>
       </c>
       <c r="L95" s="11">
         <f ca="1"/>
-        <v>0</v>
+        <v>1112</v>
       </c>
       <c r="M95" s="11">
         <f ca="1"/>
-        <v>1724</v>
+        <v>3986</v>
       </c>
       <c r="N95" s="11" t="str">
         <f ca="1"/>
-        <v>19/12/2023</v>
+        <v>21/12/2023</v>
       </c>
       <c r="O95" s="11">
         <f ca="1"/>
-        <v>14830</v>
+        <v>42157</v>
       </c>
       <c r="P95" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>7565</v>
+        <v>11200</v>
       </c>
       <c r="Q95" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1724</v>
+        <v>5098</v>
       </c>
       <c r="R95">
         <f ca="1"/>
-        <v>10671</v>
+        <v>34535</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" t="str">
         <f ca="1"/>
-        <v>18/12/2023</v>
+        <v>20/12/2023</v>
       </c>
       <c r="B96" s="3">
         <f ca="1"/>
-        <v>5449</v>
+        <v>20494</v>
       </c>
       <c r="C96" s="3">
         <f ca="1"/>
-        <v>-2054</v>
+        <v>-9150</v>
       </c>
       <c r="E96" s="10" t="str">
         <f ca="1"/>
-        <v>18/12/2023</v>
+        <v>20/12/2023</v>
       </c>
       <c r="F96" s="3">
         <f ca="1"/>
-        <v>5252</v>
+        <v>19399</v>
       </c>
       <c r="G96" s="9">
         <f ca="1"/>
-        <v>-4.53E-2</v>
+        <v>-3.1100000000000003E-2</v>
       </c>
       <c r="I96" t="str">
         <f ca="1"/>
-        <v>18/12/2023</v>
+        <v>20/12/2023</v>
       </c>
       <c r="J96" s="11">
         <f ca="1"/>
-        <v>4233</v>
+        <v>11754</v>
       </c>
       <c r="K96" s="11">
         <f ca="1"/>
-        <v>880</v>
+        <v>1316</v>
       </c>
       <c r="L96" s="11">
         <f ca="1"/>
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="M96" s="11">
         <f ca="1"/>
-        <v>822</v>
+        <v>5567</v>
       </c>
       <c r="N96" s="11" t="str">
         <f ca="1"/>
-        <v>18/12/2023</v>
+        <v>20/12/2023</v>
       </c>
       <c r="O96" s="11">
         <f ca="1"/>
-        <v>8616</v>
+        <v>24951</v>
       </c>
       <c r="P96" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>5113</v>
+        <v>13070</v>
       </c>
       <c r="Q96" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>822</v>
+        <v>5762</v>
       </c>
       <c r="R96">
         <f ca="1"/>
-        <v>5252</v>
+        <v>19399</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" t="str">
         <f ca="1"/>
-        <v>15/12/2023</v>
+        <v>19/12/2023</v>
       </c>
       <c r="B97" s="3">
         <f ca="1"/>
-        <v>2096</v>
+        <v>10056</v>
       </c>
       <c r="C97" s="3">
         <f ca="1"/>
-        <v>-1232</v>
+        <v>-3778</v>
       </c>
       <c r="E97" s="10" t="str">
         <f ca="1"/>
-        <v>15/12/2023</v>
+        <v>19/12/2023</v>
       </c>
       <c r="F97" s="3">
         <f ca="1"/>
-        <v>4177</v>
+        <v>10671</v>
       </c>
       <c r="G97" s="9">
         <f ca="1"/>
-        <v>-3.3700000000000001E-2</v>
+        <v>-3.8300000000000001E-2</v>
       </c>
       <c r="I97" t="str">
         <f ca="1"/>
-        <v>15/12/2023</v>
+        <v>19/12/2023</v>
       </c>
       <c r="J97" s="11">
         <f ca="1"/>
-        <v>422</v>
+        <v>6086</v>
       </c>
       <c r="K97" s="11">
         <f ca="1"/>
-        <v>343</v>
+        <v>1479</v>
       </c>
       <c r="L97" s="11">
         <f ca="1"/>
@@ -4804,65 +4810,65 @@
       </c>
       <c r="M97" s="11">
         <f ca="1"/>
-        <v>481</v>
+        <v>1724</v>
       </c>
       <c r="N97" s="11" t="str">
         <f ca="1"/>
-        <v>15/12/2023</v>
+        <v>19/12/2023</v>
       </c>
       <c r="O97" s="11">
         <f ca="1"/>
-        <v>2262</v>
+        <v>14830</v>
       </c>
       <c r="P97" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>765</v>
+        <v>7565</v>
       </c>
       <c r="Q97" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>481</v>
+        <v>1724</v>
       </c>
       <c r="R97">
         <f ca="1"/>
-        <v>4177</v>
+        <v>10671</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" t="str">
         <f ca="1"/>
-        <v>14/12/2023</v>
+        <v>18/12/2023</v>
       </c>
       <c r="B98" s="3">
         <f ca="1"/>
-        <v>2017</v>
+        <v>5449</v>
       </c>
       <c r="C98" s="3">
         <f ca="1"/>
-        <v>-751</v>
+        <v>-2054</v>
       </c>
       <c r="E98" s="10" t="str">
         <f ca="1"/>
-        <v>14/12/2023</v>
+        <v>18/12/2023</v>
       </c>
       <c r="F98" s="3">
         <f ca="1"/>
-        <v>3463</v>
+        <v>5252</v>
       </c>
       <c r="G98" s="9">
         <f ca="1"/>
-        <v>-2.5100000000000001E-2</v>
+        <v>-4.53E-2</v>
       </c>
       <c r="I98" t="str">
         <f ca="1"/>
-        <v>14/12/2023</v>
+        <v>18/12/2023</v>
       </c>
       <c r="J98" s="11">
         <f ca="1"/>
-        <v>495</v>
+        <v>4233</v>
       </c>
       <c r="K98" s="11">
         <f ca="1"/>
-        <v>141</v>
+        <v>880</v>
       </c>
       <c r="L98" s="11">
         <f ca="1"/>
@@ -4870,65 +4876,65 @@
       </c>
       <c r="M98" s="11">
         <f ca="1"/>
-        <v>139</v>
+        <v>822</v>
       </c>
       <c r="N98" s="11" t="str">
         <f ca="1"/>
-        <v>14/12/2023</v>
+        <v>18/12/2023</v>
       </c>
       <c r="O98" s="11">
         <f ca="1"/>
-        <v>1640</v>
+        <v>8616</v>
       </c>
       <c r="P98" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>636</v>
+        <v>5113</v>
       </c>
       <c r="Q98" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>139</v>
+        <v>822</v>
       </c>
       <c r="R98">
         <f ca="1"/>
-        <v>3463</v>
+        <v>5252</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" t="str">
         <f ca="1"/>
-        <v>13/12/2023</v>
+        <v>15/12/2023</v>
       </c>
       <c r="B99" s="3">
         <f ca="1"/>
-        <v>1663</v>
+        <v>2096</v>
       </c>
       <c r="C99" s="3">
         <f ca="1"/>
-        <v>-612</v>
+        <v>-1232</v>
       </c>
       <c r="E99" s="10" t="str">
         <f ca="1"/>
-        <v>13/12/2023</v>
+        <v>15/12/2023</v>
       </c>
       <c r="F99" s="3">
         <f ca="1"/>
-        <v>3110</v>
+        <v>4177</v>
       </c>
       <c r="G99" s="9">
         <f ca="1"/>
-        <v>-2.2800000000000001E-2</v>
+        <v>-3.3700000000000001E-2</v>
       </c>
       <c r="I99" t="str">
         <f ca="1"/>
-        <v>13/12/2023</v>
+        <v>15/12/2023</v>
       </c>
       <c r="J99" s="11">
         <f ca="1"/>
-        <v>324</v>
+        <v>422</v>
       </c>
       <c r="K99" s="11">
         <f ca="1"/>
-        <v>96</v>
+        <v>343</v>
       </c>
       <c r="L99" s="11">
         <f ca="1"/>
@@ -4936,65 +4942,65 @@
       </c>
       <c r="M99" s="11">
         <f ca="1"/>
-        <v>96</v>
+        <v>481</v>
       </c>
       <c r="N99" s="11" t="str">
         <f ca="1"/>
-        <v>13/12/2023</v>
+        <v>15/12/2023</v>
       </c>
       <c r="O99" s="11">
         <f ca="1"/>
-        <v>1197</v>
+        <v>2262</v>
       </c>
       <c r="P99" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>420</v>
+        <v>765</v>
       </c>
       <c r="Q99" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>481</v>
       </c>
       <c r="R99">
         <f ca="1"/>
-        <v>3110</v>
+        <v>4177</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" t="str">
         <f ca="1"/>
-        <v>12/12/2023</v>
+        <v>14/12/2023</v>
       </c>
       <c r="B100" s="3">
         <f ca="1"/>
-        <v>1435</v>
+        <v>2017</v>
       </c>
       <c r="C100" s="3">
         <f ca="1"/>
-        <v>-516</v>
+        <v>-751</v>
       </c>
       <c r="E100" s="10" t="str">
         <f ca="1"/>
-        <v>12/12/2023</v>
+        <v>14/12/2023</v>
       </c>
       <c r="F100" s="3">
         <f ca="1"/>
-        <v>2102</v>
+        <v>3463</v>
       </c>
       <c r="G100" s="9">
         <f ca="1"/>
-        <v>-1.3400000000000002E-2</v>
+        <v>-2.5100000000000001E-2</v>
       </c>
       <c r="I100" t="str">
         <f ca="1"/>
-        <v>12/12/2023</v>
+        <v>14/12/2023</v>
       </c>
       <c r="J100" s="11">
         <f ca="1"/>
-        <v>619</v>
+        <v>495</v>
       </c>
       <c r="K100" s="11">
         <f ca="1"/>
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="L100" s="11">
         <f ca="1"/>
@@ -5002,65 +5008,65 @@
       </c>
       <c r="M100" s="11">
         <f ca="1"/>
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="N100" s="11" t="str">
         <f ca="1"/>
-        <v>12/12/2023</v>
+        <v>14/12/2023</v>
       </c>
       <c r="O100" s="11">
         <f ca="1"/>
-        <v>1785</v>
+        <v>1640</v>
       </c>
       <c r="P100" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>808</v>
+        <v>636</v>
       </c>
       <c r="Q100" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="R100">
         <f ca="1"/>
-        <v>2102</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" t="str">
         <f ca="1"/>
-        <v>11/12/2023</v>
+        <v>13/12/2023</v>
       </c>
       <c r="B101" s="3">
         <f ca="1"/>
-        <v>1005</v>
+        <v>1663</v>
       </c>
       <c r="C101" s="3">
         <f ca="1"/>
-        <v>-332</v>
+        <v>-612</v>
       </c>
       <c r="E101" s="10" t="str">
         <f ca="1"/>
-        <v>11/12/2023</v>
+        <v>13/12/2023</v>
       </c>
       <c r="F101" s="3">
         <f ca="1"/>
-        <v>1990</v>
+        <v>3110</v>
       </c>
       <c r="G101" s="9">
         <f ca="1"/>
-        <v>-1.6400000000000001E-2</v>
+        <v>-2.2800000000000001E-2</v>
       </c>
       <c r="I101" t="str">
         <f ca="1"/>
-        <v>11/12/2023</v>
+        <v>13/12/2023</v>
       </c>
       <c r="J101" s="11">
         <f ca="1"/>
-        <v>100</v>
+        <v>324</v>
       </c>
       <c r="K101" s="11">
         <f ca="1"/>
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="L101" s="11">
         <f ca="1"/>
@@ -5068,131 +5074,131 @@
       </c>
       <c r="M101" s="11">
         <f ca="1"/>
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="N101" s="11" t="str">
         <f ca="1"/>
-        <v>11/12/2023</v>
+        <v>13/12/2023</v>
       </c>
       <c r="O101" s="11">
         <f ca="1"/>
-        <v>438</v>
+        <v>1197</v>
       </c>
       <c r="P101" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>206</v>
+        <v>420</v>
       </c>
       <c r="Q101" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="R101">
         <f ca="1"/>
-        <v>1990</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" t="str">
         <f ca="1"/>
-        <v>08/12/2023</v>
+        <v>12/12/2023</v>
       </c>
       <c r="B102" s="3">
         <f ca="1"/>
-        <v>1011</v>
+        <v>1435</v>
       </c>
       <c r="C102" s="3">
         <f ca="1"/>
-        <v>-226</v>
+        <v>-516</v>
       </c>
       <c r="E102" s="10" t="str">
         <f ca="1"/>
-        <v>08/12/2023</v>
+        <v>12/12/2023</v>
       </c>
       <c r="F102" s="3">
         <f ca="1"/>
-        <v>1861</v>
+        <v>2102</v>
       </c>
       <c r="G102" s="9">
         <f ca="1"/>
-        <v>-2.0200000000000003E-2</v>
+        <v>-1.3400000000000002E-2</v>
       </c>
       <c r="I102" t="str">
         <f ca="1"/>
-        <v>08/12/2023</v>
+        <v>12/12/2023</v>
       </c>
       <c r="J102" s="11">
         <f ca="1"/>
-        <v>358</v>
+        <v>619</v>
       </c>
       <c r="K102" s="11">
         <f ca="1"/>
-        <v>55</v>
+        <v>189</v>
       </c>
       <c r="L102" s="11">
         <f ca="1"/>
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="M102" s="11">
         <f ca="1"/>
-        <v>55</v>
+        <v>184</v>
       </c>
       <c r="N102" s="11" t="str">
         <f ca="1"/>
-        <v>08/12/2023</v>
+        <v>12/12/2023</v>
       </c>
       <c r="O102" s="11">
         <f ca="1"/>
-        <v>916</v>
+        <v>1785</v>
       </c>
       <c r="P102" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>413</v>
+        <v>808</v>
       </c>
       <c r="Q102" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>248</v>
+        <v>184</v>
       </c>
       <c r="R102">
         <f ca="1"/>
-        <v>1861</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" t="str">
         <f ca="1"/>
-        <v>07/12/2023</v>
+        <v>11/12/2023</v>
       </c>
       <c r="B103" s="3">
         <f ca="1"/>
-        <v>708</v>
+        <v>1005</v>
       </c>
       <c r="C103" s="3">
         <f ca="1"/>
-        <v>-364</v>
+        <v>-332</v>
       </c>
       <c r="E103" s="10" t="str">
         <f ca="1"/>
-        <v>07/12/2023</v>
+        <v>11/12/2023</v>
       </c>
       <c r="F103" s="3">
         <f ca="1"/>
-        <v>1707</v>
+        <v>1990</v>
       </c>
       <c r="G103" s="9">
         <f ca="1"/>
-        <v>-1.9300000000000001E-2</v>
+        <v>-1.6400000000000001E-2</v>
       </c>
       <c r="I103" t="str">
         <f ca="1"/>
-        <v>07/12/2023</v>
+        <v>11/12/2023</v>
       </c>
       <c r="J103" s="11">
         <f ca="1"/>
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="K103" s="11">
         <f ca="1"/>
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="L103" s="11">
         <f ca="1"/>
@@ -5200,49 +5206,49 @@
       </c>
       <c r="M103" s="11">
         <f ca="1"/>
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="N103" s="11" t="str">
         <f ca="1"/>
-        <v>07/12/2023</v>
+        <v>11/12/2023</v>
       </c>
       <c r="O103" s="11">
         <f ca="1"/>
-        <v>877</v>
+        <v>438</v>
       </c>
       <c r="P103" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="Q103" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="R103">
         <f ca="1"/>
-        <v>1707</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" t="str">
         <f ca="1"/>
-        <v>06/12/2023</v>
+        <v>08/12/2023</v>
       </c>
       <c r="B104" s="3">
         <f ca="1"/>
-        <v>737</v>
+        <v>1011</v>
       </c>
       <c r="C104" s="3">
         <f ca="1"/>
-        <v>-273</v>
+        <v>-226</v>
       </c>
       <c r="E104" s="10" t="str">
         <f ca="1"/>
-        <v>06/12/2023</v>
+        <v>08/12/2023</v>
       </c>
       <c r="F104" s="3">
         <f ca="1"/>
-        <v>1626</v>
+        <v>1861</v>
       </c>
       <c r="G104" s="9">
         <f ca="1"/>
@@ -5250,81 +5256,81 @@
       </c>
       <c r="I104" t="str">
         <f ca="1"/>
-        <v>06/12/2023</v>
+        <v>08/12/2023</v>
       </c>
       <c r="J104" s="11">
         <f ca="1"/>
-        <v>60</v>
+        <v>358</v>
       </c>
       <c r="K104" s="11">
         <f ca="1"/>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L104" s="11">
         <f ca="1"/>
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="M104" s="11">
         <f ca="1"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N104" s="11" t="str">
         <f ca="1"/>
-        <v>06/12/2023</v>
+        <v>08/12/2023</v>
       </c>
       <c r="O104" s="11">
         <f ca="1"/>
-        <v>336</v>
+        <v>916</v>
       </c>
       <c r="P104" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>118</v>
+        <v>413</v>
       </c>
       <c r="Q104" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>248</v>
       </c>
       <c r="R104">
         <f ca="1"/>
-        <v>1626</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" t="str">
         <f ca="1"/>
-        <v>05/12/2023</v>
+        <v>07/12/2023</v>
       </c>
       <c r="B105" s="3">
         <f ca="1"/>
-        <v>735</v>
+        <v>708</v>
       </c>
       <c r="C105" s="3">
         <f ca="1"/>
-        <v>-217</v>
+        <v>-364</v>
       </c>
       <c r="E105" s="10" t="str">
         <f ca="1"/>
-        <v>05/12/2023</v>
+        <v>07/12/2023</v>
       </c>
       <c r="F105" s="3">
         <f ca="1"/>
-        <v>1514</v>
+        <v>1707</v>
       </c>
       <c r="G105" s="9">
         <f ca="1"/>
-        <v>-3.1200000000000006E-2</v>
+        <v>-1.9300000000000001E-2</v>
       </c>
       <c r="I105" t="str">
         <f ca="1"/>
-        <v>05/12/2023</v>
+        <v>07/12/2023</v>
       </c>
       <c r="J105" s="11">
         <f ca="1"/>
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="K105" s="11">
         <f ca="1"/>
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="L105" s="11">
         <f ca="1"/>
@@ -5332,65 +5338,65 @@
       </c>
       <c r="M105" s="11">
         <f ca="1"/>
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="N105" s="11" t="str">
         <f ca="1"/>
-        <v>05/12/2023</v>
+        <v>07/12/2023</v>
       </c>
       <c r="O105" s="11">
         <f ca="1"/>
-        <v>365</v>
+        <v>877</v>
       </c>
       <c r="P105" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="Q105" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="R105">
         <f ca="1"/>
-        <v>1514</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" t="str">
         <f ca="1"/>
-        <v>04/12/2023</v>
+        <v>06/12/2023</v>
       </c>
       <c r="B106" s="3">
         <f ca="1"/>
-        <v>677</v>
+        <v>737</v>
       </c>
       <c r="C106" s="3">
         <f ca="1"/>
-        <v>-185</v>
+        <v>-273</v>
       </c>
       <c r="E106" s="10" t="str">
         <f ca="1"/>
-        <v>04/12/2023</v>
+        <v>06/12/2023</v>
       </c>
       <c r="F106" s="3">
         <f ca="1"/>
-        <v>1291</v>
+        <v>1626</v>
       </c>
       <c r="G106" s="9">
         <f ca="1"/>
-        <v>-2.4100000000000007E-2</v>
+        <v>-2.0200000000000003E-2</v>
       </c>
       <c r="I106" t="str">
         <f ca="1"/>
-        <v>04/12/2023</v>
+        <v>06/12/2023</v>
       </c>
       <c r="J106" s="11">
         <f ca="1"/>
-        <v>222</v>
+        <v>60</v>
       </c>
       <c r="K106" s="11">
         <f ca="1"/>
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="L106" s="11">
         <f ca="1"/>
@@ -5398,65 +5404,65 @@
       </c>
       <c r="M106" s="11">
         <f ca="1"/>
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="N106" s="11" t="str">
         <f ca="1"/>
-        <v>04/12/2023</v>
+        <v>06/12/2023</v>
       </c>
       <c r="O106" s="11">
         <f ca="1"/>
-        <v>850</v>
+        <v>336</v>
       </c>
       <c r="P106" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>301</v>
+        <v>118</v>
       </c>
       <c r="Q106" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="R106">
         <f ca="1"/>
-        <v>1291</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" t="str">
         <f ca="1"/>
-        <v>01/12/2023</v>
+        <v>05/12/2023</v>
       </c>
       <c r="B107" s="3">
         <f ca="1"/>
-        <v>534</v>
+        <v>735</v>
       </c>
       <c r="C107" s="3">
         <f ca="1"/>
-        <v>-108</v>
+        <v>-217</v>
       </c>
       <c r="E107" s="10" t="str">
         <f ca="1"/>
-        <v>01/12/2023</v>
+        <v>05/12/2023</v>
       </c>
       <c r="F107" s="3">
         <f ca="1"/>
-        <v>1255</v>
+        <v>1514</v>
       </c>
       <c r="G107" s="9">
         <f ca="1"/>
-        <v>-4.1900000000000007E-2</v>
+        <v>-3.1200000000000006E-2</v>
       </c>
       <c r="I107" t="str">
         <f ca="1"/>
-        <v>01/12/2023</v>
+        <v>05/12/2023</v>
       </c>
       <c r="J107" s="11">
         <f ca="1"/>
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="K107" s="11">
         <f ca="1"/>
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="L107" s="11">
         <f ca="1"/>
@@ -5464,65 +5470,65 @@
       </c>
       <c r="M107" s="11">
         <f ca="1"/>
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="N107" s="11" t="str">
         <f ca="1"/>
-        <v>01/12/2023</v>
+        <v>05/12/2023</v>
       </c>
       <c r="O107" s="11">
         <f ca="1"/>
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="P107" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="Q107" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="R107">
         <f ca="1"/>
-        <v>1255</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" t="str">
         <f ca="1"/>
-        <v>30/11/2023</v>
+        <v>04/12/2023</v>
       </c>
       <c r="B108" s="3">
         <f ca="1"/>
-        <v>499</v>
+        <v>677</v>
       </c>
       <c r="C108" s="3">
         <f ca="1"/>
-        <v>-103</v>
+        <v>-185</v>
       </c>
       <c r="E108" s="10" t="str">
         <f ca="1"/>
-        <v>30/11/2023</v>
+        <v>04/12/2023</v>
       </c>
       <c r="F108" s="3">
         <f ca="1"/>
-        <v>1212</v>
+        <v>1291</v>
       </c>
       <c r="G108" s="9">
         <f ca="1"/>
-        <v>-4.9600000000000005E-2</v>
+        <v>-2.4100000000000007E-2</v>
       </c>
       <c r="I108" t="str">
         <f ca="1"/>
-        <v>30/11/2023</v>
+        <v>04/12/2023</v>
       </c>
       <c r="J108" s="11">
         <f ca="1"/>
-        <v>16</v>
+        <v>222</v>
       </c>
       <c r="K108" s="11">
         <f ca="1"/>
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="L108" s="11">
         <f ca="1"/>
@@ -5530,131 +5536,131 @@
       </c>
       <c r="M108" s="11">
         <f ca="1"/>
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="N108" s="11" t="str">
         <f ca="1"/>
-        <v>30/11/2023</v>
+        <v>04/12/2023</v>
       </c>
       <c r="O108" s="11">
         <f ca="1"/>
-        <v>482</v>
+        <v>850</v>
       </c>
       <c r="P108" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>301</v>
       </c>
       <c r="Q108" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="R108">
         <f ca="1"/>
-        <v>1212</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" t="str">
         <f ca="1"/>
-        <v>29/11/2023</v>
+        <v>01/12/2023</v>
       </c>
       <c r="B109" s="3">
         <f ca="1"/>
-        <v>502</v>
+        <v>534</v>
       </c>
       <c r="C109" s="3">
         <f ca="1"/>
-        <v>-86</v>
+        <v>-108</v>
       </c>
       <c r="E109" s="10" t="str">
         <f ca="1"/>
-        <v>29/11/2023</v>
+        <v>01/12/2023</v>
       </c>
       <c r="F109" s="3">
         <f ca="1"/>
-        <v>1167</v>
+        <v>1255</v>
       </c>
       <c r="G109" s="9">
         <f ca="1"/>
-        <v>-3.7700000000000004E-2</v>
+        <v>-4.1900000000000007E-2</v>
       </c>
       <c r="I109" t="str">
         <f ca="1"/>
-        <v>29/11/2023</v>
+        <v>01/12/2023</v>
       </c>
       <c r="J109" s="11">
         <f ca="1"/>
-        <v>237</v>
+        <v>40</v>
       </c>
       <c r="K109" s="11">
         <f ca="1"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L109" s="11">
         <f ca="1"/>
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="M109" s="11">
         <f ca="1"/>
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="N109" s="11" t="str">
         <f ca="1"/>
-        <v>29/11/2023</v>
+        <v>01/12/2023</v>
       </c>
       <c r="O109" s="11">
         <f ca="1"/>
-        <v>489</v>
+        <v>394</v>
       </c>
       <c r="P109" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="Q109" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="R109">
         <f ca="1"/>
-        <v>1167</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" t="str">
         <f ca="1"/>
-        <v>28/11/2023</v>
+        <v>30/11/2023</v>
       </c>
       <c r="B110" s="3">
         <f ca="1"/>
-        <v>275</v>
+        <v>499</v>
       </c>
       <c r="C110" s="3">
         <f ca="1"/>
-        <v>-126</v>
+        <v>-103</v>
       </c>
       <c r="E110" s="10" t="str">
         <f ca="1"/>
-        <v>28/11/2023</v>
+        <v>30/11/2023</v>
       </c>
       <c r="F110" s="3">
         <f ca="1"/>
-        <v>937</v>
+        <v>1212</v>
       </c>
       <c r="G110" s="9">
         <f ca="1"/>
-        <v>-4.4200000000000003E-2</v>
+        <v>-4.9600000000000005E-2</v>
       </c>
       <c r="I110" t="str">
         <f ca="1"/>
-        <v>28/11/2023</v>
+        <v>30/11/2023</v>
       </c>
       <c r="J110" s="11">
         <f ca="1"/>
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="K110" s="11">
         <f ca="1"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L110" s="11">
         <f ca="1"/>
@@ -5662,127 +5668,127 @@
       </c>
       <c r="M110" s="11">
         <f ca="1"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N110" s="11" t="str">
         <f ca="1"/>
-        <v>28/11/2023</v>
+        <v>30/11/2023</v>
       </c>
       <c r="O110" s="11">
         <f ca="1"/>
-        <v>723</v>
+        <v>482</v>
       </c>
       <c r="P110" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="Q110" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="R110">
         <f ca="1"/>
-        <v>937</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" t="str">
         <f ca="1"/>
-        <v>27/11/2023</v>
+        <v>29/11/2023</v>
       </c>
       <c r="B111" s="3">
         <f ca="1"/>
-        <v>241</v>
+        <v>502</v>
       </c>
       <c r="C111" s="3">
         <f ca="1"/>
-        <v>-115</v>
+        <v>-86</v>
       </c>
       <c r="E111" s="10" t="str">
         <f ca="1"/>
-        <v>27/11/2023</v>
+        <v>29/11/2023</v>
       </c>
       <c r="F111" s="3">
         <f ca="1"/>
-        <v>850</v>
+        <v>1167</v>
       </c>
       <c r="G111" s="9">
         <f ca="1"/>
-        <v>-5.28E-2</v>
+        <v>-3.7700000000000004E-2</v>
       </c>
       <c r="I111" t="str">
         <f ca="1"/>
-        <v>27/11/2023</v>
+        <v>29/11/2023</v>
       </c>
       <c r="J111" s="11">
         <f ca="1"/>
-        <v>147</v>
+        <v>237</v>
       </c>
       <c r="K111" s="11">
         <f ca="1"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L111" s="11">
         <f ca="1"/>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="M111" s="11">
         <f ca="1"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="N111" s="11" t="str">
         <f ca="1"/>
-        <v>27/11/2023</v>
+        <v>29/11/2023</v>
       </c>
       <c r="O111" s="11">
         <f ca="1"/>
-        <v>344</v>
+        <v>489</v>
       </c>
       <c r="P111" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>149</v>
+        <v>247</v>
       </c>
       <c r="Q111" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="R111">
         <f ca="1"/>
-        <v>850</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" t="str">
         <f ca="1"/>
-        <v>24/11/2023</v>
+        <v>28/11/2023</v>
       </c>
       <c r="B112" s="3">
         <f ca="1"/>
-        <v>96</v>
+        <v>275</v>
       </c>
       <c r="C112" s="3">
         <f ca="1"/>
-        <v>-113</v>
+        <v>-126</v>
       </c>
       <c r="E112" s="10" t="str">
         <f ca="1"/>
-        <v>24/11/2023</v>
+        <v>28/11/2023</v>
       </c>
       <c r="F112" s="3">
         <f ca="1"/>
-        <v>501</v>
+        <v>937</v>
       </c>
       <c r="G112" s="9">
         <f ca="1"/>
-        <v>-4.7199999999999999E-2</v>
+        <v>-4.4200000000000003E-2</v>
       </c>
       <c r="I112" t="str">
         <f ca="1"/>
-        <v>24/11/2023</v>
+        <v>28/11/2023</v>
       </c>
       <c r="J112" s="11">
         <f ca="1"/>
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="K112" s="11">
         <f ca="1"/>
@@ -5798,15 +5804,15 @@
       </c>
       <c r="N112" s="11" t="str">
         <f ca="1"/>
-        <v>24/11/2023</v>
+        <v>28/11/2023</v>
       </c>
       <c r="O112" s="11">
         <f ca="1"/>
-        <v>972</v>
+        <v>723</v>
       </c>
       <c r="P112" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="Q112" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -5814,45 +5820,45 @@
       </c>
       <c r="R112">
         <f ca="1"/>
-        <v>501</v>
+        <v>937</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" t="str">
         <f ca="1"/>
-        <v>23/11/2023</v>
+        <v>27/11/2023</v>
       </c>
       <c r="B113" s="3">
         <f ca="1"/>
-        <v>-15</v>
+        <v>241</v>
       </c>
       <c r="C113" s="3">
         <f ca="1"/>
-        <v>-102</v>
+        <v>-115</v>
       </c>
       <c r="E113" s="10" t="str">
         <f ca="1"/>
-        <v>23/11/2023</v>
+        <v>27/11/2023</v>
       </c>
       <c r="F113" s="3">
         <f ca="1"/>
-        <v>479</v>
+        <v>850</v>
       </c>
       <c r="G113" s="9">
         <f ca="1"/>
-        <v>-4.82E-2</v>
+        <v>-5.28E-2</v>
       </c>
       <c r="I113" t="str">
         <f ca="1"/>
-        <v>23/11/2023</v>
+        <v>27/11/2023</v>
       </c>
       <c r="J113" s="11">
         <f ca="1"/>
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="K113" s="11">
         <f ca="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L113" s="11">
         <f ca="1"/>
@@ -5860,65 +5866,65 @@
       </c>
       <c r="M113" s="11">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N113" s="11" t="str">
         <f ca="1"/>
-        <v>23/11/2023</v>
+        <v>27/11/2023</v>
       </c>
       <c r="O113" s="11">
         <f ca="1"/>
-        <v>417</v>
+        <v>344</v>
       </c>
       <c r="P113" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="Q113" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R113">
         <f ca="1"/>
-        <v>479</v>
+        <v>850</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" t="str">
         <f ca="1"/>
-        <v>22/11/2023</v>
+        <v>24/11/2023</v>
       </c>
       <c r="B114" s="3">
         <f ca="1"/>
-        <v>-83</v>
+        <v>96</v>
       </c>
       <c r="C114" s="3">
         <f ca="1"/>
-        <v>-101</v>
+        <v>-113</v>
       </c>
       <c r="E114" s="10" t="str">
         <f ca="1"/>
-        <v>22/11/2023</v>
+        <v>24/11/2023</v>
       </c>
       <c r="F114" s="3">
         <f ca="1"/>
-        <v>282</v>
+        <v>501</v>
       </c>
       <c r="G114" s="9">
         <f ca="1"/>
-        <v>-2.1299999999999999E-2</v>
+        <v>-4.7199999999999999E-2</v>
       </c>
       <c r="I114" t="str">
         <f ca="1"/>
-        <v>22/11/2023</v>
+        <v>24/11/2023</v>
       </c>
       <c r="J114" s="11">
         <f ca="1"/>
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="K114" s="11">
         <f ca="1"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L114" s="11">
         <f ca="1"/>
@@ -5926,65 +5932,65 @@
       </c>
       <c r="M114" s="11">
         <f ca="1"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N114" s="11" t="str">
         <f ca="1"/>
-        <v>22/11/2023</v>
+        <v>24/11/2023</v>
       </c>
       <c r="O114" s="11">
         <f ca="1"/>
-        <v>513</v>
+        <v>972</v>
       </c>
       <c r="P114" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="Q114" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R114">
         <f ca="1"/>
-        <v>282</v>
+        <v>501</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" t="str">
         <f ca="1"/>
-        <v>21/11/2023</v>
+        <v>23/11/2023</v>
       </c>
       <c r="B115" s="3">
         <f ca="1"/>
-        <v>-92</v>
+        <v>-15</v>
       </c>
       <c r="C115" s="3">
         <f ca="1"/>
-        <v>-100</v>
+        <v>-102</v>
       </c>
       <c r="E115" s="10" t="str">
         <f ca="1"/>
-        <v>21/11/2023</v>
+        <v>23/11/2023</v>
       </c>
       <c r="F115" s="3">
         <f ca="1"/>
-        <v>206</v>
+        <v>479</v>
       </c>
       <c r="G115" s="9">
         <f ca="1"/>
-        <v>-2.2800000000000001E-2</v>
+        <v>-4.82E-2</v>
       </c>
       <c r="I115" t="str">
         <f ca="1"/>
-        <v>21/11/2023</v>
+        <v>23/11/2023</v>
       </c>
       <c r="J115" s="11">
         <f ca="1"/>
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="K115" s="11">
         <f ca="1"/>
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="L115" s="11">
         <f ca="1"/>
@@ -5992,65 +5998,65 @@
       </c>
       <c r="M115" s="11">
         <f ca="1"/>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N115" s="11" t="str">
         <f ca="1"/>
-        <v>21/11/2023</v>
+        <v>23/11/2023</v>
       </c>
       <c r="O115" s="11">
         <f ca="1"/>
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="P115" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="Q115" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="R115">
         <f ca="1"/>
-        <v>206</v>
+        <v>479</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" t="str">
         <f ca="1"/>
-        <v>20/11/2023</v>
+        <v>22/11/2023</v>
       </c>
       <c r="B116" s="3">
         <f ca="1"/>
-        <v>-86</v>
+        <v>-83</v>
       </c>
       <c r="C116" s="3">
         <f ca="1"/>
-        <v>-80</v>
+        <v>-101</v>
       </c>
       <c r="E116" s="10" t="str">
         <f ca="1"/>
-        <v>20/11/2023</v>
+        <v>22/11/2023</v>
       </c>
       <c r="F116" s="3">
         <f ca="1"/>
-        <v>145</v>
+        <v>282</v>
       </c>
       <c r="G116" s="9">
         <f ca="1"/>
-        <v>-2.6800000000000001E-2</v>
+        <v>-2.1299999999999999E-2</v>
       </c>
       <c r="I116" t="str">
         <f ca="1"/>
-        <v>20/11/2023</v>
+        <v>22/11/2023</v>
       </c>
       <c r="J116" s="11">
         <f ca="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K116" s="11">
         <f ca="1"/>
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="L116" s="11">
         <f ca="1"/>
@@ -6058,65 +6064,65 @@
       </c>
       <c r="M116" s="11">
         <f ca="1"/>
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="N116" s="11" t="str">
         <f ca="1"/>
-        <v>20/11/2023</v>
+        <v>22/11/2023</v>
       </c>
       <c r="O116" s="11">
         <f ca="1"/>
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="P116" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="Q116" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R116">
         <f ca="1"/>
-        <v>145</v>
+        <v>282</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" t="str">
         <f ca="1"/>
-        <v>17/11/2023</v>
+        <v>21/11/2023</v>
       </c>
       <c r="B117" s="3">
         <f ca="1"/>
-        <v>-32</v>
+        <v>-92</v>
       </c>
       <c r="C117" s="3">
         <f ca="1"/>
-        <v>-30</v>
+        <v>-100</v>
       </c>
       <c r="E117" s="10" t="str">
         <f ca="1"/>
-        <v>17/11/2023</v>
+        <v>21/11/2023</v>
       </c>
       <c r="F117" s="3">
         <f ca="1"/>
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="G117" s="9">
         <f ca="1"/>
-        <v>-2.5000000000000001E-2</v>
+        <v>-2.2800000000000001E-2</v>
       </c>
       <c r="I117" t="str">
         <f ca="1"/>
-        <v>17/11/2023</v>
+        <v>21/11/2023</v>
       </c>
       <c r="J117" s="11">
         <f ca="1"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="K117" s="11">
         <f ca="1"/>
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="L117" s="11">
         <f ca="1"/>
@@ -6124,50 +6130,50 @@
       </c>
       <c r="M117" s="11">
         <f ca="1"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N117" s="11" t="str">
         <f ca="1"/>
-        <v>17/11/2023</v>
+        <v>21/11/2023</v>
       </c>
       <c r="O117" s="11">
         <f ca="1"/>
-        <v>692</v>
+        <v>457</v>
       </c>
       <c r="P117" s="11"/>
       <c r="R117">
         <f ca="1"/>
-        <v>0</v>
+        <v>206</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <f ca="1"/>
-        <v>0</v>
+      <c r="A118" t="str">
+        <f ca="1"/>
+        <v>20/11/2023</v>
       </c>
       <c r="B118" s="3">
         <f ca="1"/>
-        <v>0</v>
+        <v>-86</v>
       </c>
       <c r="C118" s="3">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="E118" s="10">
-        <f ca="1"/>
-        <v>0</v>
+        <v>-80</v>
+      </c>
+      <c r="E118" s="10" t="str">
+        <f ca="1"/>
+        <v>20/11/2023</v>
       </c>
       <c r="F118" s="3">
         <f ca="1"/>
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="G118" s="9">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="I118">
-        <f ca="1"/>
-        <v>0</v>
+        <v>-2.6800000000000001E-2</v>
+      </c>
+      <c r="I118" t="str">
+        <f ca="1"/>
+        <v>20/11/2023</v>
       </c>
       <c r="J118" s="11">
         <f ca="1"/>
@@ -6175,7 +6181,7 @@
       </c>
       <c r="K118" s="11">
         <f ca="1"/>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="L118" s="11">
         <f ca="1"/>
@@ -6183,38 +6189,38 @@
       </c>
       <c r="M118" s="11">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="N118" s="11">
-        <f ca="1"/>
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="N118" s="11" t="str">
+        <f ca="1"/>
+        <v>20/11/2023</v>
       </c>
       <c r="O118" s="11">
         <f ca="1"/>
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="P118" s="11"/>
       <c r="R118">
         <f ca="1"/>
-        <v>0</v>
+        <v>145</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <f ca="1"/>
-        <v>0</v>
+      <c r="A119" t="str">
+        <f ca="1"/>
+        <v>17/11/2023</v>
       </c>
       <c r="B119" s="3">
         <f ca="1"/>
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="C119" s="3">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="E119" s="10">
-        <f ca="1"/>
-        <v>0</v>
+        <v>-30</v>
+      </c>
+      <c r="E119" s="10" t="str">
+        <f ca="1"/>
+        <v>17/11/2023</v>
       </c>
       <c r="F119" s="3">
         <f ca="1"/>
@@ -6222,19 +6228,19 @@
       </c>
       <c r="G119" s="9">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="I119">
-        <f ca="1"/>
-        <v>0</v>
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="I119" t="str">
+        <f ca="1"/>
+        <v>17/11/2023</v>
       </c>
       <c r="J119" s="11">
         <f ca="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K119" s="11">
         <f ca="1"/>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="L119" s="11">
         <f ca="1"/>
@@ -6242,15 +6248,15 @@
       </c>
       <c r="M119" s="11">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="N119" s="11">
-        <f ca="1"/>
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="N119" s="11" t="str">
+        <f ca="1"/>
+        <v>17/11/2023</v>
       </c>
       <c r="O119" s="11">
         <f ca="1"/>
-        <v>0</v>
+        <v>692</v>
       </c>
       <c r="P119" s="11"/>
       <c r="R119">
@@ -8216,11 +8222,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DC1C2D-D028-544D-AE96-582E75E82A33}">
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E26" sqref="E26"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8256,26 +8262,26 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="12" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -8350,1062 +8356,1058 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B5" s="3">
-        <v>3351</v>
+        <v>1634</v>
       </c>
       <c r="C5" s="3">
-        <v>2557</v>
+        <v>2644</v>
       </c>
       <c r="D5" s="3">
-        <v>794</v>
+        <v>-1010</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" ref="E5:E29" si="0">D5+E6</f>
-        <v>28825</v>
+        <f t="shared" ref="E5:E31" si="0">D5+E6</f>
+        <v>28202</v>
       </c>
       <c r="F5" s="3">
-        <v>371048360000</v>
+        <v>183500040000</v>
       </c>
       <c r="G5" s="3">
-        <v>284754290000</v>
+        <v>296516870000</v>
       </c>
       <c r="H5" s="3">
-        <v>86294070000</v>
+        <v>-113016830000</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" ref="I5:I29" si="1">H5+I6</f>
-        <v>3150369340000</v>
+        <f t="shared" ref="I5:I31" si="1">H5+I6</f>
+        <v>3080565130000</v>
       </c>
       <c r="J5" s="3">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="K5" s="3">
-        <v>4213</v>
+        <v>2803</v>
       </c>
       <c r="L5" s="3">
-        <v>-3992</v>
+        <v>-2588</v>
       </c>
       <c r="M5" s="3">
-        <f t="shared" ref="M5:M29" si="2">L5+M6</f>
-        <v>-12226</v>
+        <f t="shared" ref="M5:M31" si="2">L5+M6</f>
+        <v>-14309</v>
       </c>
       <c r="N5" s="3">
-        <v>24599900000</v>
+        <v>24109500000</v>
       </c>
       <c r="O5" s="3">
-        <v>468473460000</v>
+        <v>314885390000</v>
       </c>
       <c r="P5" s="3">
-        <v>-443873560000</v>
+        <v>-290775890000</v>
       </c>
       <c r="Q5" s="3">
-        <f t="shared" ref="Q5:Q29" si="3">P5+Q6</f>
-        <v>-1343039200000</v>
+        <f t="shared" ref="Q5:Q31" si="3">P5+Q6</f>
+        <v>-1577924720000</v>
       </c>
       <c r="R5" s="3">
-        <v>57560</v>
+        <v>57545</v>
       </c>
       <c r="S5" s="3">
-        <v>179539</v>
+        <v>135934</v>
       </c>
       <c r="T5" s="7">
-        <v>3.2906499423523583E-2</v>
+        <v>3.1471155119396174E-2</v>
       </c>
       <c r="U5" s="7">
-        <v>2.4696584029096743E-2</v>
+        <v>2.2201950946782997E-2</v>
       </c>
       <c r="V5" s="7">
-        <v>1.5800000000000002E-2</v>
-      </c>
-      <c r="W5" s="7">
-        <f t="shared" ref="W5:W29" si="4">V5+W6</f>
-        <v>-1.54E-2</v>
+        <v>-4.0999999999999995E-3</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B6" s="3">
-        <v>5468</v>
+        <v>2259</v>
       </c>
       <c r="C6" s="3">
-        <v>2941</v>
+        <v>1872</v>
       </c>
       <c r="D6" s="3">
-        <v>2527</v>
+        <v>387</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="0"/>
-        <v>28031</v>
+        <v>29212</v>
       </c>
       <c r="F6" s="3">
-        <v>599486290000</v>
+        <v>252057940000</v>
       </c>
       <c r="G6" s="3">
-        <v>322553750000</v>
+        <v>208845320000</v>
       </c>
       <c r="H6" s="3">
-        <v>276932540000</v>
+        <v>43212620000</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="1"/>
-        <v>3064075270000</v>
+        <v>3193581960000</v>
       </c>
       <c r="J6" s="3">
-        <v>4991</v>
+        <v>3223</v>
       </c>
       <c r="K6" s="3">
-        <v>1201</v>
+        <v>2718</v>
       </c>
       <c r="L6" s="3">
-        <v>3790</v>
+        <v>505</v>
       </c>
       <c r="M6" s="3">
         <f t="shared" si="2"/>
-        <v>-8234</v>
+        <v>-11721</v>
       </c>
       <c r="N6" s="3">
-        <v>547083740000</v>
+        <v>359600560000</v>
       </c>
       <c r="O6" s="3">
-        <v>131791340000</v>
+        <v>303710190000</v>
       </c>
       <c r="P6" s="3">
-        <v>415292400000</v>
+        <v>55890370000</v>
       </c>
       <c r="Q6" s="3">
         <f t="shared" si="3"/>
+        <v>-1287148830000</v>
+      </c>
+      <c r="R6" s="3">
+        <v>58086</v>
+      </c>
+      <c r="S6" s="3">
+        <v>132261</v>
+      </c>
+      <c r="T6" s="7">
+        <v>3.1233697008188354E-2</v>
+      </c>
+      <c r="U6" s="7">
+        <v>4.4918759120224402E-2</v>
+      </c>
+      <c r="V6" s="7">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="W6" s="7">
+        <f t="shared" ref="W6:W31" si="4">V6+W7</f>
+        <v>-9.6000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3351</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2557</v>
+      </c>
+      <c r="D7" s="3">
+        <v>794</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>28825</v>
+      </c>
+      <c r="F7" s="3">
+        <v>371048360000</v>
+      </c>
+      <c r="G7" s="3">
+        <v>284754290000</v>
+      </c>
+      <c r="H7" s="3">
+        <v>86294070000</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="1"/>
+        <v>3150369340000</v>
+      </c>
+      <c r="J7" s="3">
+        <v>221</v>
+      </c>
+      <c r="K7" s="3">
+        <v>4213</v>
+      </c>
+      <c r="L7" s="3">
+        <v>-3992</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" si="2"/>
+        <v>-12226</v>
+      </c>
+      <c r="N7" s="3">
+        <v>24599900000</v>
+      </c>
+      <c r="O7" s="3">
+        <v>468473460000</v>
+      </c>
+      <c r="P7" s="3">
+        <v>-443873560000</v>
+      </c>
+      <c r="Q7" s="3">
+        <f t="shared" si="3"/>
+        <v>-1343039200000</v>
+      </c>
+      <c r="R7" s="3">
+        <v>57560</v>
+      </c>
+      <c r="S7" s="3">
+        <v>179539</v>
+      </c>
+      <c r="T7" s="7">
+        <v>3.2906499423523583E-2</v>
+      </c>
+      <c r="U7" s="7">
+        <v>2.4696584029096743E-2</v>
+      </c>
+      <c r="V7" s="7">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="W7" s="7">
+        <f t="shared" si="4"/>
+        <v>-1.54E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5468</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2941</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2527</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>28031</v>
+      </c>
+      <c r="F8" s="3">
+        <v>599486290000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>322553750000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>276932540000</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="1"/>
+        <v>3064075270000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4991</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1201</v>
+      </c>
+      <c r="L8" s="3">
+        <v>3790</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" si="2"/>
+        <v>-8234</v>
+      </c>
+      <c r="N8" s="3">
+        <v>547083740000</v>
+      </c>
+      <c r="O8" s="3">
+        <v>131791340000</v>
+      </c>
+      <c r="P8" s="3">
+        <v>415292400000</v>
+      </c>
+      <c r="Q8" s="3">
+        <f t="shared" si="3"/>
         <v>-899165640000</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R8" s="3">
         <v>49231</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S8" s="3">
         <v>170434</v>
       </c>
-      <c r="T6" s="7">
+      <c r="T8" s="7">
         <v>4.9338746963634016E-2</v>
       </c>
-      <c r="U6" s="7">
+      <c r="U8" s="7">
         <v>3.6330779069903896E-2</v>
       </c>
-      <c r="V6" s="7">
+      <c r="V8" s="7">
         <v>-5.9999999999999995E-4</v>
       </c>
-      <c r="W6" s="7">
+      <c r="W8" s="7">
         <f t="shared" si="4"/>
         <v>-3.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B9" s="3">
         <v>8105</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C9" s="3">
         <v>3095</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D9" s="3">
         <v>5010</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E9" s="3">
         <f t="shared" si="0"/>
         <v>25504</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F9" s="3">
         <v>887785460000</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G9" s="3">
         <v>339308700000</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H9" s="3">
         <v>548476760000</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I9" s="3">
         <f t="shared" si="1"/>
         <v>2787142730000</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J9" s="3">
         <v>1112</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K9" s="3">
         <v>3986</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L9" s="3">
         <v>-2874</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M9" s="3">
         <f t="shared" si="2"/>
         <v>-12024</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N9" s="3">
         <v>121825220000</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O9" s="3">
         <v>436966820000</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P9" s="3">
         <v>-315141600000</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q9" s="3">
         <f t="shared" si="3"/>
         <v>-1314458040000</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R9" s="3">
         <v>34535</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S9" s="3">
         <v>42157</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T9" s="7">
         <v>0.26567355362098821</v>
       </c>
-      <c r="U7" s="7">
+      <c r="U9" s="7">
         <v>0.12092890860355339</v>
       </c>
-      <c r="V7" s="7">
+      <c r="V9" s="7">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="W7" s="7">
+      <c r="W9" s="7">
         <f t="shared" si="4"/>
         <v>-3.0600000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B10" s="3">
         <v>11754</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C10" s="3">
         <v>1316</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D10" s="3">
         <v>10438</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E10" s="3">
         <f t="shared" si="0"/>
         <v>20494</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F10" s="3">
         <v>1285944240000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G10" s="3">
         <v>143929260000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H10" s="3">
         <v>1142014980000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I10" s="3">
         <f t="shared" si="1"/>
         <v>2238665970000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J10" s="3">
         <v>195</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K10" s="3">
         <v>5567</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L10" s="3">
         <v>-5372</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M10" s="3">
         <f t="shared" si="2"/>
         <v>-9150</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N10" s="3">
         <v>21386240000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O10" s="3">
         <v>609219120000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P10" s="3">
         <v>-587832880000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q10" s="3">
         <f t="shared" si="3"/>
         <v>-999316440000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R10" s="3">
         <v>19399</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S10" s="3">
         <v>24951</v>
       </c>
-      <c r="T8" s="7">
+      <c r="T10" s="7">
         <v>0.523826700332652</v>
       </c>
-      <c r="U8" s="7">
+      <c r="U10" s="7">
         <v>0.23093262795078354</v>
       </c>
-      <c r="V8" s="7">
+      <c r="V10" s="7">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="W8" s="7">
+      <c r="W10" s="7">
         <f t="shared" si="4"/>
         <v>-3.1100000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B11" s="3">
         <v>6086</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C11" s="3">
         <v>1479</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D11" s="3">
         <v>4607</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E11" s="3">
         <f t="shared" si="0"/>
         <v>10056</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F11" s="3">
         <v>658941430000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G11" s="3">
         <v>159982430000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H11" s="3">
         <v>498959000000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I11" s="3">
         <f t="shared" si="1"/>
         <v>1096650990000</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
         <v>1724</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L11" s="3">
         <v>-1724</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M11" s="3">
         <f t="shared" si="2"/>
         <v>-3778</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
         <v>186507170000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P11" s="3">
         <v>-186507170000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q11" s="3">
         <f t="shared" si="3"/>
         <v>-411483560000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R11" s="3">
         <v>10671</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S11" s="3">
         <v>14830</v>
       </c>
-      <c r="T9" s="7">
+      <c r="T11" s="7">
         <v>0.51011463250168576</v>
       </c>
-      <c r="U9" s="7">
+      <c r="U11" s="7">
         <v>0.1162508428860418</v>
       </c>
-      <c r="V9" s="7">
+      <c r="V11" s="7">
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="W9" s="7">
+      <c r="W11" s="7">
         <f t="shared" si="4"/>
         <v>-3.8300000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B12" s="3">
         <v>4233</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C12" s="3">
         <v>880</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D12" s="3">
         <v>3353</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E12" s="3">
         <f t="shared" si="0"/>
         <v>5449</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F12" s="3">
         <v>461832960000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G12" s="3">
         <v>95970070000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H12" s="3">
         <v>365862890000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I12" s="3">
         <f t="shared" si="1"/>
         <v>597691990000</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
         <v>822</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L12" s="3">
         <v>-822</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M12" s="3">
         <f t="shared" si="2"/>
         <v>-2054</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
         <v>89695100000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P12" s="3">
         <v>-89695100000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q12" s="3">
         <f t="shared" si="3"/>
         <v>-224976390000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R12" s="3">
         <v>5252</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S12" s="3">
         <v>8616</v>
       </c>
-      <c r="T10" s="7">
+      <c r="T12" s="7">
         <v>0.59343082636954503</v>
       </c>
-      <c r="U10" s="7">
+      <c r="U12" s="7">
         <v>9.5403899721448471E-2</v>
       </c>
-      <c r="V10" s="7">
+      <c r="V12" s="7">
         <v>-1.1599999999999999E-2</v>
       </c>
-      <c r="W10" s="7">
+      <c r="W12" s="7">
         <f t="shared" si="4"/>
         <v>-4.53E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B13" s="3">
         <v>422</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C13" s="3">
         <v>343</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D13" s="3">
         <v>79</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E13" s="3">
         <f t="shared" si="0"/>
         <v>2096</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F13" s="3">
         <v>46586980000</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G13" s="3">
         <v>37835800000</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H13" s="3">
         <v>8751180000</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I13" s="3">
         <f t="shared" si="1"/>
         <v>231829100000</v>
       </c>
-      <c r="J11" s="3">
-        <v>0</v>
-      </c>
-      <c r="K11" s="3">
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
         <v>481</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L13" s="3">
         <v>-481</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M13" s="3">
         <f t="shared" si="2"/>
         <v>-1232</v>
       </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
         <v>53080940000</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P13" s="3">
         <v>-53080940000</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q13" s="3">
         <f t="shared" si="3"/>
         <v>-135281290000</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R13" s="3">
         <v>4177</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S13" s="3">
         <v>2262</v>
       </c>
-      <c r="T11" s="7">
+      <c r="T13" s="7">
         <v>0.33819628647214856</v>
       </c>
-      <c r="U11" s="7">
+      <c r="U13" s="7">
         <v>0.21264367816091953</v>
       </c>
-      <c r="V11" s="7">
+      <c r="V13" s="7">
         <v>-8.6E-3</v>
       </c>
-      <c r="W11" s="7">
+      <c r="W13" s="7">
         <f t="shared" si="4"/>
         <v>-3.3700000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B14" s="3">
         <v>495</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C14" s="3">
         <v>141</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D14" s="3">
         <v>354</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E14" s="3">
         <f t="shared" si="0"/>
         <v>2017</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F14" s="3">
         <v>54931980000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G14" s="3">
         <v>15616830000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H14" s="3">
         <v>39315150000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I14" s="3">
         <f t="shared" si="1"/>
         <v>223077920000</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>139</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L14" s="3">
         <v>-139</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M14" s="3">
         <f t="shared" si="2"/>
         <v>-751</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>15398240000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P14" s="3">
         <v>-15398240000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q14" s="3">
         <f t="shared" si="3"/>
         <v>-82200350000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R14" s="3">
         <v>3463</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S14" s="3">
         <v>1640</v>
       </c>
-      <c r="T12" s="7">
+      <c r="T14" s="7">
         <v>0.3878048780487805</v>
       </c>
-      <c r="U12" s="7">
+      <c r="U14" s="7">
         <v>8.4756097560975616E-2</v>
       </c>
-      <c r="V12" s="7">
+      <c r="V14" s="7">
         <v>-2.3E-3</v>
       </c>
-      <c r="W12" s="7">
+      <c r="W14" s="7">
         <f t="shared" si="4"/>
         <v>-2.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B15" s="3">
         <v>324</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C15" s="3">
         <v>96</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D15" s="3">
         <v>228</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E15" s="3">
         <f t="shared" si="0"/>
         <v>1663</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F15" s="3">
         <v>36196550000</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G15" s="3">
         <v>10668040000</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H15" s="3">
         <v>25528510000</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I15" s="3">
         <f t="shared" si="1"/>
         <v>183762770000</v>
       </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>96</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L15" s="3">
         <v>-96</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M15" s="3">
         <f t="shared" si="2"/>
         <v>-612</v>
       </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
         <v>10668510000</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P15" s="3">
         <v>-10668510000</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q15" s="3">
         <f t="shared" si="3"/>
         <v>-66802110000</v>
       </c>
-      <c r="R13" s="3">
+      <c r="R15" s="3">
         <v>3110</v>
       </c>
-      <c r="S13" s="3">
+      <c r="S15" s="3">
         <v>1197</v>
       </c>
-      <c r="T13" s="7">
+      <c r="T15" s="7">
         <v>0.35087719298245612</v>
       </c>
-      <c r="U13" s="7">
+      <c r="U15" s="7">
         <v>8.0200501253132828E-2</v>
       </c>
-      <c r="V13" s="7">
+      <c r="V15" s="7">
         <v>-9.3999999999999986E-3</v>
       </c>
-      <c r="W13" s="7">
+      <c r="W15" s="7">
         <f t="shared" si="4"/>
         <v>-2.2800000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B16" s="3">
         <v>619</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C16" s="3">
         <v>189</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D16" s="3">
         <v>430</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E16" s="3">
         <f t="shared" si="0"/>
         <v>1435</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F16" s="3">
         <v>69056310000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G16" s="3">
         <v>21079500000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H16" s="3">
         <v>47976810000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I16" s="3">
         <f t="shared" si="1"/>
         <v>158234260000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
         <v>184</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L16" s="3">
         <v>-184</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M16" s="3">
         <f t="shared" si="2"/>
         <v>-516</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
         <v>20521370000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P16" s="3">
         <v>-20521370000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q16" s="3">
         <f t="shared" si="3"/>
         <v>-56133600000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R16" s="3">
         <v>2102</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S16" s="3">
         <v>1785</v>
       </c>
-      <c r="T14" s="7">
+      <c r="T16" s="7">
         <v>0.45266106442577031</v>
       </c>
-      <c r="U14" s="7">
+      <c r="U16" s="7">
         <v>0.10308123249299719</v>
       </c>
-      <c r="V14" s="7">
+      <c r="V16" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="W14" s="7">
+      <c r="W16" s="7">
         <f t="shared" si="4"/>
         <v>-1.3400000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B17" s="3">
         <v>100</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C17" s="3">
         <v>106</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D17" s="3">
         <v>-6</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E17" s="3">
         <f t="shared" si="0"/>
         <v>1005</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F17" s="3">
         <v>11146280000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G17" s="3">
         <v>11808900000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H17" s="3">
         <v>-662620000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I17" s="3">
         <f t="shared" si="1"/>
         <v>110257450000</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>106</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L17" s="3">
         <v>-106</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M17" s="3">
         <f t="shared" si="2"/>
         <v>-332</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>11808760000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P17" s="3">
         <v>-11808760000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q17" s="3">
         <f t="shared" si="3"/>
         <v>-35612230000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R17" s="3">
         <v>1990</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S17" s="3">
         <v>438</v>
       </c>
-      <c r="T15" s="7">
+      <c r="T17" s="7">
         <v>0.47031963470319632</v>
       </c>
-      <c r="U15" s="7">
+      <c r="U17" s="7">
         <v>0.24200913242009131</v>
       </c>
-      <c r="V15" s="7">
+      <c r="V17" s="7">
         <v>3.8E-3</v>
       </c>
-      <c r="W15" s="7">
+      <c r="W17" s="7">
         <f t="shared" si="4"/>
         <v>-1.6400000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B18" s="3">
         <v>358</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C18" s="3">
         <v>55</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D18" s="3">
         <v>303</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E18" s="3">
         <f t="shared" si="0"/>
         <v>1011</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F18" s="3">
         <v>39902100000</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G18" s="3">
         <v>6118980000</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H18" s="3">
         <v>33783120000</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I18" s="3">
         <f t="shared" si="1"/>
         <v>110920070000</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J18" s="3">
         <v>193</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K18" s="3">
         <v>55</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L18" s="3">
         <v>138</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M18" s="3">
         <f t="shared" si="2"/>
         <v>-226</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N18" s="3">
         <v>21492040000</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O18" s="3">
         <v>6118680000</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P18" s="3">
         <v>15373360000</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q18" s="3">
         <f t="shared" si="3"/>
         <v>-23803470000</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R18" s="3">
         <v>1861</v>
       </c>
-      <c r="S16" s="3">
+      <c r="S18" s="3">
         <v>916</v>
       </c>
-      <c r="T16" s="7">
+      <c r="T18" s="7">
         <v>0.45087336244541487</v>
       </c>
-      <c r="U16" s="7">
+      <c r="U18" s="7">
         <v>0.27074235807860264</v>
       </c>
-      <c r="V16" s="7">
+      <c r="V18" s="7">
         <v>-8.9999999999999998E-4</v>
-      </c>
-      <c r="W16" s="7">
-        <f t="shared" si="4"/>
-        <v>-2.0200000000000003E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="3">
-        <v>63</v>
-      </c>
-      <c r="C17" s="3">
-        <v>92</v>
-      </c>
-      <c r="D17" s="3">
-        <v>-29</v>
-      </c>
-      <c r="E17" s="3">
-        <f t="shared" si="0"/>
-        <v>708</v>
-      </c>
-      <c r="F17" s="3">
-        <v>6974410000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>10139670000</v>
-      </c>
-      <c r="H17" s="3">
-        <v>-3165260000</v>
-      </c>
-      <c r="I17" s="3">
-        <f t="shared" si="1"/>
-        <v>77136950000</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>91</v>
-      </c>
-      <c r="L17" s="3">
-        <v>-91</v>
-      </c>
-      <c r="M17" s="3">
-        <f t="shared" si="2"/>
-        <v>-364</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>10027630000</v>
-      </c>
-      <c r="P17" s="3">
-        <v>-10027630000</v>
-      </c>
-      <c r="Q17" s="3">
-        <f t="shared" si="3"/>
-        <v>-39176830000</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1707</v>
-      </c>
-      <c r="S17" s="3">
-        <v>877</v>
-      </c>
-      <c r="T17" s="7">
-        <v>0.17673888255416192</v>
-      </c>
-      <c r="U17" s="7">
-        <v>0.10376282782212087</v>
-      </c>
-      <c r="V17" s="7">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="W17" s="7">
-        <f t="shared" si="4"/>
-        <v>-1.9300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="3">
-        <v>60</v>
-      </c>
-      <c r="C18" s="3">
-        <v>58</v>
-      </c>
-      <c r="D18" s="3">
-        <v>2</v>
-      </c>
-      <c r="E18" s="3">
-        <f t="shared" si="0"/>
-        <v>737</v>
-      </c>
-      <c r="F18" s="3">
-        <v>6616670000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>6397840000</v>
-      </c>
-      <c r="H18" s="3">
-        <v>218830000</v>
-      </c>
-      <c r="I18" s="3">
-        <f t="shared" si="1"/>
-        <v>80302210000</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>56</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-56</v>
-      </c>
-      <c r="M18" s="3">
-        <f t="shared" si="2"/>
-        <v>-273</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>6175690000</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-6175690000</v>
-      </c>
-      <c r="Q18" s="3">
-        <f t="shared" si="3"/>
-        <v>-29149200000</v>
-      </c>
-      <c r="R18" s="3">
-        <v>1626</v>
-      </c>
-      <c r="S18" s="3">
-        <v>336</v>
-      </c>
-      <c r="T18" s="7">
-        <v>0.35119047619047616</v>
-      </c>
-      <c r="U18" s="7">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="V18" s="7">
-        <v>1.1000000000000001E-2</v>
       </c>
       <c r="W18" s="7">
         <f t="shared" si="4"/>
@@ -9414,565 +9416,565 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B19" s="3">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C19" s="3">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="D19" s="3">
-        <v>58</v>
+        <v>-29</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="0"/>
-        <v>735</v>
+        <v>708</v>
       </c>
       <c r="F19" s="3">
-        <v>9894120000</v>
+        <v>6974410000</v>
       </c>
       <c r="G19" s="3">
-        <v>3520430000</v>
+        <v>10139670000</v>
       </c>
       <c r="H19" s="3">
-        <v>6373690000</v>
+        <v>-3165260000</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="1"/>
-        <v>80083380000</v>
+        <v>77136950000</v>
       </c>
       <c r="J19" s="3">
         <v>0</v>
       </c>
       <c r="K19" s="3">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="L19" s="3">
-        <v>-32</v>
+        <v>-91</v>
       </c>
       <c r="M19" s="3">
         <f t="shared" si="2"/>
-        <v>-217</v>
+        <v>-364</v>
       </c>
       <c r="N19" s="3">
         <v>0</v>
       </c>
       <c r="O19" s="3">
-        <v>3520560000</v>
+        <v>10027630000</v>
       </c>
       <c r="P19" s="3">
-        <v>-3520560000</v>
+        <v>-10027630000</v>
       </c>
       <c r="Q19" s="3">
         <f t="shared" si="3"/>
-        <v>-22973510000</v>
+        <v>-39176830000</v>
       </c>
       <c r="R19" s="3">
-        <v>1514</v>
+        <v>1707</v>
       </c>
       <c r="S19" s="3">
-        <v>365</v>
+        <v>877</v>
       </c>
       <c r="T19" s="7">
-        <v>0.33424657534246577</v>
+        <v>0.17673888255416192</v>
       </c>
       <c r="U19" s="7">
-        <v>8.7671232876712329E-2</v>
+        <v>0.10376282782212087</v>
       </c>
       <c r="V19" s="7">
-        <v>-7.0999999999999995E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="W19" s="7">
         <f t="shared" si="4"/>
-        <v>-3.1200000000000006E-2</v>
+        <v>-1.9300000000000001E-2</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B20" s="3">
-        <v>222</v>
+        <v>60</v>
       </c>
       <c r="C20" s="3">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="D20" s="3">
-        <v>143</v>
+        <v>2</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" si="0"/>
-        <v>677</v>
+        <v>737</v>
       </c>
       <c r="F20" s="3">
-        <v>24546690000</v>
+        <v>6616670000</v>
       </c>
       <c r="G20" s="3">
-        <v>8713920000</v>
+        <v>6397840000</v>
       </c>
       <c r="H20" s="3">
-        <v>15832770000</v>
+        <v>218830000</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="1"/>
-        <v>73709690000</v>
+        <v>80302210000</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="L20" s="3">
-        <v>-77</v>
+        <v>-56</v>
       </c>
       <c r="M20" s="3">
         <f t="shared" si="2"/>
-        <v>-185</v>
+        <v>-273</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>8492600000</v>
+        <v>6175690000</v>
       </c>
       <c r="P20" s="3">
-        <v>-8492600000</v>
+        <v>-6175690000</v>
       </c>
       <c r="Q20" s="3">
         <f t="shared" si="3"/>
-        <v>-19452950000</v>
+        <v>-29149200000</v>
       </c>
       <c r="R20" s="3">
-        <v>1291</v>
+        <v>1626</v>
       </c>
       <c r="S20" s="3">
-        <v>850</v>
+        <v>336</v>
       </c>
       <c r="T20" s="7">
-        <v>0.35411764705882354</v>
+        <v>0.35119047619047616</v>
       </c>
       <c r="U20" s="7">
-        <v>9.058823529411765E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="V20" s="7">
-        <v>1.78E-2</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="W20" s="7">
         <f t="shared" si="4"/>
-        <v>-2.4100000000000007E-2</v>
+        <v>-2.0200000000000003E-2</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B21" s="3">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C21" s="3">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D21" s="3">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" si="0"/>
-        <v>534</v>
+        <v>735</v>
       </c>
       <c r="F21" s="3">
-        <v>4332000000</v>
+        <v>9894120000</v>
       </c>
       <c r="G21" s="3">
-        <v>540450000</v>
+        <v>3520430000</v>
       </c>
       <c r="H21" s="3">
-        <v>3791550000</v>
+        <v>6373690000</v>
       </c>
       <c r="I21" s="3">
         <f t="shared" si="1"/>
-        <v>57876920000</v>
+        <v>80083380000</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="L21" s="3">
-        <v>-5</v>
+        <v>-32</v>
       </c>
       <c r="M21" s="3">
         <f t="shared" si="2"/>
-        <v>-108</v>
+        <v>-217</v>
       </c>
       <c r="N21" s="3">
         <v>0</v>
       </c>
       <c r="O21" s="3">
-        <v>540450000</v>
+        <v>3520560000</v>
       </c>
       <c r="P21" s="3">
-        <v>-540450000</v>
+        <v>-3520560000</v>
       </c>
       <c r="Q21" s="3">
         <f t="shared" si="3"/>
-        <v>-10960350000</v>
+        <v>-22973510000</v>
       </c>
       <c r="R21" s="3">
-        <v>1255</v>
+        <v>1514</v>
       </c>
       <c r="S21" s="3">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="T21" s="7">
-        <v>0.11421319796954314</v>
+        <v>0.33424657534246577</v>
       </c>
       <c r="U21" s="7">
-        <v>1.2690355329949238E-2</v>
+        <v>8.7671232876712329E-2</v>
       </c>
       <c r="V21" s="7">
-        <v>7.7000000000000002E-3</v>
+        <v>-7.0999999999999995E-3</v>
       </c>
       <c r="W21" s="7">
         <f t="shared" si="4"/>
-        <v>-4.1900000000000007E-2</v>
+        <v>-3.1200000000000006E-2</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22" s="3">
-        <v>16</v>
+        <v>222</v>
       </c>
       <c r="C22" s="3">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="D22" s="3">
-        <v>-3</v>
+        <v>143</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" si="0"/>
-        <v>499</v>
+        <v>677</v>
       </c>
       <c r="F22" s="3">
-        <v>1746820000</v>
+        <v>24546690000</v>
       </c>
       <c r="G22" s="3">
-        <v>2074540000</v>
+        <v>8713920000</v>
       </c>
       <c r="H22" s="3">
-        <v>-327720000</v>
+        <v>15832770000</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="1"/>
-        <v>54085370000</v>
+        <v>73709690000</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="L22" s="3">
-        <v>-17</v>
+        <v>-77</v>
       </c>
       <c r="M22" s="3">
         <f t="shared" si="2"/>
-        <v>-103</v>
+        <v>-185</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>1856390000</v>
+        <v>8492600000</v>
       </c>
       <c r="P22" s="3">
-        <v>-1856390000</v>
+        <v>-8492600000</v>
       </c>
       <c r="Q22" s="3">
         <f t="shared" si="3"/>
-        <v>-10419900000</v>
+        <v>-19452950000</v>
       </c>
       <c r="R22" s="3">
-        <v>1212</v>
+        <v>1291</v>
       </c>
       <c r="S22" s="3">
-        <v>482</v>
+        <v>850</v>
       </c>
       <c r="T22" s="7">
-        <v>7.2614107883817433E-2</v>
+        <v>0.35411764705882354</v>
       </c>
       <c r="U22" s="7">
-        <v>3.5269709543568464E-2</v>
+        <v>9.058823529411765E-2</v>
       </c>
       <c r="V22" s="7">
-        <v>-1.1899999999999999E-2</v>
+        <v>1.78E-2</v>
       </c>
       <c r="W22" s="7">
         <f t="shared" si="4"/>
-        <v>-4.9600000000000005E-2</v>
+        <v>-2.4100000000000007E-2</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23" s="3">
-        <v>237</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D23" s="3">
-        <v>227</v>
+        <v>35</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="0"/>
-        <v>502</v>
+        <v>534</v>
       </c>
       <c r="F23" s="3">
-        <v>25881060000</v>
+        <v>4332000000</v>
       </c>
       <c r="G23" s="3">
-        <v>1091310000</v>
+        <v>540450000</v>
       </c>
       <c r="H23" s="3">
-        <v>24789750000</v>
+        <v>3791550000</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="1"/>
-        <v>54413090000</v>
+        <v>57876920000</v>
       </c>
       <c r="J23" s="3">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="L23" s="3">
-        <v>40</v>
+        <v>-5</v>
       </c>
       <c r="M23" s="3">
         <f t="shared" si="2"/>
-        <v>-86</v>
+        <v>-108</v>
       </c>
       <c r="N23" s="3">
-        <v>6425730000</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>1091290000</v>
+        <v>540450000</v>
       </c>
       <c r="P23" s="3">
-        <v>5334440000</v>
+        <v>-540450000</v>
       </c>
       <c r="Q23" s="3">
         <f t="shared" si="3"/>
-        <v>-8563510000</v>
+        <v>-10960350000</v>
       </c>
       <c r="R23" s="3">
-        <v>1167</v>
+        <v>1255</v>
       </c>
       <c r="S23" s="3">
-        <v>489</v>
+        <v>394</v>
       </c>
       <c r="T23" s="7">
-        <v>0.50511247443762786</v>
+        <v>0.11421319796954314</v>
       </c>
       <c r="U23" s="7">
-        <v>0.15950920245398773</v>
+        <v>1.2690355329949238E-2</v>
       </c>
       <c r="V23" s="7">
-        <v>6.5000000000000006E-3</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="W23" s="7">
         <f t="shared" si="4"/>
-        <v>-3.7700000000000004E-2</v>
+        <v>-4.1900000000000007E-2</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C24" s="3">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>34</v>
+        <v>-3</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" si="0"/>
-        <v>275</v>
+        <v>499</v>
       </c>
       <c r="F24" s="3">
-        <v>4930750000</v>
+        <v>1746820000</v>
       </c>
       <c r="G24" s="3">
-        <v>1291220000</v>
+        <v>2074540000</v>
       </c>
       <c r="H24" s="3">
-        <v>3639530000</v>
+        <v>-327720000</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="1"/>
-        <v>29623340000</v>
+        <v>54085370000</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L24" s="3">
-        <v>-11</v>
+        <v>-17</v>
       </c>
       <c r="M24" s="3">
         <f t="shared" si="2"/>
-        <v>-126</v>
+        <v>-103</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
-        <v>1184070000</v>
+        <v>1856390000</v>
       </c>
       <c r="P24" s="3">
-        <v>-1184070000</v>
+        <v>-1856390000</v>
       </c>
       <c r="Q24" s="3">
         <f t="shared" si="3"/>
-        <v>-13897950000</v>
+        <v>-10419900000</v>
       </c>
       <c r="R24" s="3">
-        <v>937</v>
+        <v>1212</v>
       </c>
       <c r="S24" s="3">
-        <v>723</v>
+        <v>482</v>
       </c>
       <c r="T24" s="7">
-        <v>8.0221300138312593E-2</v>
+        <v>7.2614107883817433E-2</v>
       </c>
       <c r="U24" s="7">
-        <v>1.5214384508990318E-2</v>
+        <v>3.5269709543568464E-2</v>
       </c>
       <c r="V24" s="7">
-        <v>8.6E-3</v>
+        <v>-1.1899999999999999E-2</v>
       </c>
       <c r="W24" s="7">
         <f t="shared" si="4"/>
-        <v>-4.4200000000000003E-2</v>
+        <v>-4.9600000000000005E-2</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25" s="3">
-        <v>147</v>
+        <v>237</v>
       </c>
       <c r="C25" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D25" s="3">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" si="0"/>
-        <v>241</v>
+        <v>502</v>
       </c>
       <c r="F25" s="3">
-        <v>15868470000</v>
+        <v>25881060000</v>
       </c>
       <c r="G25" s="3">
-        <v>215680000</v>
+        <v>1091310000</v>
       </c>
       <c r="H25" s="3">
-        <v>15652790000</v>
+        <v>24789750000</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" si="1"/>
-        <v>25983810000</v>
+        <v>54413090000</v>
       </c>
       <c r="J25" s="3">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="K25" s="3">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="L25" s="3">
-        <v>-2</v>
+        <v>40</v>
       </c>
       <c r="M25" s="3">
         <f t="shared" si="2"/>
-        <v>-115</v>
+        <v>-86</v>
       </c>
       <c r="N25" s="3">
-        <v>0</v>
+        <v>6425730000</v>
       </c>
       <c r="O25" s="3">
-        <v>215680000</v>
+        <v>1091290000</v>
       </c>
       <c r="P25" s="3">
-        <v>-215680000</v>
+        <v>5334440000</v>
       </c>
       <c r="Q25" s="3">
         <f t="shared" si="3"/>
-        <v>-12713880000</v>
+        <v>-8563510000</v>
       </c>
       <c r="R25" s="3">
-        <v>850</v>
+        <v>1167</v>
       </c>
       <c r="S25" s="3">
-        <v>344</v>
+        <v>489</v>
       </c>
       <c r="T25" s="7">
-        <v>0.43313953488372092</v>
+        <v>0.50511247443762786</v>
       </c>
       <c r="U25" s="7">
-        <v>5.8139534883720929E-3</v>
+        <v>0.15950920245398773</v>
       </c>
       <c r="V25" s="7">
-        <v>-5.6000000000000008E-3</v>
+        <v>6.5000000000000006E-3</v>
       </c>
       <c r="W25" s="7">
         <f t="shared" si="4"/>
-        <v>-5.28E-2</v>
+        <v>-3.7700000000000004E-2</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="C26" s="3">
         <v>12</v>
       </c>
       <c r="D26" s="3">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>275</v>
       </c>
       <c r="F26" s="3">
-        <v>13288440000</v>
+        <v>4930750000</v>
       </c>
       <c r="G26" s="3">
-        <v>1290090000</v>
+        <v>1291220000</v>
       </c>
       <c r="H26" s="3">
-        <v>11998350000</v>
+        <v>3639530000</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="1"/>
-        <v>10331020000</v>
+        <v>29623340000</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
@@ -9985,461 +9987,575 @@
       </c>
       <c r="M26" s="3">
         <f t="shared" si="2"/>
-        <v>-113</v>
+        <v>-126</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>1182120000</v>
+        <v>1184070000</v>
       </c>
       <c r="P26" s="3">
-        <v>-1182120000</v>
+        <v>-1184070000</v>
       </c>
       <c r="Q26" s="3">
         <f t="shared" si="3"/>
-        <v>-12498200000</v>
+        <v>-13897950000</v>
       </c>
       <c r="R26" s="3">
-        <v>501</v>
+        <v>937</v>
       </c>
       <c r="S26" s="3">
-        <v>972</v>
+        <v>723</v>
       </c>
       <c r="T26" s="7">
-        <v>0.1388888888888889</v>
+        <v>8.0221300138312593E-2</v>
       </c>
       <c r="U26" s="7">
-        <v>1.131687242798354E-2</v>
+        <v>1.5214384508990318E-2</v>
       </c>
       <c r="V26" s="7">
-        <v>1E-3</v>
+        <v>8.6E-3</v>
       </c>
       <c r="W26" s="7">
         <f t="shared" si="4"/>
-        <v>-4.7199999999999999E-2</v>
+        <v>-4.4200000000000003E-2</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B27" s="3">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="C27" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" s="3">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" si="0"/>
-        <v>-15</v>
+        <v>241</v>
       </c>
       <c r="F27" s="3">
-        <v>7885450000</v>
+        <v>15868470000</v>
       </c>
       <c r="G27" s="3">
-        <v>331270000</v>
+        <v>215680000</v>
       </c>
       <c r="H27" s="3">
-        <v>7554180000</v>
+        <v>15652790000</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="1"/>
-        <v>-1667330000</v>
+        <v>25983810000</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27" s="3">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M27" s="3">
         <f t="shared" si="2"/>
-        <v>-102</v>
+        <v>-115</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>109450000</v>
+        <v>215680000</v>
       </c>
       <c r="P27" s="3">
-        <v>-109450000</v>
+        <v>-215680000</v>
       </c>
       <c r="Q27" s="3">
         <f t="shared" si="3"/>
-        <v>-11316080000</v>
+        <v>-12713880000</v>
       </c>
       <c r="R27" s="3">
-        <v>479</v>
+        <v>850</v>
       </c>
       <c r="S27" s="3">
-        <v>417</v>
+        <v>344</v>
       </c>
       <c r="T27" s="7">
-        <v>0.17745803357314149</v>
+        <v>0.43313953488372092</v>
       </c>
       <c r="U27" s="7">
-        <v>2.3980815347721821E-3</v>
+        <v>5.8139534883720929E-3</v>
       </c>
       <c r="V27" s="7">
-        <v>-2.69E-2</v>
+        <v>-5.6000000000000008E-3</v>
       </c>
       <c r="W27" s="7">
         <f t="shared" si="4"/>
-        <v>-4.82E-2</v>
+        <v>-5.28E-2</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B28" s="3">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="C28" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D28" s="3">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="E28" s="3">
         <f t="shared" si="0"/>
-        <v>-83</v>
+        <v>96</v>
       </c>
       <c r="F28" s="3">
-        <v>1109000000</v>
+        <v>13288440000</v>
       </c>
       <c r="G28" s="3">
-        <v>110300000</v>
+        <v>1290090000</v>
       </c>
       <c r="H28" s="3">
-        <v>998700000</v>
+        <v>11998350000</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="1"/>
-        <v>-9221510000</v>
+        <v>10331020000</v>
       </c>
       <c r="J28" s="3">
         <v>0</v>
       </c>
       <c r="K28" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L28" s="3">
-        <v>-1</v>
+        <v>-11</v>
       </c>
       <c r="M28" s="3">
         <f t="shared" si="2"/>
-        <v>-101</v>
+        <v>-113</v>
       </c>
       <c r="N28" s="3">
         <v>0</v>
       </c>
       <c r="O28" s="3">
-        <v>110300000</v>
+        <v>1182120000</v>
       </c>
       <c r="P28" s="3">
-        <v>-110300000</v>
+        <v>-1182120000</v>
       </c>
       <c r="Q28" s="3">
         <f t="shared" si="3"/>
-        <v>-11206630000</v>
+        <v>-12498200000</v>
       </c>
       <c r="R28" s="3">
-        <v>282</v>
+        <v>501</v>
       </c>
       <c r="S28" s="3">
-        <v>513</v>
+        <v>972</v>
       </c>
       <c r="T28" s="7">
-        <v>2.1442495126705652E-2</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U28" s="7">
-        <v>1.9493177387914229E-3</v>
+        <v>1.131687242798354E-2</v>
       </c>
       <c r="V28" s="7">
-        <v>1.5E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="W28" s="7">
         <f t="shared" si="4"/>
-        <v>-2.1299999999999999E-2</v>
+        <v>-4.7199999999999999E-2</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B29" s="3">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="C29" s="3">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D29" s="3">
-        <v>-6</v>
+        <v>68</v>
       </c>
       <c r="E29" s="3">
         <f t="shared" si="0"/>
-        <v>-92</v>
+        <v>-15</v>
       </c>
       <c r="F29" s="3">
-        <v>2312590000</v>
+        <v>7885450000</v>
       </c>
       <c r="G29" s="3">
-        <v>2988560000</v>
+        <v>331270000</v>
       </c>
       <c r="H29" s="3">
-        <v>-675970000</v>
+        <v>7554180000</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" si="1"/>
-        <v>-10220210000</v>
+        <v>-1667330000</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L29" s="3">
-        <v>-20</v>
+        <v>-1</v>
       </c>
       <c r="M29" s="3">
         <f t="shared" si="2"/>
-        <v>-100</v>
+        <v>-102</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
-        <v>2212780000</v>
+        <v>109450000</v>
       </c>
       <c r="P29" s="3">
-        <v>-2212780000</v>
+        <v>-109450000</v>
       </c>
       <c r="Q29" s="3">
         <f t="shared" si="3"/>
-        <v>-11096330000</v>
+        <v>-11316080000</v>
       </c>
       <c r="R29" s="3">
-        <v>206</v>
+        <v>479</v>
       </c>
       <c r="S29" s="3">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="T29" s="7">
-        <v>0.10503282275711159</v>
+        <v>0.17745803357314149</v>
       </c>
       <c r="U29" s="7">
-        <v>4.3763676148796497E-2</v>
+        <v>2.3980815347721821E-3</v>
       </c>
       <c r="V29" s="7">
-        <v>4.0000000000000001E-3</v>
+        <v>-2.69E-2</v>
       </c>
       <c r="W29" s="7">
         <f t="shared" si="4"/>
-        <v>-2.2800000000000001E-2</v>
+        <v>-4.82E-2</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B30" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C30" s="3">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="D30" s="3">
-        <v>-54</v>
+        <v>9</v>
       </c>
       <c r="E30" s="3">
-        <f>D30+E31</f>
-        <v>-86</v>
+        <f t="shared" si="0"/>
+        <v>-83</v>
       </c>
       <c r="F30" s="3">
-        <v>0</v>
+        <v>1109000000</v>
       </c>
       <c r="G30" s="3">
-        <v>5939180000</v>
+        <v>110300000</v>
       </c>
       <c r="H30" s="3">
-        <v>-5939180000</v>
+        <v>998700000</v>
       </c>
       <c r="I30" s="3">
-        <f>H30+I31</f>
-        <v>-9544240000</v>
+        <f t="shared" si="1"/>
+        <v>-9221510000</v>
       </c>
       <c r="J30" s="3">
         <v>0</v>
       </c>
       <c r="K30" s="3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="L30" s="3">
-        <v>-50</v>
+        <v>-1</v>
       </c>
       <c r="M30" s="3">
-        <f>L30+M31</f>
-        <v>-80</v>
+        <f t="shared" si="2"/>
+        <v>-101</v>
       </c>
       <c r="N30" s="3">
         <v>0</v>
       </c>
       <c r="O30" s="3">
-        <v>5506080000</v>
+        <v>110300000</v>
       </c>
       <c r="P30" s="3">
-        <v>-5506080000</v>
+        <v>-110300000</v>
       </c>
       <c r="Q30" s="3">
-        <f>P30+Q31</f>
-        <v>-8883550000</v>
+        <f t="shared" si="3"/>
+        <v>-11206630000</v>
       </c>
       <c r="R30" s="3">
-        <v>145</v>
+        <v>282</v>
       </c>
       <c r="S30" s="3">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="T30" s="7">
-        <v>0.11688311688311688</v>
+        <v>2.1442495126705652E-2</v>
       </c>
       <c r="U30" s="7">
-        <v>0.10822510822510822</v>
+        <v>1.9493177387914229E-3</v>
       </c>
       <c r="V30" s="7">
-        <v>-1.8E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="W30" s="7">
-        <f>V30+W31</f>
-        <v>-2.6800000000000001E-2</v>
+        <f t="shared" si="4"/>
+        <v>-2.1299999999999999E-2</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="3">
+        <v>21</v>
+      </c>
+      <c r="C31" s="3">
+        <v>27</v>
+      </c>
+      <c r="D31" s="3">
+        <v>-6</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="0"/>
+        <v>-92</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2312590000</v>
+      </c>
+      <c r="G31" s="3">
+        <v>2988560000</v>
+      </c>
+      <c r="H31" s="3">
+        <v>-675970000</v>
+      </c>
+      <c r="I31" s="3">
+        <f t="shared" si="1"/>
+        <v>-10220210000</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="3">
+        <v>20</v>
+      </c>
+      <c r="L31" s="3">
+        <v>-20</v>
+      </c>
+      <c r="M31" s="3">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>2212780000</v>
+      </c>
+      <c r="P31" s="3">
+        <v>-2212780000</v>
+      </c>
+      <c r="Q31" s="3">
+        <f t="shared" si="3"/>
+        <v>-11096330000</v>
+      </c>
+      <c r="R31" s="3">
+        <v>206</v>
+      </c>
+      <c r="S31" s="3">
+        <v>457</v>
+      </c>
+      <c r="T31" s="7">
+        <v>0.10503282275711159</v>
+      </c>
+      <c r="U31" s="7">
+        <v>4.3763676148796497E-2</v>
+      </c>
+      <c r="V31" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="W31" s="7">
+        <f t="shared" si="4"/>
+        <v>-2.2800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3">
+        <v>54</v>
+      </c>
+      <c r="D32" s="3">
+        <v>-54</v>
+      </c>
+      <c r="E32" s="3">
+        <f>D32+E33</f>
+        <v>-86</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>5939180000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-5939180000</v>
+      </c>
+      <c r="I32" s="3">
+        <f>H32+I33</f>
+        <v>-9544240000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>50</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-50</v>
+      </c>
+      <c r="M32" s="3">
+        <f>L32+M33</f>
+        <v>-80</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>5506080000</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-5506080000</v>
+      </c>
+      <c r="Q32" s="3">
+        <f>P32+Q33</f>
+        <v>-8883550000</v>
+      </c>
+      <c r="R32" s="3">
+        <v>145</v>
+      </c>
+      <c r="S32" s="3">
+        <v>462</v>
+      </c>
+      <c r="T32" s="7">
+        <v>0.11688311688311688</v>
+      </c>
+      <c r="U32" s="7">
+        <v>0.10822510822510822</v>
+      </c>
+      <c r="V32" s="7">
+        <v>-1.8E-3</v>
+      </c>
+      <c r="W32" s="7">
+        <f>V32+W33</f>
+        <v>-2.6800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B33" s="3">
         <v>5</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C33" s="3">
         <v>37</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D33" s="3">
         <v>-32</v>
       </c>
-      <c r="E31" s="3">
-        <f>D31</f>
+      <c r="E33" s="3">
+        <f>D33</f>
         <v>-32</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F33" s="3">
         <v>552750000</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G33" s="3">
         <v>4157810000</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H33" s="3">
         <v>-3605060000</v>
       </c>
-      <c r="I31" s="3">
-        <f>H31</f>
+      <c r="I33" s="3">
+        <f>H33</f>
         <v>-3605060000</v>
       </c>
-      <c r="J31" s="3">
-        <v>0</v>
-      </c>
-      <c r="K31" s="3">
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>30</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L33" s="3">
         <v>-30</v>
       </c>
-      <c r="M31" s="3">
-        <f>L31</f>
+      <c r="M33" s="3">
+        <f>L33</f>
         <v>-30</v>
       </c>
-      <c r="N31" s="3">
-        <v>0</v>
-      </c>
-      <c r="O31" s="3">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>3377470000</v>
       </c>
-      <c r="P31" s="3">
+      <c r="P33" s="3">
         <v>-3377470000</v>
       </c>
-      <c r="Q31" s="3">
-        <f>P31</f>
+      <c r="Q33" s="3">
+        <f>P33</f>
         <v>-3377470000</v>
       </c>
-      <c r="R31" s="3">
-        <v>0</v>
-      </c>
-      <c r="S31" s="3">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>692</v>
       </c>
-      <c r="T31" s="7">
+      <c r="T33" s="7">
         <v>6.0693641618497107E-2</v>
       </c>
-      <c r="U31" s="7">
+      <c r="U33" s="7">
         <v>4.3352601156069363E-2</v>
       </c>
-      <c r="V31" s="7">
+      <c r="V33" s="7">
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="W31" s="7">
-        <f>V31</f>
+      <c r="W33" s="7">
+        <f>V33</f>
         <v>-2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -10457,8 +10573,8 @@
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -10476,8 +10592,8 @@
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -10495,8 +10611,8 @@
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -10514,7 +10630,7 @@
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -10533,7 +10649,7 @@
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -10552,6 +10668,44 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
     </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="J3:Q3"/>
@@ -10563,7 +10717,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B82BDC2-5D76-6E46-9971-DCB614823F8C}">
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
@@ -10597,26 +10751,26 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="12" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -10688,163 +10842,227 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="C5" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D5" s="3">
-        <v>-11</v>
+        <v>162</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <v>18636440000</v>
       </c>
       <c r="G5" s="3">
-        <v>1226300000</v>
+        <v>448870000</v>
       </c>
       <c r="H5" s="3">
-        <v>-1226300000</v>
+        <v>18187570000</v>
       </c>
       <c r="J5" s="3">
         <v>0</v>
       </c>
       <c r="K5" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="L5" s="3">
-        <v>-11</v>
+        <v>-4</v>
       </c>
       <c r="N5" s="3">
         <v>0</v>
       </c>
       <c r="O5" s="3">
-        <v>1226270000</v>
+        <v>448870000</v>
       </c>
       <c r="P5" s="3">
-        <v>-1226270000</v>
+        <v>-448870000</v>
       </c>
       <c r="R5" s="3">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="S5" s="3">
-        <v>160</v>
+        <v>472</v>
       </c>
       <c r="T5" s="7">
-        <v>6.8750000000000006E-2</v>
+        <v>0.36016949152542371</v>
       </c>
       <c r="U5" s="7">
-        <v>6.8750000000000006E-2</v>
+        <v>8.4745762711864406E-3</v>
       </c>
       <c r="V5" s="7">
-        <v>1.5300000000000001E-2</v>
+        <v>-1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-4</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>447130000</v>
+      </c>
+      <c r="H6" s="3">
+        <v>-447130000</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>4</v>
+      </c>
+      <c r="L6" s="3">
+        <v>-4</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>447130000</v>
+      </c>
+      <c r="P6" s="3">
+        <v>-447130000</v>
+      </c>
+      <c r="R6" s="3">
+        <v>86</v>
+      </c>
+      <c r="S6" s="3">
+        <v>126</v>
+      </c>
+      <c r="T6" s="7">
+        <v>3.1746031746031744E-2</v>
+      </c>
+      <c r="U6" s="7">
+        <v>3.1746031746031744E-2</v>
+      </c>
+      <c r="V6" s="7">
+        <v>5.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-11</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1226300000</v>
+      </c>
+      <c r="H7" s="3">
+        <v>-1226300000</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>11</v>
+      </c>
+      <c r="L7" s="3">
+        <v>-11</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1226270000</v>
+      </c>
+      <c r="P7" s="3">
+        <v>-1226270000</v>
+      </c>
+      <c r="R7" s="3">
+        <v>60</v>
+      </c>
+      <c r="S7" s="3">
+        <v>160</v>
+      </c>
+      <c r="T7" s="7">
+        <v>6.8750000000000006E-2</v>
+      </c>
+      <c r="U7" s="7">
+        <v>6.8750000000000006E-2</v>
+      </c>
+      <c r="V7" s="7">
+        <v>1.5300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D8" s="3">
         <v>-1</v>
       </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>110030000</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H8" s="3">
         <v>-110030000</v>
       </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>1</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L8" s="3">
         <v>-1</v>
       </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>110030000</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P8" s="3">
         <v>-110030000</v>
       </c>
-      <c r="R6" s="3">
-        <v>0</v>
-      </c>
-      <c r="S6" s="3">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>158</v>
       </c>
-      <c r="T6" s="7">
+      <c r="T8" s="7">
         <v>6.3291139240506328E-3</v>
       </c>
-      <c r="U6" s="7">
+      <c r="U8" s="7">
         <v>6.3291139240506328E-3</v>
       </c>
-      <c r="V6" s="7">
+      <c r="V8" s="7">
         <v>-5.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
@@ -11422,6 +11640,54 @@
       <c r="U32" s="7"/>
       <c r="V32" s="7"/>
     </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A33" s="6"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A34" s="6"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:I3"/>

--- a/2023/PhaiSinh.xlsx
+++ b/2023/PhaiSinh.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trung.nguyenhoang/Desktop/stocks/App/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trung.nguyenhoang/Documents/github/ssh/stocks/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A129FE52-7743-8D41-BB1B-E4D17B16D3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3694DA6-A73D-B945-9D31-8566E453CB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="16860" xr2:uid="{C3A8CAD2-D0D3-0E42-AE62-C721C0509473}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="16860" activeTab="2" xr2:uid="{C3A8CAD2-D0D3-0E42-AE62-C721C0509473}"/>
   </bookViews>
   <sheets>
     <sheet name="MoneyFlow" sheetId="3" r:id="rId1"/>
@@ -7060,9 +7060,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7100,7 +7100,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -7206,7 +7206,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7348,7 +7348,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7359,7 +7359,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A88:AD152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="69" workbookViewId="0">
+    <sheetView zoomScale="69" workbookViewId="0">
       <selection activeCell="W30" sqref="W30"/>
     </sheetView>
   </sheetViews>
@@ -17506,7 +17506,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>

--- a/2023/PhaiSinh.xlsx
+++ b/2023/PhaiSinh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trung.nguyenhoang/Documents/github/ssh/stocks/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3694DA6-A73D-B945-9D31-8566E453CB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549D65C8-C398-5A4B-B8DD-10A094E5683F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="16860" activeTab="2" xr2:uid="{C3A8CAD2-D0D3-0E42-AE62-C721C0509473}"/>
   </bookViews>
